--- a/data/cci/cci-platformprog.xlsx
+++ b/data/cci/cci-platformprog.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antony.wilson/git/cci-vocabularies/data/cci/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antony.wilson/git/cci-vocabularies2/data/cci/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18D3F6B6-E412-924B-9142-8C0A844F8BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D101142-36C5-6E4C-8875-CB43D42232C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{22AD353E-A717-6D4A-929B-8672D9A23F48}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{4D380965-4325-DA46-9678-A8F4BC4ABC47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="222">
   <si>
     <t>URI</t>
   </si>
@@ -677,7 +677,7 @@
     <t>Sentinel-1</t>
   </si>
   <si>
-    <t>ESA Sentinel 1 programme</t>
+    <t>Sentinel 1 programme</t>
   </si>
   <si>
     <t>https://www.wmo-sat.info/oscar/satelliteprogrammes/view/145</t>
@@ -689,7 +689,7 @@
     <t>Sentinel-2</t>
   </si>
   <si>
-    <t>ESA Sentinel 2 programme</t>
+    <t>Sentinel 2 programme</t>
   </si>
   <si>
     <t>https://www.wmo-sat.info/oscar/satelliteprogrammes/view/146</t>
@@ -701,7 +701,7 @@
     <t>Sentinel-3</t>
   </si>
   <si>
-    <t>ESA Sentinel 3 programme</t>
+    <t>Sentinel 3 programme</t>
   </si>
   <si>
     <t>https://www.wmo-sat.info/oscar/satelliteprogrammes/view/147</t>
@@ -879,6 +879,18 @@
   </si>
   <si>
     <t>https://www.wmo-sat.info/oscar/satelliteprogrammes/view/gpm</t>
+  </si>
+  <si>
+    <t>plat_sentinel6_prog</t>
+  </si>
+  <si>
+    <t>Sentinel-6</t>
+  </si>
+  <si>
+    <t>Sentinel 6 programme</t>
+  </si>
+  <si>
+    <t>https://space.oscar.wmo.int/satelliteprogrammes/view/sentinel_6</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1092,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
@@ -1100,6 +1112,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
@@ -1135,27 +1150,28 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="20">
-    <cellStyle name="Accent" xfId="7" xr:uid="{E71A7E56-2176-5947-B75E-E97BCCE1D780}"/>
-    <cellStyle name="Accent 1" xfId="8" xr:uid="{9A8760CF-02DA-E743-BDB4-73A28DE64347}"/>
-    <cellStyle name="Accent 2" xfId="9" xr:uid="{2A101AA4-5737-7649-B514-68D348EE23AF}"/>
-    <cellStyle name="Accent 3" xfId="10" xr:uid="{46130A8E-10A1-A547-8817-D58A8861DEC2}"/>
+  <cellStyles count="21">
+    <cellStyle name="Accent" xfId="7" xr:uid="{0D1E76D5-A312-CD4D-9277-12C830723FF6}"/>
+    <cellStyle name="Accent 1" xfId="8" xr:uid="{CB9DE17C-4160-924E-B947-234D0058FB27}"/>
+    <cellStyle name="Accent 2" xfId="9" xr:uid="{EB8F2340-B557-8748-AA3E-4FD10DF81AFD}"/>
+    <cellStyle name="Accent 3" xfId="10" xr:uid="{FE7F3928-FB6F-A248-A6E7-D0484EDB905C}"/>
     <cellStyle name="Bad" xfId="4" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Error" xfId="11" xr:uid="{E7B4B07B-51C9-224D-A002-B1495E20BD40}"/>
-    <cellStyle name="Footnote" xfId="12" xr:uid="{651ED45D-9006-EB43-8848-5BDD7A770E48}"/>
+    <cellStyle name="Error" xfId="11" xr:uid="{7F894752-7B90-194A-A334-10920955B747}"/>
+    <cellStyle name="Footnote" xfId="12" xr:uid="{8D5B4964-0401-C848-A0B2-035C75374CAF}"/>
     <cellStyle name="Good" xfId="3" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading" xfId="13" xr:uid="{2CE3E4DB-A112-3341-8FB9-16211B567153}"/>
+    <cellStyle name="Heading" xfId="13" xr:uid="{B03F8AA4-2F05-1F40-B646-26A909FF5EBD}"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="2" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="14" xr:uid="{A8A265BC-4078-4E48-A0E5-60AF4EEC103F}"/>
+    <cellStyle name="Heading1" xfId="14" xr:uid="{0AFBC9ED-A241-6B4A-B735-C7B609D5B7B0}"/>
+    <cellStyle name="Hyperlink" xfId="15" xr:uid="{4EFCFE17-20C9-564B-9C05-6FA54E77819D}"/>
     <cellStyle name="Neutral" xfId="5" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Note" xfId="6" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Result" xfId="15" xr:uid="{C32760A3-97AB-5545-8303-76DAED34E911}"/>
-    <cellStyle name="Result2" xfId="16" xr:uid="{2657201C-2F72-3F48-92D9-96E9E198AAB9}"/>
-    <cellStyle name="Status" xfId="17" xr:uid="{2C212D37-69BA-CA41-9334-B84A0B34B2C6}"/>
-    <cellStyle name="Text" xfId="18" xr:uid="{745ED2F6-64A3-F648-A238-44EA51DD5B72}"/>
-    <cellStyle name="Warning" xfId="19" xr:uid="{87A5032E-FC1D-1F45-B086-DEBA7CC5A17B}"/>
+    <cellStyle name="Result" xfId="16" xr:uid="{8B11E81D-1F3F-8146-AC9C-96CD23238AE2}"/>
+    <cellStyle name="Result2" xfId="17" xr:uid="{801B7801-6448-9549-8043-D72C01ADB9D5}"/>
+    <cellStyle name="Status" xfId="18" xr:uid="{B5E97EF1-E882-E847-9C88-A592026FD0CC}"/>
+    <cellStyle name="Text" xfId="19" xr:uid="{347C0D6B-EA22-C24D-A148-EDCC0BF595F8}"/>
+    <cellStyle name="Warning" xfId="20" xr:uid="{AA753B93-4276-B541-8F1C-AD4A4527F78E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1171,1028 +1187,1028 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8DF6FBFF-717A-4343-AECE-A52353DF3D71}" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="A1:AMC1048576" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D5BE7002-C130-9748-A7DD-F5E495C60039}" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="A1:AMC1048576" headerRowCount="0" totalsRowShown="0">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AMC1048576">
     <sortCondition ref="A1:A1048576"/>
   </sortState>
   <tableColumns count="1017">
-    <tableColumn id="1" xr3:uid="{C450EC52-4E1A-7A41-86F0-382FCBE2FA56}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{37334D99-1E9A-864F-B5B6-AD3F4631D7C4}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{3EDFC241-AE2B-324E-A079-F6421E34FD55}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{2C76956E-B157-714B-848B-65DFBE4C6EF8}" name="Column4"/>
-    <tableColumn id="5" xr3:uid="{BE6D9309-D534-0B41-A945-9C31C6BCF340}" name="Column5"/>
-    <tableColumn id="6" xr3:uid="{58BF3B56-30BF-5749-9586-D7AFD76926D3}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{D0A36F69-E979-934C-89B5-B80B2A98DBF0}" name="Column7"/>
-    <tableColumn id="8" xr3:uid="{539DCA57-0D73-934B-BBEE-4E81CA37744E}" name="Column8"/>
-    <tableColumn id="9" xr3:uid="{620A86C9-7E14-1A40-A90A-4029F6F3BE3F}" name="Column9"/>
-    <tableColumn id="10" xr3:uid="{3E75D55B-3A29-E449-B9E6-5C039A2829E1}" name="Column10"/>
-    <tableColumn id="11" xr3:uid="{A8E87DF3-42B4-C149-9528-32CF55EEEA31}" name="Column11"/>
-    <tableColumn id="12" xr3:uid="{CC756538-86B0-1542-BB09-340FD6B86863}" name="Column12"/>
-    <tableColumn id="13" xr3:uid="{74A43CD0-509B-EB48-889F-2BF0F77AD66C}" name="Column13"/>
-    <tableColumn id="14" xr3:uid="{7BAC7FE9-D1AB-FB44-A814-219B89E52E8A}" name="Column14"/>
-    <tableColumn id="15" xr3:uid="{E8C2C2CA-6F83-6042-AB9C-C1087018B7D7}" name="Column15"/>
-    <tableColumn id="16" xr3:uid="{22EAF44D-6763-2949-B6BB-1FB76855A856}" name="Column16"/>
-    <tableColumn id="17" xr3:uid="{773ED83F-93F5-6741-B76D-885A73127A49}" name="Column17"/>
-    <tableColumn id="18" xr3:uid="{129F0A00-9DCE-0844-8B6D-DE729C3A89D0}" name="Column18"/>
-    <tableColumn id="19" xr3:uid="{397DABD1-9901-4741-A0A7-AEB98532F02E}" name="Column19"/>
-    <tableColumn id="20" xr3:uid="{7180C3F1-8BB3-7A48-A273-F963F6AC0FC4}" name="Column20"/>
-    <tableColumn id="21" xr3:uid="{01BFEDB3-2918-2640-B8E4-3CC1F6F8E99C}" name="Column21"/>
-    <tableColumn id="22" xr3:uid="{0E830B02-09B7-DC49-9CBF-C95508166572}" name="Column22"/>
-    <tableColumn id="23" xr3:uid="{0B57D75C-4892-404A-B71E-B580C18EA84D}" name="Column23"/>
-    <tableColumn id="24" xr3:uid="{A2F31A13-417B-0440-94B9-E1965226EEFA}" name="Column24"/>
-    <tableColumn id="25" xr3:uid="{85DB072E-BCB5-AE48-A8CC-4997C3CB29D4}" name="Column25"/>
-    <tableColumn id="26" xr3:uid="{85E831C5-58B3-614A-B503-451E1D86DDB2}" name="Column26"/>
-    <tableColumn id="27" xr3:uid="{B7736776-3712-5F44-9BCB-485072CB5B77}" name="Column27"/>
-    <tableColumn id="28" xr3:uid="{56D4F377-E2C6-8644-B6B0-0DC4C0EBF2CB}" name="Column28"/>
-    <tableColumn id="29" xr3:uid="{C26387DF-5110-7744-BED1-955A13270F5A}" name="Column29"/>
-    <tableColumn id="30" xr3:uid="{6EFDAAEE-F4F8-C84D-A954-3E7304CBD769}" name="Column30"/>
-    <tableColumn id="31" xr3:uid="{86A339DA-209B-1B4B-9797-0B1F1E66AD6C}" name="Column31"/>
-    <tableColumn id="32" xr3:uid="{2C13E7F0-FE53-2246-A2C4-7A62AF95E676}" name="Column32"/>
-    <tableColumn id="33" xr3:uid="{6B6119E6-DA69-3E40-AD62-411DD5FA5610}" name="Column33"/>
-    <tableColumn id="34" xr3:uid="{4D79F440-9EBE-9D45-AF30-FF24CC2D6948}" name="Column34"/>
-    <tableColumn id="35" xr3:uid="{8518CDA5-8BC9-3149-9766-B50ACB249A28}" name="Column35"/>
-    <tableColumn id="36" xr3:uid="{DE1AA241-6614-D34C-8FE3-2FF33D5D1089}" name="Column36"/>
-    <tableColumn id="37" xr3:uid="{72004BA0-E901-6C46-8912-C675196B8ED1}" name="Column37"/>
-    <tableColumn id="38" xr3:uid="{2AAC2D44-689D-7147-B54A-1A7C698190D6}" name="Column38"/>
-    <tableColumn id="39" xr3:uid="{1940CBB2-2EFA-324D-89E2-DEBDB5FF4BF6}" name="Column39"/>
-    <tableColumn id="40" xr3:uid="{78241202-B706-C949-9E77-5787006F3071}" name="Column40"/>
-    <tableColumn id="41" xr3:uid="{7F63B2B9-A1B8-8C42-8253-71EB55B64FBD}" name="Column41"/>
-    <tableColumn id="42" xr3:uid="{6B6C657F-8083-C04A-B23E-1D35032F535A}" name="Column42"/>
-    <tableColumn id="43" xr3:uid="{4F655294-0618-0649-A618-7F43D15154DB}" name="Column43"/>
-    <tableColumn id="44" xr3:uid="{839C9D5C-3BFB-6B44-BD17-B98E44FAE9DD}" name="Column44"/>
-    <tableColumn id="45" xr3:uid="{ECE6D542-7659-F34D-AD85-0BDA25814CE2}" name="Column45"/>
-    <tableColumn id="46" xr3:uid="{74347670-7CA7-9E43-9A72-EBA728755488}" name="Column46"/>
-    <tableColumn id="47" xr3:uid="{89EE6148-44E0-F241-A303-1D1C29FA5F2C}" name="Column47"/>
-    <tableColumn id="48" xr3:uid="{583617C4-FAD2-9943-B5FA-0997E644B140}" name="Column48"/>
-    <tableColumn id="49" xr3:uid="{A6A34340-6831-0244-B59E-896FAB8EF88D}" name="Column49"/>
-    <tableColumn id="50" xr3:uid="{83435A39-A8F5-3945-BAC2-2B002763C2DA}" name="Column50"/>
-    <tableColumn id="51" xr3:uid="{D2C7C145-1CAB-054D-BA7B-5005A044A3E8}" name="Column51"/>
-    <tableColumn id="52" xr3:uid="{94312836-2EA1-DC41-9A40-8BCFDD99F9E6}" name="Column52"/>
-    <tableColumn id="53" xr3:uid="{4B3A96BD-9F1F-9043-A578-366A03F5A52B}" name="Column53"/>
-    <tableColumn id="54" xr3:uid="{659B97FA-E0BF-9642-85C7-A30B5A34E1C3}" name="Column54"/>
-    <tableColumn id="55" xr3:uid="{08BEB87F-AA19-B34D-86AA-886C95FF2134}" name="Column55"/>
-    <tableColumn id="56" xr3:uid="{B836B268-DD21-6240-8252-689D15A5DC2A}" name="Column56"/>
-    <tableColumn id="57" xr3:uid="{E8D4CB2C-CB79-C340-9FF4-D8BAE4460AF6}" name="Column57"/>
-    <tableColumn id="58" xr3:uid="{342930A7-4E65-8E43-9609-2D3D49AFD676}" name="Column58"/>
-    <tableColumn id="59" xr3:uid="{083312B5-DC5A-6E46-90B7-748C490B77E9}" name="Column59"/>
-    <tableColumn id="60" xr3:uid="{4C955749-BBFD-954D-B6AC-8A9E6083DC44}" name="Column60"/>
-    <tableColumn id="61" xr3:uid="{F816B651-F9F5-AE40-8C4C-7730CD28B194}" name="Column61"/>
-    <tableColumn id="62" xr3:uid="{FE5086C4-9058-7545-B063-BF4BC22757E6}" name="Column62"/>
-    <tableColumn id="63" xr3:uid="{7EAE9E22-E65B-8143-850A-12286D068A64}" name="Column63"/>
-    <tableColumn id="64" xr3:uid="{9F3D6EA9-28CE-824E-AC70-8C9FD1226C7B}" name="Column64"/>
-    <tableColumn id="65" xr3:uid="{6FE79A8C-54C4-7544-9F8F-5C04B194BAC5}" name="Column65"/>
-    <tableColumn id="66" xr3:uid="{F22417C3-D35F-C146-A3FD-633BEBB9DEDC}" name="Column66"/>
-    <tableColumn id="67" xr3:uid="{472F6C5A-70E3-2046-A87D-9FAF07F9A1C4}" name="Column67"/>
-    <tableColumn id="68" xr3:uid="{B492E25B-8318-5240-A05B-C9838821E93A}" name="Column68"/>
-    <tableColumn id="69" xr3:uid="{DA036216-38F9-0040-B200-8BE2191A2760}" name="Column69"/>
-    <tableColumn id="70" xr3:uid="{2CA79055-735C-654A-BDCC-EE6CDA2B1106}" name="Column70"/>
-    <tableColumn id="71" xr3:uid="{DD31AABA-1804-BC49-9639-B6278B27C25B}" name="Column71"/>
-    <tableColumn id="72" xr3:uid="{7C78B3EB-C5DA-1F41-B31C-8F52353D515F}" name="Column72"/>
-    <tableColumn id="73" xr3:uid="{2C66DFC1-9768-5644-8E50-8DEED25AABE9}" name="Column73"/>
-    <tableColumn id="74" xr3:uid="{1A12288B-603D-6745-89A1-7C086531BA16}" name="Column74"/>
-    <tableColumn id="75" xr3:uid="{815961E7-3CBA-E64F-BCEE-F1EECFBBCA89}" name="Column75"/>
-    <tableColumn id="76" xr3:uid="{689CE306-C22D-FB42-9445-2427AF722D9A}" name="Column76"/>
-    <tableColumn id="77" xr3:uid="{BFECE0E8-4A43-BE46-9BEB-5B68B295325D}" name="Column77"/>
-    <tableColumn id="78" xr3:uid="{7D83042E-C218-C048-915C-95DA1B85CEBE}" name="Column78"/>
-    <tableColumn id="79" xr3:uid="{7E9F5C49-DAF6-4149-8C70-167CF9B5DCAA}" name="Column79"/>
-    <tableColumn id="80" xr3:uid="{E8C0D814-8208-8141-9AAD-D9E3B7F1E3A8}" name="Column80"/>
-    <tableColumn id="81" xr3:uid="{A7FEE14F-8578-8747-92E5-6E7AC6F92375}" name="Column81"/>
-    <tableColumn id="82" xr3:uid="{D0350606-95D7-DD49-99AD-A45485224628}" name="Column82"/>
-    <tableColumn id="83" xr3:uid="{44D97749-9281-5549-899A-85D141B3E08C}" name="Column83"/>
-    <tableColumn id="84" xr3:uid="{C451BA57-6A05-FB43-BF34-46D56C11C817}" name="Column84"/>
-    <tableColumn id="85" xr3:uid="{83A7A3BA-57E3-714F-8ED9-EC07ABD7C4AB}" name="Column85"/>
-    <tableColumn id="86" xr3:uid="{BD92D553-1350-E04A-BA31-90AE04654120}" name="Column86"/>
-    <tableColumn id="87" xr3:uid="{127643BC-2883-6C4D-942C-E345FE8F252E}" name="Column87"/>
-    <tableColumn id="88" xr3:uid="{A9D9A7AD-9ECF-0143-B28E-921F49BD23BC}" name="Column88"/>
-    <tableColumn id="89" xr3:uid="{6850F7F5-E28D-ED43-8AE8-710B053B9AF6}" name="Column89"/>
-    <tableColumn id="90" xr3:uid="{01B95DE5-59B3-4F47-B70D-5A97C2029744}" name="Column90"/>
-    <tableColumn id="91" xr3:uid="{96B08E21-0F85-EB44-A10F-7922112482E0}" name="Column91"/>
-    <tableColumn id="92" xr3:uid="{F35410E6-E517-D242-9C26-2170013B83EA}" name="Column92"/>
-    <tableColumn id="93" xr3:uid="{EB922619-E5F5-DE4D-9F87-BFBAC98C076C}" name="Column93"/>
-    <tableColumn id="94" xr3:uid="{68B7177B-D2A0-8F4F-866D-9BC18DED37B2}" name="Column94"/>
-    <tableColumn id="95" xr3:uid="{1A3CD98F-F070-014A-B7FC-397573A8C433}" name="Column95"/>
-    <tableColumn id="96" xr3:uid="{37667E7E-1B79-E249-A683-2318F95262CD}" name="Column96"/>
-    <tableColumn id="97" xr3:uid="{2EE57BD8-3FDA-0D46-96E7-C5AE5737F6D8}" name="Column97"/>
-    <tableColumn id="98" xr3:uid="{E9A282EF-DD08-3C47-82A7-94F9EAA2DE64}" name="Column98"/>
-    <tableColumn id="99" xr3:uid="{EFF2BA11-B7FE-ED42-B2D8-19116784AA08}" name="Column99"/>
-    <tableColumn id="100" xr3:uid="{CE5D0A04-719C-794E-A604-F49C713CA290}" name="Column100"/>
-    <tableColumn id="101" xr3:uid="{0E02AE8B-5E2E-974C-9C29-A214AD9FD0C2}" name="Column101"/>
-    <tableColumn id="102" xr3:uid="{8BB13DF8-8BC8-DA4E-B119-C52FD567FBB6}" name="Column102"/>
-    <tableColumn id="103" xr3:uid="{20AD34EA-E415-C649-B60F-3F588E376B39}" name="Column103"/>
-    <tableColumn id="104" xr3:uid="{A84C5696-F70D-8944-BDCD-DF3B30195694}" name="Column104"/>
-    <tableColumn id="105" xr3:uid="{6177E5F4-34F1-5442-B94D-B716ABE27472}" name="Column105"/>
-    <tableColumn id="106" xr3:uid="{FB169D41-E101-3D47-921B-CAF93F6B48B1}" name="Column106"/>
-    <tableColumn id="107" xr3:uid="{710EA18A-FA0E-954E-98CC-B91E0F8B3F0A}" name="Column107"/>
-    <tableColumn id="108" xr3:uid="{D39C1936-223F-B94A-ACA0-23952F64E3E4}" name="Column108"/>
-    <tableColumn id="109" xr3:uid="{741E8A74-DC9A-644E-852F-7701908C749C}" name="Column109"/>
-    <tableColumn id="110" xr3:uid="{1680997A-F359-1648-A6FB-5900DC2C47BC}" name="Column110"/>
-    <tableColumn id="111" xr3:uid="{645B802C-6E87-9840-807C-EBCD6D7B863C}" name="Column111"/>
-    <tableColumn id="112" xr3:uid="{C854B2AF-5E77-0A4C-80C5-E8286BF94E32}" name="Column112"/>
-    <tableColumn id="113" xr3:uid="{3E2A7420-6662-0747-84B5-CBAC6BAC84CC}" name="Column113"/>
-    <tableColumn id="114" xr3:uid="{4E54187C-A7DC-CB40-BB10-16868CF33F81}" name="Column114"/>
-    <tableColumn id="115" xr3:uid="{4B7BF85F-11F4-8A4E-AE62-64A94008B1C4}" name="Column115"/>
-    <tableColumn id="116" xr3:uid="{CBB116F8-F5DD-624A-84F0-5B2F79F60B60}" name="Column116"/>
-    <tableColumn id="117" xr3:uid="{A0460DE5-E818-0B4D-8F27-1A45936955B2}" name="Column117"/>
-    <tableColumn id="118" xr3:uid="{FAF7B5BD-67FC-AC44-9CE0-5EB2CC4E9CB2}" name="Column118"/>
-    <tableColumn id="119" xr3:uid="{798088BB-3A07-0E42-B964-E74198C2ABA0}" name="Column119"/>
-    <tableColumn id="120" xr3:uid="{819268E8-9D05-4E4B-ADE3-1555D3C507E5}" name="Column120"/>
-    <tableColumn id="121" xr3:uid="{72FF9C2B-4A04-E244-9601-BE295778D6EF}" name="Column121"/>
-    <tableColumn id="122" xr3:uid="{F5143EBF-9764-264E-BE83-6225944413C0}" name="Column122"/>
-    <tableColumn id="123" xr3:uid="{3CDB8975-8AA2-3746-AF04-BC9CD40D1C17}" name="Column123"/>
-    <tableColumn id="124" xr3:uid="{9F904866-C0D6-6B41-97E1-C52E19EC5B9B}" name="Column124"/>
-    <tableColumn id="125" xr3:uid="{AC92C69D-858C-074F-BADE-F4A9CFEE485C}" name="Column125"/>
-    <tableColumn id="126" xr3:uid="{F161EACE-184A-9440-8C72-5B2C43B950D5}" name="Column126"/>
-    <tableColumn id="127" xr3:uid="{98B486E3-E9E7-9E41-BDDB-83A0DB5E9E66}" name="Column127"/>
-    <tableColumn id="128" xr3:uid="{C012A064-0711-804D-93B1-C928008C79E5}" name="Column128"/>
-    <tableColumn id="129" xr3:uid="{5CB59277-28B2-D043-9CA7-AFC2F4C8343F}" name="Column129"/>
-    <tableColumn id="130" xr3:uid="{7F0CFEB1-7BE5-E645-85E9-FB54A4633E10}" name="Column130"/>
-    <tableColumn id="131" xr3:uid="{A290F848-ED7A-784E-ABE1-ABC6F7E08656}" name="Column131"/>
-    <tableColumn id="132" xr3:uid="{43104B39-C659-F144-8E2B-57666F16D6D5}" name="Column132"/>
-    <tableColumn id="133" xr3:uid="{21877D8C-EFF9-2645-9C1D-385FC38F391B}" name="Column133"/>
-    <tableColumn id="134" xr3:uid="{400CB990-B806-944F-A0AD-BCD814C5AF28}" name="Column134"/>
-    <tableColumn id="135" xr3:uid="{9AFEF546-0BCD-8744-98D3-FA4E14705A23}" name="Column135"/>
-    <tableColumn id="136" xr3:uid="{ADA072A2-B527-8848-9D3F-11CC4741615A}" name="Column136"/>
-    <tableColumn id="137" xr3:uid="{5AA59625-9B4D-5144-8E8D-9DC33BCF9935}" name="Column137"/>
-    <tableColumn id="138" xr3:uid="{F7C954F9-33BD-A44E-BB24-7865A9BD4B54}" name="Column138"/>
-    <tableColumn id="139" xr3:uid="{56BF21C2-1828-8D44-A5C8-C0147BDF49A6}" name="Column139"/>
-    <tableColumn id="140" xr3:uid="{4D78E29E-07B5-E443-8A58-0BDEC28557BE}" name="Column140"/>
-    <tableColumn id="141" xr3:uid="{1FBF2D75-4614-0143-95E3-AAA3CF18CE89}" name="Column141"/>
-    <tableColumn id="142" xr3:uid="{28AADAE8-4CBD-9C49-891A-BC877BC021B7}" name="Column142"/>
-    <tableColumn id="143" xr3:uid="{622C81EA-9887-6E45-9A15-3C64C4B241F3}" name="Column143"/>
-    <tableColumn id="144" xr3:uid="{64364BC4-08F0-3F4B-92FD-27DD65C751B3}" name="Column144"/>
-    <tableColumn id="145" xr3:uid="{22DC1895-123F-0848-9F83-12D19484C0CE}" name="Column145"/>
-    <tableColumn id="146" xr3:uid="{AA2D301A-83E6-0546-ACEE-6848BD7DEFC1}" name="Column146"/>
-    <tableColumn id="147" xr3:uid="{0EB0816E-9956-8942-961D-9B3743B52325}" name="Column147"/>
-    <tableColumn id="148" xr3:uid="{13943923-2E69-8342-BB67-F41D153CDB6F}" name="Column148"/>
-    <tableColumn id="149" xr3:uid="{C586E255-0A3C-2D49-816E-35A564F514FF}" name="Column149"/>
-    <tableColumn id="150" xr3:uid="{7F3C1597-8104-744C-86FE-03DCBA9D9AF7}" name="Column150"/>
-    <tableColumn id="151" xr3:uid="{6B3F2785-9EDE-E548-90A5-648ABF3705E2}" name="Column151"/>
-    <tableColumn id="152" xr3:uid="{9E6BCE65-F83A-944D-ABA0-7FAA58B09279}" name="Column152"/>
-    <tableColumn id="153" xr3:uid="{55CCE7B9-A6E1-7A45-A943-946EC0DD2E3B}" name="Column153"/>
-    <tableColumn id="154" xr3:uid="{F6ADFBC1-C1BA-1147-80B4-FD2F297B2C4B}" name="Column154"/>
-    <tableColumn id="155" xr3:uid="{671D9929-7E5E-1B4A-B86B-DA5FF7167E58}" name="Column155"/>
-    <tableColumn id="156" xr3:uid="{88922891-8384-2A4E-88D8-5FD479F5DA44}" name="Column156"/>
-    <tableColumn id="157" xr3:uid="{89811613-6E1B-5444-B95B-B5A3465042CD}" name="Column157"/>
-    <tableColumn id="158" xr3:uid="{47B0E740-82C6-4E47-B297-FC68EF2AD8EC}" name="Column158"/>
-    <tableColumn id="159" xr3:uid="{D2D6BC79-814D-FA4D-8272-373CE1648F22}" name="Column159"/>
-    <tableColumn id="160" xr3:uid="{B131BFB8-527A-CB46-86DA-5C422C00B240}" name="Column160"/>
-    <tableColumn id="161" xr3:uid="{0D5B6907-C167-6943-8E69-4212390F7331}" name="Column161"/>
-    <tableColumn id="162" xr3:uid="{6061B67C-3776-9843-A4C3-A70508199C71}" name="Column162"/>
-    <tableColumn id="163" xr3:uid="{4EFBEEEF-9D6A-A146-A502-7146E30540C9}" name="Column163"/>
-    <tableColumn id="164" xr3:uid="{A5AD41C0-1CE3-A34C-8460-1B621D202F6C}" name="Column164"/>
-    <tableColumn id="165" xr3:uid="{A21C1753-0A02-E54D-94ED-6DBF881E5CB4}" name="Column165"/>
-    <tableColumn id="166" xr3:uid="{0038D420-1ED8-BF4C-92E5-93318AF5D19D}" name="Column166"/>
-    <tableColumn id="167" xr3:uid="{3A2559FD-300E-5A45-9FB1-162E3A5D51E9}" name="Column167"/>
-    <tableColumn id="168" xr3:uid="{C158D67A-109F-E14E-B8D0-CA57A650C687}" name="Column168"/>
-    <tableColumn id="169" xr3:uid="{DEA39679-D2F5-0F49-94ED-848E11B365F3}" name="Column169"/>
-    <tableColumn id="170" xr3:uid="{AEA4FB90-15B2-154A-B234-BBF3B2C622A5}" name="Column170"/>
-    <tableColumn id="171" xr3:uid="{707BCDA3-EC84-E34A-BDE5-5E657C0D3B15}" name="Column171"/>
-    <tableColumn id="172" xr3:uid="{95FF266D-2EFF-C148-BAC7-91B35AF53743}" name="Column172"/>
-    <tableColumn id="173" xr3:uid="{787D0B18-7A33-B345-9737-9A088705AF4D}" name="Column173"/>
-    <tableColumn id="174" xr3:uid="{50A1EE74-F822-B346-9E6C-6A66923C05DD}" name="Column174"/>
-    <tableColumn id="175" xr3:uid="{B77D141B-7DF6-5341-8377-E80309089804}" name="Column175"/>
-    <tableColumn id="176" xr3:uid="{C6760B7F-094F-0B41-A034-FA7356743D6A}" name="Column176"/>
-    <tableColumn id="177" xr3:uid="{B54FB01D-23B8-E842-9692-41353ED1E5D0}" name="Column177"/>
-    <tableColumn id="178" xr3:uid="{ADD40311-355E-0A4B-BFBA-3EDCE88F37A7}" name="Column178"/>
-    <tableColumn id="179" xr3:uid="{F873E4F1-EBAA-0048-A91F-BF32E0A4EECC}" name="Column179"/>
-    <tableColumn id="180" xr3:uid="{79EAA523-E48B-6842-826A-7F729F9E19DB}" name="Column180"/>
-    <tableColumn id="181" xr3:uid="{9982D717-5D95-A949-BEB1-9ADE614D4ECA}" name="Column181"/>
-    <tableColumn id="182" xr3:uid="{DB8F2CA3-66C9-2D41-AF62-378383DFC8A7}" name="Column182"/>
-    <tableColumn id="183" xr3:uid="{BD582E9F-D0B2-1447-B299-45B084F32D12}" name="Column183"/>
-    <tableColumn id="184" xr3:uid="{1168F3A1-69D0-BD44-97A8-6892D1B45039}" name="Column184"/>
-    <tableColumn id="185" xr3:uid="{B181D67C-037A-5542-AEFF-B94A027D8654}" name="Column185"/>
-    <tableColumn id="186" xr3:uid="{7587BAF8-B9F5-3E43-9781-137A19BA614F}" name="Column186"/>
-    <tableColumn id="187" xr3:uid="{06F94198-6D9E-E14D-9E53-540238D0C27C}" name="Column187"/>
-    <tableColumn id="188" xr3:uid="{D73CE6E9-8DA5-D049-A7CD-07A50F944267}" name="Column188"/>
-    <tableColumn id="189" xr3:uid="{8FDD3FCD-4BAC-DC45-B357-B55497A5007C}" name="Column189"/>
-    <tableColumn id="190" xr3:uid="{D9C3874F-34EF-B241-BEE0-F8CA4EDA9631}" name="Column190"/>
-    <tableColumn id="191" xr3:uid="{5ECCE572-9F37-7A43-A7F0-87383C3BD7A8}" name="Column191"/>
-    <tableColumn id="192" xr3:uid="{6E3D8AC8-73A4-FB48-9587-DB5A98F2B9C9}" name="Column192"/>
-    <tableColumn id="193" xr3:uid="{EBE44B0B-7CE0-9C43-B42B-6B042D57BCD2}" name="Column193"/>
-    <tableColumn id="194" xr3:uid="{08E1AF90-AAC6-A745-9243-5476AC366EE6}" name="Column194"/>
-    <tableColumn id="195" xr3:uid="{894EA9CF-5358-8A42-A3DD-7E1CF41B00DA}" name="Column195"/>
-    <tableColumn id="196" xr3:uid="{727C4067-3DBB-1C4A-AD23-4D65FDDADE26}" name="Column196"/>
-    <tableColumn id="197" xr3:uid="{47AA462C-4B12-464F-B83F-0D18B6D7CA22}" name="Column197"/>
-    <tableColumn id="198" xr3:uid="{6C8C5C32-9475-384E-A5E0-A7E0899FFF3B}" name="Column198"/>
-    <tableColumn id="199" xr3:uid="{27B8940E-F1E5-414C-AAC3-A2A471B08902}" name="Column199"/>
-    <tableColumn id="200" xr3:uid="{1A559F2E-2D69-2F48-A20B-2ACF13AF66CA}" name="Column200"/>
-    <tableColumn id="201" xr3:uid="{524BF916-4C93-B546-B3DC-1BC305710A91}" name="Column201"/>
-    <tableColumn id="202" xr3:uid="{8EB10D27-9B1B-1444-855A-1339B2768242}" name="Column202"/>
-    <tableColumn id="203" xr3:uid="{8F4B6AEC-985B-6F42-B691-D1ED6A0B067B}" name="Column203"/>
-    <tableColumn id="204" xr3:uid="{BFECC88A-4861-2747-9918-79116645172B}" name="Column204"/>
-    <tableColumn id="205" xr3:uid="{E4ABF9AE-A1ED-7443-B8C8-11009D12E155}" name="Column205"/>
-    <tableColumn id="206" xr3:uid="{1A7166EA-2061-FF4B-A94A-2CCEF130160F}" name="Column206"/>
-    <tableColumn id="207" xr3:uid="{BE737CEC-347D-D148-8466-4484DCF006FF}" name="Column207"/>
-    <tableColumn id="208" xr3:uid="{EB6CAD51-B328-604D-A760-FDFA6B1B1E17}" name="Column208"/>
-    <tableColumn id="209" xr3:uid="{A21F6753-340E-E649-8CAD-F98322D02DE5}" name="Column209"/>
-    <tableColumn id="210" xr3:uid="{BBAA7023-F16F-A943-9947-E1F3728EE263}" name="Column210"/>
-    <tableColumn id="211" xr3:uid="{B469F478-90E8-9847-8333-1637F7C2D3BD}" name="Column211"/>
-    <tableColumn id="212" xr3:uid="{17A1792D-495E-E242-9A06-29185209FC24}" name="Column212"/>
-    <tableColumn id="213" xr3:uid="{933CFBE2-ED7E-AE46-9F5E-DD4E78856591}" name="Column213"/>
-    <tableColumn id="214" xr3:uid="{4CD97D8A-7C1B-C346-9960-828C1B69FF0D}" name="Column214"/>
-    <tableColumn id="215" xr3:uid="{C1E196B4-10C3-8A4A-A41F-D64CFC8368CB}" name="Column215"/>
-    <tableColumn id="216" xr3:uid="{FAD87ABE-F698-8046-8453-CBEE754A75A6}" name="Column216"/>
-    <tableColumn id="217" xr3:uid="{E9E4032C-6211-7040-ADBC-205808DF4A93}" name="Column217"/>
-    <tableColumn id="218" xr3:uid="{BC9305FF-3ED7-4544-8685-0F6A24DD2879}" name="Column218"/>
-    <tableColumn id="219" xr3:uid="{09B26E3F-E03C-C64F-833F-8421D0773276}" name="Column219"/>
-    <tableColumn id="220" xr3:uid="{7AC05577-8DF5-2442-8EE9-56F3EB53F3C8}" name="Column220"/>
-    <tableColumn id="221" xr3:uid="{4416FBE8-8A2D-7C42-8CE2-154FA85F873B}" name="Column221"/>
-    <tableColumn id="222" xr3:uid="{6CA5EEA8-54B0-0145-A8EA-E00D5D54FE93}" name="Column222"/>
-    <tableColumn id="223" xr3:uid="{E7E7DA88-1486-AF46-996A-05B3D5D66922}" name="Column223"/>
-    <tableColumn id="224" xr3:uid="{33CA34FF-9589-0343-9B28-923E344FE343}" name="Column224"/>
-    <tableColumn id="225" xr3:uid="{62938A13-C9E0-3A47-A1B3-B4FCAD572719}" name="Column225"/>
-    <tableColumn id="226" xr3:uid="{9D3B7EB9-9EB6-B348-A8B0-081887B7EAC4}" name="Column226"/>
-    <tableColumn id="227" xr3:uid="{EDBB5023-1E6E-3645-88D7-F65C6CD01077}" name="Column227"/>
-    <tableColumn id="228" xr3:uid="{0BC612A0-22BB-224B-BADC-1C91A2CDC7B4}" name="Column228"/>
-    <tableColumn id="229" xr3:uid="{5EEB9D83-B53B-4346-8CEE-3C4AD82AA28A}" name="Column229"/>
-    <tableColumn id="230" xr3:uid="{E492BE52-9B9F-D947-9665-7D7784E7B862}" name="Column230"/>
-    <tableColumn id="231" xr3:uid="{FE6206AD-F169-E64D-B8FB-7453D4E36B44}" name="Column231"/>
-    <tableColumn id="232" xr3:uid="{F44B6522-C175-9A49-AB4C-6EF9ED4D038F}" name="Column232"/>
-    <tableColumn id="233" xr3:uid="{54F466D5-9284-CA44-B683-69906842556A}" name="Column233"/>
-    <tableColumn id="234" xr3:uid="{CF834700-5B02-C840-9554-1FE63634C85E}" name="Column234"/>
-    <tableColumn id="235" xr3:uid="{1094363E-69FE-1941-81BF-45CD99D3372D}" name="Column235"/>
-    <tableColumn id="236" xr3:uid="{EDD81D5E-1DE2-1945-87B0-562A76A93AC6}" name="Column236"/>
-    <tableColumn id="237" xr3:uid="{B807A9D3-83F1-B84D-8764-F4B322CE9F44}" name="Column237"/>
-    <tableColumn id="238" xr3:uid="{C5B19E67-3DE4-EF4A-AA89-1002F5479F5C}" name="Column238"/>
-    <tableColumn id="239" xr3:uid="{AE167BB5-C5EE-E949-B262-629B444397A3}" name="Column239"/>
-    <tableColumn id="240" xr3:uid="{1B758FEC-C354-BB48-949F-E7416EB8C6D0}" name="Column240"/>
-    <tableColumn id="241" xr3:uid="{A47D84A7-9F9B-0B4C-BC60-57C230D16869}" name="Column241"/>
-    <tableColumn id="242" xr3:uid="{9E28C10D-D247-6B4B-861D-BE8E68B326CA}" name="Column242"/>
-    <tableColumn id="243" xr3:uid="{76A0F048-F2F0-1943-8924-A1577EFD9BCF}" name="Column243"/>
-    <tableColumn id="244" xr3:uid="{919992A0-F00F-3342-B63A-6BDFBA8DFA10}" name="Column244"/>
-    <tableColumn id="245" xr3:uid="{572F9BFE-3DD0-854B-BADE-7956B19BE473}" name="Column245"/>
-    <tableColumn id="246" xr3:uid="{C62EAB85-94F2-334F-82A8-5CCD713FC5F6}" name="Column246"/>
-    <tableColumn id="247" xr3:uid="{8D238BD7-B150-6142-AF72-5C57CB2F3969}" name="Column247"/>
-    <tableColumn id="248" xr3:uid="{2A89964C-CC00-6A44-B74B-433C5F86A120}" name="Column248"/>
-    <tableColumn id="249" xr3:uid="{0BDA16E2-F0D1-7D45-BC4E-22943A6FE42F}" name="Column249"/>
-    <tableColumn id="250" xr3:uid="{5F2D5E8E-3C28-DB4B-9C3D-EE16259BC4EF}" name="Column250"/>
-    <tableColumn id="251" xr3:uid="{4CB480C1-B132-EF47-905F-75F5447D5AC8}" name="Column251"/>
-    <tableColumn id="252" xr3:uid="{61B5B906-53DA-6842-A15F-9E7DE40246BB}" name="Column252"/>
-    <tableColumn id="253" xr3:uid="{3CC9E50B-1B5F-474A-A618-9B6E2DA143B3}" name="Column253"/>
-    <tableColumn id="254" xr3:uid="{2ABA44B8-3588-CB4E-A9C1-9CF58743C10B}" name="Column254"/>
-    <tableColumn id="255" xr3:uid="{10AD7799-7678-0346-93DB-12C8673B8A93}" name="Column255"/>
-    <tableColumn id="256" xr3:uid="{09DEB294-93BA-0748-915F-75CF6C115AE9}" name="Column256"/>
-    <tableColumn id="257" xr3:uid="{F6E04DD8-59CD-3240-A7F0-0E1870CFE10F}" name="Column257"/>
-    <tableColumn id="258" xr3:uid="{076BA8F9-B3C4-6044-96C0-EFCCA06EAB6C}" name="Column258"/>
-    <tableColumn id="259" xr3:uid="{3CF26A5B-9983-8F40-9784-0598F20BAEB2}" name="Column259"/>
-    <tableColumn id="260" xr3:uid="{9B2290E3-1FEB-FC4B-A522-168A63C96F19}" name="Column260"/>
-    <tableColumn id="261" xr3:uid="{2B65B3F6-EE83-BB40-BE01-1D9F6B04E911}" name="Column261"/>
-    <tableColumn id="262" xr3:uid="{0950BA42-F26A-4149-9631-AF4E33441E21}" name="Column262"/>
-    <tableColumn id="263" xr3:uid="{852A8C4B-4C0A-D849-A036-DAC8F93AE2FB}" name="Column263"/>
-    <tableColumn id="264" xr3:uid="{7E646C0E-EE6E-D44A-A4CA-24F3A5A464D9}" name="Column264"/>
-    <tableColumn id="265" xr3:uid="{D060552A-FD6E-2D47-96CE-EB11923A5CB0}" name="Column265"/>
-    <tableColumn id="266" xr3:uid="{E0E29937-B87C-5045-A599-5128A0307099}" name="Column266"/>
-    <tableColumn id="267" xr3:uid="{BF9FE05B-0FC4-444C-934C-25020CE7DB3D}" name="Column267"/>
-    <tableColumn id="268" xr3:uid="{927DF937-9DD6-8B4A-A6D8-730BDF2CE289}" name="Column268"/>
-    <tableColumn id="269" xr3:uid="{0B8D52C5-9741-8D4D-BB1F-B43361A0CC12}" name="Column269"/>
-    <tableColumn id="270" xr3:uid="{5C53A85C-C895-4640-BE13-8BC40D1C087D}" name="Column270"/>
-    <tableColumn id="271" xr3:uid="{DD5EC712-4F90-6545-B74E-94A03B1EB0FF}" name="Column271"/>
-    <tableColumn id="272" xr3:uid="{D54ABDFC-AD9A-F74C-9649-189583FC40DD}" name="Column272"/>
-    <tableColumn id="273" xr3:uid="{11460BEE-C59E-564E-9407-B15F7E6E895B}" name="Column273"/>
-    <tableColumn id="274" xr3:uid="{816F5D1D-0DBA-094F-A61C-5AF066C9F164}" name="Column274"/>
-    <tableColumn id="275" xr3:uid="{8CDEC442-6B21-B64B-9385-44A1B085B0E4}" name="Column275"/>
-    <tableColumn id="276" xr3:uid="{13566374-2240-F84D-AB8C-2479F7E1DFE5}" name="Column276"/>
-    <tableColumn id="277" xr3:uid="{8185B680-C3C1-EA41-BF6A-2BD470161E1D}" name="Column277"/>
-    <tableColumn id="278" xr3:uid="{A51841A7-45C2-2342-BB57-B47156CF89A9}" name="Column278"/>
-    <tableColumn id="279" xr3:uid="{89039010-C457-F44B-8AD7-FF1B6BE33F57}" name="Column279"/>
-    <tableColumn id="280" xr3:uid="{678AB3BB-5EFD-0C4E-9667-CC3661106488}" name="Column280"/>
-    <tableColumn id="281" xr3:uid="{59222A5E-B174-E149-A447-C401049FA09C}" name="Column281"/>
-    <tableColumn id="282" xr3:uid="{6C4C9B95-0472-D54C-B684-39C51AB82B56}" name="Column282"/>
-    <tableColumn id="283" xr3:uid="{461C5AD9-18A8-EF4E-BEB7-6B797912E3C4}" name="Column283"/>
-    <tableColumn id="284" xr3:uid="{BFE30238-F9C5-E043-9BD2-34DF1ECD5FE7}" name="Column284"/>
-    <tableColumn id="285" xr3:uid="{8F683D3B-1F10-8548-9940-BB4277D66E8E}" name="Column285"/>
-    <tableColumn id="286" xr3:uid="{4E7F1B03-1655-1546-AE09-0AF1374F59B6}" name="Column286"/>
-    <tableColumn id="287" xr3:uid="{EE222F8E-B0BF-9D48-9E56-7C87576B8491}" name="Column287"/>
-    <tableColumn id="288" xr3:uid="{19780808-9518-7349-9F0F-B8FFD7687604}" name="Column288"/>
-    <tableColumn id="289" xr3:uid="{6EC0B7D0-1836-F34D-BB11-C18AF50E5545}" name="Column289"/>
-    <tableColumn id="290" xr3:uid="{3C848A8C-AD59-474A-88CF-8B5153E70AF9}" name="Column290"/>
-    <tableColumn id="291" xr3:uid="{FA7D29B1-5709-3B48-A215-1088FA8BCCC0}" name="Column291"/>
-    <tableColumn id="292" xr3:uid="{B64E338F-3A4B-7640-8FDD-08D8ADEBA26A}" name="Column292"/>
-    <tableColumn id="293" xr3:uid="{A8DD5F57-10E9-2E45-AAB6-E1B9E9C4E2FF}" name="Column293"/>
-    <tableColumn id="294" xr3:uid="{13F3D707-43AE-884B-8849-08AA537F4DBA}" name="Column294"/>
-    <tableColumn id="295" xr3:uid="{FCF26F50-D523-E341-A045-64663A4EAD37}" name="Column295"/>
-    <tableColumn id="296" xr3:uid="{4AACC7D2-743E-164D-A981-13809252243B}" name="Column296"/>
-    <tableColumn id="297" xr3:uid="{5960BC5A-9485-2447-919B-5C7F6B0681A2}" name="Column297"/>
-    <tableColumn id="298" xr3:uid="{3F7A6B9C-0355-8243-BED0-6A555C19E463}" name="Column298"/>
-    <tableColumn id="299" xr3:uid="{81388E9E-073E-9141-A009-1943F1BEC685}" name="Column299"/>
-    <tableColumn id="300" xr3:uid="{32368FF6-1E1D-4347-A416-FC5450B9E548}" name="Column300"/>
-    <tableColumn id="301" xr3:uid="{1CAD83FA-4ACD-1044-9F63-B6F59C711833}" name="Column301"/>
-    <tableColumn id="302" xr3:uid="{E07E2BBD-BCEF-6940-B667-5557036A69CA}" name="Column302"/>
-    <tableColumn id="303" xr3:uid="{8F82B079-1670-B645-84DB-22139848EB5A}" name="Column303"/>
-    <tableColumn id="304" xr3:uid="{89595C18-F18D-4D42-8827-7780704DE90C}" name="Column304"/>
-    <tableColumn id="305" xr3:uid="{CADABD92-78A9-5841-A6BC-AB4DC1AD7147}" name="Column305"/>
-    <tableColumn id="306" xr3:uid="{B9DA14D3-709C-3F4B-B870-5B9844367F5F}" name="Column306"/>
-    <tableColumn id="307" xr3:uid="{CB0A1755-C9CF-814C-9881-2095A92441C5}" name="Column307"/>
-    <tableColumn id="308" xr3:uid="{E5DC1F80-024F-6449-9F86-31C9D048399C}" name="Column308"/>
-    <tableColumn id="309" xr3:uid="{B1304AFB-4726-6342-AAAF-49F79B9DD1F1}" name="Column309"/>
-    <tableColumn id="310" xr3:uid="{43005D31-3F66-C740-B668-FD8135E274B2}" name="Column310"/>
-    <tableColumn id="311" xr3:uid="{C40964EA-D1B4-1242-A12D-6F478AEC9F59}" name="Column311"/>
-    <tableColumn id="312" xr3:uid="{59D75A7B-9257-774C-8A79-9ED6D69C5995}" name="Column312"/>
-    <tableColumn id="313" xr3:uid="{5BD02A0C-829A-DE4E-A151-2E190B0C7645}" name="Column313"/>
-    <tableColumn id="314" xr3:uid="{5CCA1186-A83F-8E45-8E39-9C317E6EABD4}" name="Column314"/>
-    <tableColumn id="315" xr3:uid="{75012A9B-F038-3240-A183-F7C4C65BCA40}" name="Column315"/>
-    <tableColumn id="316" xr3:uid="{31D2E3A5-6696-3D4C-9728-471DE2EFB165}" name="Column316"/>
-    <tableColumn id="317" xr3:uid="{123EA8E3-31D6-144F-8B0A-6D444A5ECD37}" name="Column317"/>
-    <tableColumn id="318" xr3:uid="{DE3EBA10-EEDB-464E-BD7F-17E095E1BF5B}" name="Column318"/>
-    <tableColumn id="319" xr3:uid="{FA655B42-A7AB-D747-9A52-E2EC5725D658}" name="Column319"/>
-    <tableColumn id="320" xr3:uid="{F8DEF84B-ACF0-CF4E-90B6-1E8DFB0354CB}" name="Column320"/>
-    <tableColumn id="321" xr3:uid="{5B8394F9-02A4-8647-9913-7EF16175DA26}" name="Column321"/>
-    <tableColumn id="322" xr3:uid="{FC81835E-3DA3-CB46-93A2-5397B6B2C01B}" name="Column322"/>
-    <tableColumn id="323" xr3:uid="{84FED7F2-D5D0-6A4C-9A72-A2BD8368C696}" name="Column323"/>
-    <tableColumn id="324" xr3:uid="{4B644A29-2890-8649-A612-D6C78DF53D18}" name="Column324"/>
-    <tableColumn id="325" xr3:uid="{8446EB71-3E2C-7F48-812A-7AF82E6FF91A}" name="Column325"/>
-    <tableColumn id="326" xr3:uid="{DB5D60BA-ACF1-4C4D-A657-D0E351399937}" name="Column326"/>
-    <tableColumn id="327" xr3:uid="{C44067DE-CC68-6246-A67C-611CA6AA0924}" name="Column327"/>
-    <tableColumn id="328" xr3:uid="{C72B4756-5A25-F544-A3DA-87ECB6298ADD}" name="Column328"/>
-    <tableColumn id="329" xr3:uid="{234A901D-BB67-364E-9DCD-B7AF85EA55F6}" name="Column329"/>
-    <tableColumn id="330" xr3:uid="{487CBE5D-0E8D-934A-ABF1-B6318BE3B970}" name="Column330"/>
-    <tableColumn id="331" xr3:uid="{B9A51D0F-A9FE-A94B-869D-7EDD3CA68EDF}" name="Column331"/>
-    <tableColumn id="332" xr3:uid="{0C460356-896C-2944-8196-E3CB6C80AEFE}" name="Column332"/>
-    <tableColumn id="333" xr3:uid="{524431F8-2CC1-4C4E-AF09-34C2ED1E9DF5}" name="Column333"/>
-    <tableColumn id="334" xr3:uid="{3D50060D-E3A5-3F4A-BE60-71A72A696210}" name="Column334"/>
-    <tableColumn id="335" xr3:uid="{6FF8103C-6337-9E4D-BC82-851B1DCAD88F}" name="Column335"/>
-    <tableColumn id="336" xr3:uid="{A6E17BB0-F491-BE40-A6D5-40D4603B1861}" name="Column336"/>
-    <tableColumn id="337" xr3:uid="{9D03F5AE-BC41-DF40-B479-AD9933EB0404}" name="Column337"/>
-    <tableColumn id="338" xr3:uid="{155B3E36-BD7A-3B42-8045-7BB17D8D9C2D}" name="Column338"/>
-    <tableColumn id="339" xr3:uid="{88200BE0-BEDE-EE4A-80A5-8DB83D1D3336}" name="Column339"/>
-    <tableColumn id="340" xr3:uid="{A18F9A74-D9DF-824A-B921-1B6E535967CC}" name="Column340"/>
-    <tableColumn id="341" xr3:uid="{3CACFD3B-A930-E742-A870-0AB5AE5EE7FA}" name="Column341"/>
-    <tableColumn id="342" xr3:uid="{7AA435DB-FCA4-2344-A1B3-AD46FF02F831}" name="Column342"/>
-    <tableColumn id="343" xr3:uid="{2019F55C-22F5-9044-BE9C-8A568CE1C039}" name="Column343"/>
-    <tableColumn id="344" xr3:uid="{80B6337E-6CE2-0B4D-B994-AB07958A23C9}" name="Column344"/>
-    <tableColumn id="345" xr3:uid="{E224B9CD-7C4A-0942-ACFD-866778CB0870}" name="Column345"/>
-    <tableColumn id="346" xr3:uid="{E6FBCE65-FBAB-0B47-A70B-2B9E845030B1}" name="Column346"/>
-    <tableColumn id="347" xr3:uid="{1E5F137A-7D4E-CF44-AECA-D94005945D75}" name="Column347"/>
-    <tableColumn id="348" xr3:uid="{3C823ABA-F2B9-9E45-8113-7DAFB0745F32}" name="Column348"/>
-    <tableColumn id="349" xr3:uid="{2747A343-6A88-FE49-9D14-4BBA86449AD9}" name="Column349"/>
-    <tableColumn id="350" xr3:uid="{328C0503-F378-A441-B41C-0117550C47CC}" name="Column350"/>
-    <tableColumn id="351" xr3:uid="{6372A0BE-85FD-ED46-9264-C8E0A735E382}" name="Column351"/>
-    <tableColumn id="352" xr3:uid="{4152BA93-9D6F-DD40-9ABF-7A487C50EA27}" name="Column352"/>
-    <tableColumn id="353" xr3:uid="{9671FEA0-EB96-2E44-9CCA-D8684B146068}" name="Column353"/>
-    <tableColumn id="354" xr3:uid="{5FCB48F1-A7ED-DF46-93E1-64AE20E1F6D6}" name="Column354"/>
-    <tableColumn id="355" xr3:uid="{D5DBC081-AB50-CF47-BBC5-6AF236797720}" name="Column355"/>
-    <tableColumn id="356" xr3:uid="{CA01B856-8AFB-274F-AD82-B402AE81B009}" name="Column356"/>
-    <tableColumn id="357" xr3:uid="{51B7C225-96B2-7A4E-8B7A-04372FBDC8BA}" name="Column357"/>
-    <tableColumn id="358" xr3:uid="{9ABF8049-9287-EE4E-B9C3-E70CFF527F0C}" name="Column358"/>
-    <tableColumn id="359" xr3:uid="{88A4941B-248A-CC4B-BCBA-8DB703AFF1F7}" name="Column359"/>
-    <tableColumn id="360" xr3:uid="{537E9BC6-F100-F246-8DFD-0534A1AC2FA3}" name="Column360"/>
-    <tableColumn id="361" xr3:uid="{63931BD9-CA18-8448-8986-9FEEC59456E6}" name="Column361"/>
-    <tableColumn id="362" xr3:uid="{0D1AE125-622A-2742-B7B7-5F44C98D3F28}" name="Column362"/>
-    <tableColumn id="363" xr3:uid="{3573CCF3-8654-7641-8A7C-90F59231EAFB}" name="Column363"/>
-    <tableColumn id="364" xr3:uid="{E6A4C41C-66F5-5C49-A5FB-EEDCD3FE8A60}" name="Column364"/>
-    <tableColumn id="365" xr3:uid="{A181874F-900E-B344-843E-FCA3630AE1AA}" name="Column365"/>
-    <tableColumn id="366" xr3:uid="{4A3136B4-6A6A-6E49-97C5-D7725338734D}" name="Column366"/>
-    <tableColumn id="367" xr3:uid="{90257864-606A-C24C-9C14-88F4EF2B4C98}" name="Column367"/>
-    <tableColumn id="368" xr3:uid="{D1C0EB4C-F820-C240-85C2-20F2E32FDD5A}" name="Column368"/>
-    <tableColumn id="369" xr3:uid="{B14E8F96-579B-7E4F-B7F1-48E37D279CAE}" name="Column369"/>
-    <tableColumn id="370" xr3:uid="{720590EB-7588-4D49-BFD0-D036D3CFADB4}" name="Column370"/>
-    <tableColumn id="371" xr3:uid="{3B791AE9-59B7-0046-9C0B-9D371BB4D2FB}" name="Column371"/>
-    <tableColumn id="372" xr3:uid="{2F503A5B-F9F4-C44E-9541-E8C58C9900E6}" name="Column372"/>
-    <tableColumn id="373" xr3:uid="{7059BA5E-9E66-7D47-A6CD-A768AFACEA3E}" name="Column373"/>
-    <tableColumn id="374" xr3:uid="{7BE57B4A-FFB0-3742-A563-14348759B0B4}" name="Column374"/>
-    <tableColumn id="375" xr3:uid="{ECA57DAA-9E6A-C749-B38A-71884550EB34}" name="Column375"/>
-    <tableColumn id="376" xr3:uid="{3069E2E5-5DA4-0E4C-AB75-55EDF2466723}" name="Column376"/>
-    <tableColumn id="377" xr3:uid="{DA36A482-BE30-F44B-8699-BEBC96E6D313}" name="Column377"/>
-    <tableColumn id="378" xr3:uid="{4391788D-1525-1C49-89CB-150500A791C8}" name="Column378"/>
-    <tableColumn id="379" xr3:uid="{E374EC1F-657C-8D4E-A970-3F8A4EA4CA21}" name="Column379"/>
-    <tableColumn id="380" xr3:uid="{B9DCC80C-AE56-8341-B9E8-A1AE9B9AA386}" name="Column380"/>
-    <tableColumn id="381" xr3:uid="{2F23BD6A-339D-FA4B-B6FF-7D8F2554FC15}" name="Column381"/>
-    <tableColumn id="382" xr3:uid="{35D39C37-B2D5-5E46-AAAA-6794B5D89D60}" name="Column382"/>
-    <tableColumn id="383" xr3:uid="{A0FA2014-4049-A840-A206-FA545573B8EC}" name="Column383"/>
-    <tableColumn id="384" xr3:uid="{D867317C-1E8A-F141-B40D-45862337F833}" name="Column384"/>
-    <tableColumn id="385" xr3:uid="{AFD2B9A9-F05C-094D-8658-D748E7A41F86}" name="Column385"/>
-    <tableColumn id="386" xr3:uid="{74F494EC-DC3D-DD4E-A225-04727BE69229}" name="Column386"/>
-    <tableColumn id="387" xr3:uid="{20D320B8-7632-7A4E-9083-1B773EF30710}" name="Column387"/>
-    <tableColumn id="388" xr3:uid="{E0F4DAB8-232D-CA4E-89F9-36C6D22552FE}" name="Column388"/>
-    <tableColumn id="389" xr3:uid="{11F8B19A-E665-C640-B488-AB60F8F77FC5}" name="Column389"/>
-    <tableColumn id="390" xr3:uid="{233606DF-8DBB-C340-996A-B2B6C730862B}" name="Column390"/>
-    <tableColumn id="391" xr3:uid="{1D0E64FF-1165-014D-9142-E650698DACE3}" name="Column391"/>
-    <tableColumn id="392" xr3:uid="{D1817D75-9339-1140-AA0A-C8C5C5EEEEA9}" name="Column392"/>
-    <tableColumn id="393" xr3:uid="{342FDBD6-82E5-714D-9CE1-ED46543E5280}" name="Column393"/>
-    <tableColumn id="394" xr3:uid="{2A01A035-917E-9A47-BB5F-CD626B49C68B}" name="Column394"/>
-    <tableColumn id="395" xr3:uid="{6E578103-6BAC-9D45-8444-C2C552F90A4F}" name="Column395"/>
-    <tableColumn id="396" xr3:uid="{FFAA3842-60B3-E744-B245-3476D03798F2}" name="Column396"/>
-    <tableColumn id="397" xr3:uid="{EC0AC43B-ECBA-BE42-9C51-A4F6A24E0D81}" name="Column397"/>
-    <tableColumn id="398" xr3:uid="{B936AFAB-AB3B-DB4F-8D47-053571BA711A}" name="Column398"/>
-    <tableColumn id="399" xr3:uid="{3E2341AE-9A36-7040-8672-161D43F80578}" name="Column399"/>
-    <tableColumn id="400" xr3:uid="{2960E421-8385-1140-9CBD-234FE9ACA73F}" name="Column400"/>
-    <tableColumn id="401" xr3:uid="{B199A32F-8BBF-DF4A-9ABE-0F45AC7D5640}" name="Column401"/>
-    <tableColumn id="402" xr3:uid="{CD55A2F3-D504-3041-8D25-9E3B91355778}" name="Column402"/>
-    <tableColumn id="403" xr3:uid="{59A21612-8E3E-5E41-9A4C-F323437EE025}" name="Column403"/>
-    <tableColumn id="404" xr3:uid="{5BF250BD-915D-D44F-B0A1-0552BC5D3596}" name="Column404"/>
-    <tableColumn id="405" xr3:uid="{19CFA36D-190B-F842-97EF-39984196328E}" name="Column405"/>
-    <tableColumn id="406" xr3:uid="{F15683F8-9F68-7E45-B072-6C5DBC5D8943}" name="Column406"/>
-    <tableColumn id="407" xr3:uid="{3ABD8CBB-5380-5C45-A64E-5C6B9DC798CA}" name="Column407"/>
-    <tableColumn id="408" xr3:uid="{446E4D1F-4297-4449-AD15-C97CF3FE4F5B}" name="Column408"/>
-    <tableColumn id="409" xr3:uid="{57EEA1A0-0FAC-004E-A35D-71A8E5FB46A5}" name="Column409"/>
-    <tableColumn id="410" xr3:uid="{D9CDBFBA-F9F9-6142-876F-861C3A0873AD}" name="Column410"/>
-    <tableColumn id="411" xr3:uid="{115FABB7-6F92-D348-88E3-53E80275DDB5}" name="Column411"/>
-    <tableColumn id="412" xr3:uid="{0D35DE31-171B-6342-A9D3-8E8B36AFEB85}" name="Column412"/>
-    <tableColumn id="413" xr3:uid="{2DFED664-0EA0-1641-9BEF-09291223A3E0}" name="Column413"/>
-    <tableColumn id="414" xr3:uid="{ACC02D49-D014-9441-88E6-62B991DF2426}" name="Column414"/>
-    <tableColumn id="415" xr3:uid="{8360B483-875F-7B49-AFBD-3C6F7A21FF1F}" name="Column415"/>
-    <tableColumn id="416" xr3:uid="{868B9021-354E-114B-AC74-E0DACD151C5A}" name="Column416"/>
-    <tableColumn id="417" xr3:uid="{C6FDF82E-A389-AA45-A8D4-C33609DCD04B}" name="Column417"/>
-    <tableColumn id="418" xr3:uid="{FE2C5F49-8870-1D46-98E1-3C75DC5C63D0}" name="Column418"/>
-    <tableColumn id="419" xr3:uid="{4CD72E6D-4607-5746-AAEB-5561D40876C1}" name="Column419"/>
-    <tableColumn id="420" xr3:uid="{8671D69F-E7AE-B645-8BE4-F02D9178B166}" name="Column420"/>
-    <tableColumn id="421" xr3:uid="{71C7466A-5E6A-2943-A6FE-9C6137A02B79}" name="Column421"/>
-    <tableColumn id="422" xr3:uid="{5FBBD249-7C51-7846-96A6-EA9A3CEDE32F}" name="Column422"/>
-    <tableColumn id="423" xr3:uid="{3A44C9D2-0C1F-1149-8D7E-6F308393F7E9}" name="Column423"/>
-    <tableColumn id="424" xr3:uid="{D02580E3-5A19-1241-9094-8A232CBD875B}" name="Column424"/>
-    <tableColumn id="425" xr3:uid="{CE2FCD21-7388-804E-AFFF-333B7CCE9421}" name="Column425"/>
-    <tableColumn id="426" xr3:uid="{DC83FA9D-FE09-9D4B-8C0F-19369ABC3BF6}" name="Column426"/>
-    <tableColumn id="427" xr3:uid="{2F3BEC5A-56B5-EB42-95F6-6EB3BE5AA588}" name="Column427"/>
-    <tableColumn id="428" xr3:uid="{8C2ED62E-2D4E-474C-82F1-5D778A75790B}" name="Column428"/>
-    <tableColumn id="429" xr3:uid="{DB21BC9E-903E-5844-A585-5FF615AF556D}" name="Column429"/>
-    <tableColumn id="430" xr3:uid="{4B893713-9760-3B49-BF3C-D7E486841488}" name="Column430"/>
-    <tableColumn id="431" xr3:uid="{443F64CE-0AF4-4047-85FE-F84285DA65D1}" name="Column431"/>
-    <tableColumn id="432" xr3:uid="{89BFA727-B471-E74B-B185-6C128BEB6F31}" name="Column432"/>
-    <tableColumn id="433" xr3:uid="{214B9C4E-B936-0042-9DEB-EF87F72A0057}" name="Column433"/>
-    <tableColumn id="434" xr3:uid="{051826A3-AB1F-1145-922F-6E12D5C84C7A}" name="Column434"/>
-    <tableColumn id="435" xr3:uid="{5C976A58-0C25-BB49-83E5-7D9B38E6683C}" name="Column435"/>
-    <tableColumn id="436" xr3:uid="{943011A3-2B33-F142-BF39-0D4A953F5A7A}" name="Column436"/>
-    <tableColumn id="437" xr3:uid="{227073F5-EFC0-194D-B97F-591944BD5D34}" name="Column437"/>
-    <tableColumn id="438" xr3:uid="{3725B52A-9B07-5C46-AB52-5998171AABEA}" name="Column438"/>
-    <tableColumn id="439" xr3:uid="{7033D453-F148-1144-B978-A9013BED1B98}" name="Column439"/>
-    <tableColumn id="440" xr3:uid="{7DA8952F-4D40-5547-9829-E5F40A0BD20C}" name="Column440"/>
-    <tableColumn id="441" xr3:uid="{96A4F468-20F1-8E45-A1E8-83573925F6F2}" name="Column441"/>
-    <tableColumn id="442" xr3:uid="{53D0D37C-A819-964B-BB13-BBCA980B7E3A}" name="Column442"/>
-    <tableColumn id="443" xr3:uid="{32DA9813-46A8-FA4F-B464-6DF64A56310E}" name="Column443"/>
-    <tableColumn id="444" xr3:uid="{D3418EEB-EE6A-2C46-A7E7-85C78E5ACCC1}" name="Column444"/>
-    <tableColumn id="445" xr3:uid="{F758BA70-007D-0A48-8EE7-C76012607F01}" name="Column445"/>
-    <tableColumn id="446" xr3:uid="{EC2AD363-5CDD-BA40-830E-9B1E10E43BCD}" name="Column446"/>
-    <tableColumn id="447" xr3:uid="{71499D12-5F13-DE46-A59C-40DBBF9EA66E}" name="Column447"/>
-    <tableColumn id="448" xr3:uid="{27CA768D-A0A5-5742-90D4-3A1FB7BE2D4C}" name="Column448"/>
-    <tableColumn id="449" xr3:uid="{84EDFF1D-DB8F-DD42-B32F-24F6447750B6}" name="Column449"/>
-    <tableColumn id="450" xr3:uid="{EEEEED4B-A6D4-424C-A52A-BC00828CD98E}" name="Column450"/>
-    <tableColumn id="451" xr3:uid="{A1AE91B7-EE2F-BA4B-A84C-5FF831513C62}" name="Column451"/>
-    <tableColumn id="452" xr3:uid="{5FC76D60-973F-2F4B-8FDA-9004BED7C655}" name="Column452"/>
-    <tableColumn id="453" xr3:uid="{BAC26196-7AF2-5B44-B6EB-70085759EDD1}" name="Column453"/>
-    <tableColumn id="454" xr3:uid="{3B4D6F06-6E80-B54B-AB9D-3AE37270510D}" name="Column454"/>
-    <tableColumn id="455" xr3:uid="{A14EB04D-6E3E-6C49-87B9-E9701873837B}" name="Column455"/>
-    <tableColumn id="456" xr3:uid="{C2CC3CC2-7B51-A346-81A5-221E39139E94}" name="Column456"/>
-    <tableColumn id="457" xr3:uid="{6D6695CD-3D78-0749-A06F-09AF4587A7D7}" name="Column457"/>
-    <tableColumn id="458" xr3:uid="{72744D19-C1D3-9D4C-951E-FB4D81C1B52B}" name="Column458"/>
-    <tableColumn id="459" xr3:uid="{E7AC5244-429F-2041-963E-87BFDE4BCAD0}" name="Column459"/>
-    <tableColumn id="460" xr3:uid="{06E67D24-E3FC-A840-BA69-55CD861B6590}" name="Column460"/>
-    <tableColumn id="461" xr3:uid="{81B1BD80-DAAB-DA47-A79C-73F0D311BAC1}" name="Column461"/>
-    <tableColumn id="462" xr3:uid="{B5E100B4-9F0A-4B4A-BD2B-E11CD8A0716A}" name="Column462"/>
-    <tableColumn id="463" xr3:uid="{C981BDA6-13EF-4142-A764-AD22181EAD3D}" name="Column463"/>
-    <tableColumn id="464" xr3:uid="{337CEEFE-93BC-7A47-8B4E-7B9255967661}" name="Column464"/>
-    <tableColumn id="465" xr3:uid="{52D5676E-4FF6-2049-9163-46F0B3CA7869}" name="Column465"/>
-    <tableColumn id="466" xr3:uid="{34A0CC60-4DB3-554B-ABEC-88D7A79CD59F}" name="Column466"/>
-    <tableColumn id="467" xr3:uid="{E19B0F4D-B9FB-8548-A17A-E752B62ECF34}" name="Column467"/>
-    <tableColumn id="468" xr3:uid="{9D35EA1B-C0F1-D647-A58E-740EC77ED1CD}" name="Column468"/>
-    <tableColumn id="469" xr3:uid="{AB049359-6146-D24A-B4EA-0BE1FDC7C6F8}" name="Column469"/>
-    <tableColumn id="470" xr3:uid="{A7AFC16E-75E4-6742-BDE4-CA977687B803}" name="Column470"/>
-    <tableColumn id="471" xr3:uid="{365B4EA9-4A73-9148-B9A3-6DB06DF7C1B6}" name="Column471"/>
-    <tableColumn id="472" xr3:uid="{2219CFBF-164F-AD41-8726-82CDD8A9A345}" name="Column472"/>
-    <tableColumn id="473" xr3:uid="{EDEB904C-DD94-E647-AF7F-E330B58604A7}" name="Column473"/>
-    <tableColumn id="474" xr3:uid="{C4E64006-F948-3742-A4E3-B545990D8663}" name="Column474"/>
-    <tableColumn id="475" xr3:uid="{397D803E-DCC4-9C45-83F3-D629F5DB330C}" name="Column475"/>
-    <tableColumn id="476" xr3:uid="{6CF8A83D-E493-7240-8169-61BA203FCFE6}" name="Column476"/>
-    <tableColumn id="477" xr3:uid="{5427BDDD-AF60-614A-8DA1-F98F8EE63B42}" name="Column477"/>
-    <tableColumn id="478" xr3:uid="{3E5376B5-66BD-1F4D-BFEE-DB58EAB9BF89}" name="Column478"/>
-    <tableColumn id="479" xr3:uid="{6FA75CC7-27DC-B14D-BD00-D593F2A588EE}" name="Column479"/>
-    <tableColumn id="480" xr3:uid="{719D5B20-C179-BA41-BB53-FDD66327E5AA}" name="Column480"/>
-    <tableColumn id="481" xr3:uid="{C894A627-3C52-A94E-A72E-766D12E3F6EC}" name="Column481"/>
-    <tableColumn id="482" xr3:uid="{21D7AB59-ABB7-4948-97E8-C0B4AD4B6B86}" name="Column482"/>
-    <tableColumn id="483" xr3:uid="{9E83DCF6-D930-7C48-B6BD-447E3FE73E6E}" name="Column483"/>
-    <tableColumn id="484" xr3:uid="{3C9783F5-7E0C-2543-96BF-C35558210D1C}" name="Column484"/>
-    <tableColumn id="485" xr3:uid="{9F782DE2-830B-C64B-9333-C0F67B79F7FA}" name="Column485"/>
-    <tableColumn id="486" xr3:uid="{99ADB105-CB05-8D43-B677-D86C80B6684C}" name="Column486"/>
-    <tableColumn id="487" xr3:uid="{40B30CA2-5CEC-D845-9935-40C2C22DFE2A}" name="Column487"/>
-    <tableColumn id="488" xr3:uid="{94BE11E7-2B1D-CA4A-A613-736BAB8FCECC}" name="Column488"/>
-    <tableColumn id="489" xr3:uid="{5C931F0A-D88B-574D-9897-4CA8CAA6A714}" name="Column489"/>
-    <tableColumn id="490" xr3:uid="{BA563CCE-CEDD-8349-BBC4-D8D4E6E73754}" name="Column490"/>
-    <tableColumn id="491" xr3:uid="{C6994021-4BAE-0249-91EC-0D39ECEE5E12}" name="Column491"/>
-    <tableColumn id="492" xr3:uid="{60AD4A00-332A-2348-9DDA-D5C6D26C7C29}" name="Column492"/>
-    <tableColumn id="493" xr3:uid="{A6CE06A0-F6CB-A645-8613-99B66A693AF1}" name="Column493"/>
-    <tableColumn id="494" xr3:uid="{92654B0B-80F0-0943-A099-4F57C383C6C5}" name="Column494"/>
-    <tableColumn id="495" xr3:uid="{0B636012-FF27-544D-9CF4-D803AF312964}" name="Column495"/>
-    <tableColumn id="496" xr3:uid="{3B1DBFBA-51B3-264C-849F-2685AAEA5A18}" name="Column496"/>
-    <tableColumn id="497" xr3:uid="{0F8A0A7E-121E-0149-B617-C5BCA3CD21EE}" name="Column497"/>
-    <tableColumn id="498" xr3:uid="{0EBCEE3E-8DC3-2641-ACCD-1787A926A129}" name="Column498"/>
-    <tableColumn id="499" xr3:uid="{D66495F6-3ECD-FB45-B4D7-56778D9A00A3}" name="Column499"/>
-    <tableColumn id="500" xr3:uid="{D79C6F7B-BE68-5B45-8BD7-2E3D5FD9B173}" name="Column500"/>
-    <tableColumn id="501" xr3:uid="{8DC82777-D371-C341-AEF7-BE88AA62F2DE}" name="Column501"/>
-    <tableColumn id="502" xr3:uid="{CC673728-D49B-F145-BF87-4CC4E622E3FE}" name="Column502"/>
-    <tableColumn id="503" xr3:uid="{1A07535A-AD2A-7140-87A8-27B99FBC2071}" name="Column503"/>
-    <tableColumn id="504" xr3:uid="{943E9EC2-81C6-5A44-81AF-DD036ADE4F14}" name="Column504"/>
-    <tableColumn id="505" xr3:uid="{2E3DDA90-71C2-5A47-9E65-53EA71DEA924}" name="Column505"/>
-    <tableColumn id="506" xr3:uid="{6E39BF1C-763C-C243-8D0A-5B9ECF63224D}" name="Column506"/>
-    <tableColumn id="507" xr3:uid="{AC1BEB20-66BA-B443-BA7C-65DE25EC9969}" name="Column507"/>
-    <tableColumn id="508" xr3:uid="{8753E8EB-191E-A744-BFC7-5343B3AEA230}" name="Column508"/>
-    <tableColumn id="509" xr3:uid="{DCB793C6-6235-F64B-A283-8631A85F43B4}" name="Column509"/>
-    <tableColumn id="510" xr3:uid="{6216B567-B54B-5945-96C4-602576E2CD02}" name="Column510"/>
-    <tableColumn id="511" xr3:uid="{57B82BB3-9472-624B-BE01-4D107CB9B433}" name="Column511"/>
-    <tableColumn id="512" xr3:uid="{31BCDFDA-718D-DE4B-9CD6-FA7627A9BDC9}" name="Column512"/>
-    <tableColumn id="513" xr3:uid="{4E506FA1-7291-B746-9F51-3363D2B4F051}" name="Column513"/>
-    <tableColumn id="514" xr3:uid="{CF5EAA20-B3AF-0E45-B576-8E863E0E8AA3}" name="Column514"/>
-    <tableColumn id="515" xr3:uid="{78804234-7DEC-DC46-9796-1347E8AA88E8}" name="Column515"/>
-    <tableColumn id="516" xr3:uid="{1F099B5E-A480-2447-B68A-D89D965D5FC0}" name="Column516"/>
-    <tableColumn id="517" xr3:uid="{AF3D5878-E765-4F4B-9E16-3124CD903D85}" name="Column517"/>
-    <tableColumn id="518" xr3:uid="{213CCA5B-859D-C346-A37E-5D0C80528057}" name="Column518"/>
-    <tableColumn id="519" xr3:uid="{261D847E-A5F9-4247-8B4C-BDCEF98CBAD9}" name="Column519"/>
-    <tableColumn id="520" xr3:uid="{B87CA78B-5072-6B47-A742-CF5EE21D5D4C}" name="Column520"/>
-    <tableColumn id="521" xr3:uid="{8804B2FE-3001-0C47-A5EB-5F43EA01C57E}" name="Column521"/>
-    <tableColumn id="522" xr3:uid="{54AB04CB-ED4B-8E49-9B2D-FD2CBB8514CB}" name="Column522"/>
-    <tableColumn id="523" xr3:uid="{FA364799-8B78-2B4F-A493-FA45687A174F}" name="Column523"/>
-    <tableColumn id="524" xr3:uid="{C663D92B-3EB0-7C41-AC78-33E9CDDD29D1}" name="Column524"/>
-    <tableColumn id="525" xr3:uid="{48D4B394-48C2-D443-AFE3-17CBB84CA48D}" name="Column525"/>
-    <tableColumn id="526" xr3:uid="{4627E3E6-D996-0D49-A26A-0AF5929FE8CF}" name="Column526"/>
-    <tableColumn id="527" xr3:uid="{CBD860C4-82AE-AD40-8926-1CFAFC1E4040}" name="Column527"/>
-    <tableColumn id="528" xr3:uid="{CF30B92B-D346-304E-AAC9-2FB02C84D583}" name="Column528"/>
-    <tableColumn id="529" xr3:uid="{A275F14A-EEB1-A54F-A2E8-6A5294D77297}" name="Column529"/>
-    <tableColumn id="530" xr3:uid="{F33FAEA4-AEE9-B043-8957-E21D5B150DF1}" name="Column530"/>
-    <tableColumn id="531" xr3:uid="{493F076A-1916-BD40-849B-8E1DECDF7795}" name="Column531"/>
-    <tableColumn id="532" xr3:uid="{E2B37959-FA3B-6848-9F23-0E2F21AA9D3E}" name="Column532"/>
-    <tableColumn id="533" xr3:uid="{DCB666C2-D7B5-B840-9CDF-A5A6896379CC}" name="Column533"/>
-    <tableColumn id="534" xr3:uid="{D46794F4-9DA0-A944-BDCB-1AF47FABDA54}" name="Column534"/>
-    <tableColumn id="535" xr3:uid="{2BFF5BA3-3CB1-AF4E-9D7B-881C2D07D247}" name="Column535"/>
-    <tableColumn id="536" xr3:uid="{E1F6C81E-E74F-194F-A4EB-B81A09571C1B}" name="Column536"/>
-    <tableColumn id="537" xr3:uid="{D474C1CB-D759-7F4C-8FC8-2DACF6992132}" name="Column537"/>
-    <tableColumn id="538" xr3:uid="{F3661AA0-D7C4-4F46-BCD2-C7AFD9CC5B3B}" name="Column538"/>
-    <tableColumn id="539" xr3:uid="{3BA099F5-EAF5-8D4A-8E17-A6A52E6C387C}" name="Column539"/>
-    <tableColumn id="540" xr3:uid="{E6746E28-88DC-674D-9295-47C6AA4C7123}" name="Column540"/>
-    <tableColumn id="541" xr3:uid="{9487F6C6-5109-F844-B43E-B05003EA0AAA}" name="Column541"/>
-    <tableColumn id="542" xr3:uid="{9B530936-46CD-D84C-A2DD-809B016BDBFE}" name="Column542"/>
-    <tableColumn id="543" xr3:uid="{FD4837F7-695D-134A-B22E-3AEDC173634E}" name="Column543"/>
-    <tableColumn id="544" xr3:uid="{AFE989C1-46AA-BA40-8728-59CEA74A890B}" name="Column544"/>
-    <tableColumn id="545" xr3:uid="{7DB0E59B-0C75-D148-84B6-BC531AFBA4DC}" name="Column545"/>
-    <tableColumn id="546" xr3:uid="{A3BACFDD-8E93-1F4E-B8C5-CC1513F05857}" name="Column546"/>
-    <tableColumn id="547" xr3:uid="{3A35BF3A-4617-7348-83F4-04FFAF7C6C85}" name="Column547"/>
-    <tableColumn id="548" xr3:uid="{AFBC04D6-D421-B940-A86B-FAAC12995359}" name="Column548"/>
-    <tableColumn id="549" xr3:uid="{F7C04B82-6E2B-F74D-A35B-EF624096367B}" name="Column549"/>
-    <tableColumn id="550" xr3:uid="{0640437B-DBE5-1D4D-B506-DDCDD1C438ED}" name="Column550"/>
-    <tableColumn id="551" xr3:uid="{5CC1604E-58B7-824B-8548-0D9CDB6C7BFB}" name="Column551"/>
-    <tableColumn id="552" xr3:uid="{8B3F8ADA-B96F-8843-8485-5E8F699CA06C}" name="Column552"/>
-    <tableColumn id="553" xr3:uid="{F2DD875E-4D46-EB4C-B70C-94E9CEAFD730}" name="Column553"/>
-    <tableColumn id="554" xr3:uid="{2FB31D4C-B67C-B945-9CCA-92F7A2C985AE}" name="Column554"/>
-    <tableColumn id="555" xr3:uid="{279332AB-8F48-674D-8773-1F72203C847D}" name="Column555"/>
-    <tableColumn id="556" xr3:uid="{F9AF21F9-0351-834F-903B-32856A4D65D6}" name="Column556"/>
-    <tableColumn id="557" xr3:uid="{EB16C3BB-4A8F-C14C-987B-1219E179D539}" name="Column557"/>
-    <tableColumn id="558" xr3:uid="{2FF43661-B1A4-9F40-B317-38B658C8B2D6}" name="Column558"/>
-    <tableColumn id="559" xr3:uid="{9488A491-07BC-5B4A-A458-7599E92EF056}" name="Column559"/>
-    <tableColumn id="560" xr3:uid="{7DD7D559-DE51-0A49-9626-D621CF2052C1}" name="Column560"/>
-    <tableColumn id="561" xr3:uid="{EFDA4B83-6C21-734F-9366-33EE6627BB65}" name="Column561"/>
-    <tableColumn id="562" xr3:uid="{5E3380E8-DCBF-E14C-B4BD-02CA04B61DA1}" name="Column562"/>
-    <tableColumn id="563" xr3:uid="{1BCAA435-6AC2-CC4A-ADAF-80A58483318D}" name="Column563"/>
-    <tableColumn id="564" xr3:uid="{1A2128D2-8370-8643-96F0-BD8C9B853A9D}" name="Column564"/>
-    <tableColumn id="565" xr3:uid="{100977DB-75C1-2040-B691-37B03D6C88FD}" name="Column565"/>
-    <tableColumn id="566" xr3:uid="{7E717548-353E-7C41-ADC3-5A078463B421}" name="Column566"/>
-    <tableColumn id="567" xr3:uid="{23FB479C-C441-2346-BE75-67E5E73AA293}" name="Column567"/>
-    <tableColumn id="568" xr3:uid="{22326E21-7A25-1A4B-A994-13AD0704986B}" name="Column568"/>
-    <tableColumn id="569" xr3:uid="{E52844BB-94B9-CD47-8A09-5ADF2FBB6A98}" name="Column569"/>
-    <tableColumn id="570" xr3:uid="{28B109F6-70E3-BD4A-B5BD-A3984EBAA1CA}" name="Column570"/>
-    <tableColumn id="571" xr3:uid="{546262F4-03E5-7642-8D89-30EEC41204BC}" name="Column571"/>
-    <tableColumn id="572" xr3:uid="{04397E01-C7E5-EE4D-8A10-73F5AF10566D}" name="Column572"/>
-    <tableColumn id="573" xr3:uid="{0E533A63-CAB2-7040-AEE7-6456246409DF}" name="Column573"/>
-    <tableColumn id="574" xr3:uid="{A378EE06-86C7-A44F-A147-BB6290BDDF11}" name="Column574"/>
-    <tableColumn id="575" xr3:uid="{63348C8E-78E1-6445-AE0C-DB351910BABF}" name="Column575"/>
-    <tableColumn id="576" xr3:uid="{28462BF1-4E3F-754A-9E43-A1E3480F085F}" name="Column576"/>
-    <tableColumn id="577" xr3:uid="{B365C4CD-E878-CC44-AF24-7CBF0ACA57C9}" name="Column577"/>
-    <tableColumn id="578" xr3:uid="{F125E9D4-3DDE-974F-943D-9AD943095E36}" name="Column578"/>
-    <tableColumn id="579" xr3:uid="{DAF380E5-BAB1-914A-B4E4-207417C47174}" name="Column579"/>
-    <tableColumn id="580" xr3:uid="{89C50D1C-5A47-A84F-9277-8A32F4CC77BA}" name="Column580"/>
-    <tableColumn id="581" xr3:uid="{4A9934D8-329C-8643-8374-B91C210E30ED}" name="Column581"/>
-    <tableColumn id="582" xr3:uid="{39213337-FFEF-EC41-A3D2-7BC7C4DDBF3E}" name="Column582"/>
-    <tableColumn id="583" xr3:uid="{0A415EA6-5F50-3E4F-A6F5-FB38440DAB9F}" name="Column583"/>
-    <tableColumn id="584" xr3:uid="{874F9BD6-3E9E-884D-9373-990DBDF74DA7}" name="Column584"/>
-    <tableColumn id="585" xr3:uid="{38F7C0BB-1DD0-2840-83F3-BB8A958B77C4}" name="Column585"/>
-    <tableColumn id="586" xr3:uid="{B1B11FC5-A002-DD40-AA7A-EA8A0850C117}" name="Column586"/>
-    <tableColumn id="587" xr3:uid="{81260F6A-6227-5E4C-A6BA-1DA8096C6557}" name="Column587"/>
-    <tableColumn id="588" xr3:uid="{96E86CF7-2F07-D542-B468-62975E9FCA53}" name="Column588"/>
-    <tableColumn id="589" xr3:uid="{88B03C96-8F5D-D249-9435-6434FB5330D7}" name="Column589"/>
-    <tableColumn id="590" xr3:uid="{EC979095-DCFC-1F4E-99F8-79D84E275F6B}" name="Column590"/>
-    <tableColumn id="591" xr3:uid="{996E7D34-3281-2048-B7F4-B2D1DDCA525B}" name="Column591"/>
-    <tableColumn id="592" xr3:uid="{3A369B8E-99C1-3D47-9B5F-40D7ED940503}" name="Column592"/>
-    <tableColumn id="593" xr3:uid="{163D3264-FCD5-3141-B5D6-96EF0407D721}" name="Column593"/>
-    <tableColumn id="594" xr3:uid="{0744F641-E368-A249-ACD5-291152788C0E}" name="Column594"/>
-    <tableColumn id="595" xr3:uid="{06EBD2F1-5DEE-6942-A3E4-FD89F86468C7}" name="Column595"/>
-    <tableColumn id="596" xr3:uid="{6115548F-4F1B-384B-BF9C-B7E8E04350AB}" name="Column596"/>
-    <tableColumn id="597" xr3:uid="{53FD8030-1F25-3340-80C7-F4ABA2B7ADA2}" name="Column597"/>
-    <tableColumn id="598" xr3:uid="{E2C9C327-890A-E64E-9E8E-9CB129A7892C}" name="Column598"/>
-    <tableColumn id="599" xr3:uid="{56FC646F-D4AD-344B-AD58-91555D95A701}" name="Column599"/>
-    <tableColumn id="600" xr3:uid="{19D23E19-F8D5-6C4A-9C36-51FFD6993185}" name="Column600"/>
-    <tableColumn id="601" xr3:uid="{191FE4A2-5F67-104D-866B-E2273413BD03}" name="Column601"/>
-    <tableColumn id="602" xr3:uid="{193DD129-D8F2-904C-BA5F-DFA1FBF1BDF0}" name="Column602"/>
-    <tableColumn id="603" xr3:uid="{88EDC609-0E9C-5342-B89F-E94350B741DF}" name="Column603"/>
-    <tableColumn id="604" xr3:uid="{4E2991D7-3A2F-CA49-BD5F-4B5317A95740}" name="Column604"/>
-    <tableColumn id="605" xr3:uid="{2379D374-0131-8643-8F62-90095AE2E328}" name="Column605"/>
-    <tableColumn id="606" xr3:uid="{E7F3E9D4-5ED6-9B49-9763-81C3A271E4EB}" name="Column606"/>
-    <tableColumn id="607" xr3:uid="{BD4A5032-42E4-0E42-AD6E-675A7256E1DD}" name="Column607"/>
-    <tableColumn id="608" xr3:uid="{284E2843-2D17-6D46-9290-5CAA7C0258B1}" name="Column608"/>
-    <tableColumn id="609" xr3:uid="{875C3B99-983E-9F40-A6C3-48D173F777BC}" name="Column609"/>
-    <tableColumn id="610" xr3:uid="{F402F381-2C55-0E48-B22F-F956E84ABAEA}" name="Column610"/>
-    <tableColumn id="611" xr3:uid="{7C5C2E2D-F102-7E48-ABE6-0E6A9EEB4FDB}" name="Column611"/>
-    <tableColumn id="612" xr3:uid="{40C2E4F7-30AF-7346-863B-431D13F78FF9}" name="Column612"/>
-    <tableColumn id="613" xr3:uid="{C52D9990-9F30-5A40-9E6C-3B1C1D035982}" name="Column613"/>
-    <tableColumn id="614" xr3:uid="{C1E94F32-0F0F-C847-BE02-11C1FBF0F8E6}" name="Column614"/>
-    <tableColumn id="615" xr3:uid="{82BE4ACE-E0DB-394F-BEBF-DF1C876A8EBE}" name="Column615"/>
-    <tableColumn id="616" xr3:uid="{207AD126-EF0B-6145-900D-9E93C4D93333}" name="Column616"/>
-    <tableColumn id="617" xr3:uid="{EE470D74-A549-7A44-B58B-7A49594E4CD3}" name="Column617"/>
-    <tableColumn id="618" xr3:uid="{1046D7C0-6FC3-E44D-B2FF-4DB7F75DD37C}" name="Column618"/>
-    <tableColumn id="619" xr3:uid="{E09EA97E-2137-0949-B577-8A7150F23456}" name="Column619"/>
-    <tableColumn id="620" xr3:uid="{139FA2C4-2BA6-AC4B-95F9-59F575AE2F62}" name="Column620"/>
-    <tableColumn id="621" xr3:uid="{D9678D45-61C7-DD40-BAC1-D846E4FAD02E}" name="Column621"/>
-    <tableColumn id="622" xr3:uid="{74D3BF02-54C0-D743-A48A-155C1B5AC5C2}" name="Column622"/>
-    <tableColumn id="623" xr3:uid="{FF801C4B-20C4-2E42-ACD3-91B0BC0B5BC8}" name="Column623"/>
-    <tableColumn id="624" xr3:uid="{280A6B04-86B9-6E42-A117-C5EF57AE5F7F}" name="Column624"/>
-    <tableColumn id="625" xr3:uid="{7491BE08-8E07-134D-92D4-628859312B8D}" name="Column625"/>
-    <tableColumn id="626" xr3:uid="{F9746951-9DDC-EE40-8BFB-9D9022E77775}" name="Column626"/>
-    <tableColumn id="627" xr3:uid="{A5493C2E-95AA-E045-B31E-3FD74AD4C338}" name="Column627"/>
-    <tableColumn id="628" xr3:uid="{531DF350-99E1-FE4C-8499-752C95F88F5B}" name="Column628"/>
-    <tableColumn id="629" xr3:uid="{F45C9EBF-53C2-5941-91AD-98D004365BCC}" name="Column629"/>
-    <tableColumn id="630" xr3:uid="{FAD70AE5-3EF0-F94F-875F-91F59D6C7948}" name="Column630"/>
-    <tableColumn id="631" xr3:uid="{96B239C3-5AC9-7E4B-8A2A-B57230B880EE}" name="Column631"/>
-    <tableColumn id="632" xr3:uid="{31440400-07F8-5748-A888-EA88CFD5C260}" name="Column632"/>
-    <tableColumn id="633" xr3:uid="{355328C2-385D-5B44-ACDC-2B64091C3128}" name="Column633"/>
-    <tableColumn id="634" xr3:uid="{36B0F93B-0D11-8645-9979-84D69212356F}" name="Column634"/>
-    <tableColumn id="635" xr3:uid="{3E24703A-DFAF-6943-8782-0B0A1F9B9F1D}" name="Column635"/>
-    <tableColumn id="636" xr3:uid="{DAA0074E-AE0A-5148-9E2A-9FDE1D53BFDF}" name="Column636"/>
-    <tableColumn id="637" xr3:uid="{1EF5EE17-EABA-B744-B45C-5DEE2E304D4F}" name="Column637"/>
-    <tableColumn id="638" xr3:uid="{6EBB5FE9-F972-E240-9C6E-DB82AF4ABC6D}" name="Column638"/>
-    <tableColumn id="639" xr3:uid="{0FF69A78-9F9F-1E45-A649-348F26CE0DB5}" name="Column639"/>
-    <tableColumn id="640" xr3:uid="{1C4BD436-B8B1-2342-9AFA-3C29B10C2111}" name="Column640"/>
-    <tableColumn id="641" xr3:uid="{5E15277F-EBEF-6D4F-81D0-075EA1938BAE}" name="Column641"/>
-    <tableColumn id="642" xr3:uid="{169B8F4D-B798-034D-94D7-C4B7B4657A24}" name="Column642"/>
-    <tableColumn id="643" xr3:uid="{FFC0A977-45FB-0841-8D56-B4F975EC5B1E}" name="Column643"/>
-    <tableColumn id="644" xr3:uid="{B100F9B8-4258-3D4D-8912-484ECE33B644}" name="Column644"/>
-    <tableColumn id="645" xr3:uid="{22ECE9B3-B0D6-BA49-9A21-8AE12C7FEAB6}" name="Column645"/>
-    <tableColumn id="646" xr3:uid="{60DCA870-F16F-754C-A093-E2A9AFE645A3}" name="Column646"/>
-    <tableColumn id="647" xr3:uid="{5796E37F-F502-784E-A86B-0F5295FBDAA6}" name="Column647"/>
-    <tableColumn id="648" xr3:uid="{AC9FBF61-A5A0-1743-9E9C-9B067C5FD181}" name="Column648"/>
-    <tableColumn id="649" xr3:uid="{1C9EC1B5-D486-494C-837A-CC0EF7E032C4}" name="Column649"/>
-    <tableColumn id="650" xr3:uid="{00EB799B-0E44-AB4B-87AA-4B45F13AD98A}" name="Column650"/>
-    <tableColumn id="651" xr3:uid="{6C8B9D9F-818E-AD42-A329-5D56DC4512D1}" name="Column651"/>
-    <tableColumn id="652" xr3:uid="{4D89A3C8-709D-274E-8EC2-4CB9C60B0498}" name="Column652"/>
-    <tableColumn id="653" xr3:uid="{6F833384-6DA7-0848-BBD1-6C3FEA8EC68F}" name="Column653"/>
-    <tableColumn id="654" xr3:uid="{0626D0BE-30DA-5049-8908-A2FB04BBAAC8}" name="Column654"/>
-    <tableColumn id="655" xr3:uid="{A19D91E0-37DB-FF42-8C5B-0C348EF6125B}" name="Column655"/>
-    <tableColumn id="656" xr3:uid="{969AB035-33CB-E94F-AA25-375BD7B10CD2}" name="Column656"/>
-    <tableColumn id="657" xr3:uid="{99A2566B-C155-9844-8858-7B27A36DAFF2}" name="Column657"/>
-    <tableColumn id="658" xr3:uid="{FBDF31B2-3417-DC45-AF18-CB5A1DE2BDE1}" name="Column658"/>
-    <tableColumn id="659" xr3:uid="{4AD5B59D-BA4E-D24E-BD40-FF4B9364A854}" name="Column659"/>
-    <tableColumn id="660" xr3:uid="{75BCE6F4-356C-3743-9C4D-EFD16C089B10}" name="Column660"/>
-    <tableColumn id="661" xr3:uid="{6BEF2747-007E-4149-8217-FF5E488C8916}" name="Column661"/>
-    <tableColumn id="662" xr3:uid="{63EC524F-FD5D-F54F-99D6-4872AD75D44D}" name="Column662"/>
-    <tableColumn id="663" xr3:uid="{0AC4B3D0-2907-CA40-AAC6-0AE7E6E9DBEC}" name="Column663"/>
-    <tableColumn id="664" xr3:uid="{74B90902-6EB0-5544-ADE2-289D7C4C8A6D}" name="Column664"/>
-    <tableColumn id="665" xr3:uid="{25C4DF68-A840-A246-B163-4AF9EF9FED94}" name="Column665"/>
-    <tableColumn id="666" xr3:uid="{AD52F5A8-A58E-1747-A353-8CB55566BB27}" name="Column666"/>
-    <tableColumn id="667" xr3:uid="{6A33295D-FD53-CE4A-9D63-29C9EF0BB95E}" name="Column667"/>
-    <tableColumn id="668" xr3:uid="{EA2AB014-A0F5-4C4C-8D37-EC3D0C5D373D}" name="Column668"/>
-    <tableColumn id="669" xr3:uid="{BB091233-2282-C441-B19A-D1183C87FDCE}" name="Column669"/>
-    <tableColumn id="670" xr3:uid="{3CCA292E-AA3A-F94B-9287-56F4395A7916}" name="Column670"/>
-    <tableColumn id="671" xr3:uid="{EAEC3F9F-EC46-C448-879A-E255FAF0BE03}" name="Column671"/>
-    <tableColumn id="672" xr3:uid="{DE286F32-D029-7842-82FB-EE8B9B3A5F1F}" name="Column672"/>
-    <tableColumn id="673" xr3:uid="{CFC96E2A-645A-BB45-B4E7-89F0B5B5B5D3}" name="Column673"/>
-    <tableColumn id="674" xr3:uid="{6A494730-DD65-AA4D-BC91-098C4B58CCEB}" name="Column674"/>
-    <tableColumn id="675" xr3:uid="{0D6EEF2F-C153-7241-8EF9-D9FF00D5562D}" name="Column675"/>
-    <tableColumn id="676" xr3:uid="{BEF18387-B0E3-A04D-B658-2EB06FC8DB59}" name="Column676"/>
-    <tableColumn id="677" xr3:uid="{41C1BF26-BEB3-BA42-A11B-C75D61B93F22}" name="Column677"/>
-    <tableColumn id="678" xr3:uid="{0BEF0947-0CDE-9847-BF52-AD79F06F19D8}" name="Column678"/>
-    <tableColumn id="679" xr3:uid="{96ACAC56-C306-CD4E-86AF-213A9B99A9CC}" name="Column679"/>
-    <tableColumn id="680" xr3:uid="{B0A4FB03-254A-164E-87B8-ABA90E0B7989}" name="Column680"/>
-    <tableColumn id="681" xr3:uid="{5504DA7C-A4D3-6C46-BB17-D091F46FA8FB}" name="Column681"/>
-    <tableColumn id="682" xr3:uid="{B01CBD32-DE29-144B-A3EC-7587DB9232D1}" name="Column682"/>
-    <tableColumn id="683" xr3:uid="{1A4CB2AC-1C4D-DC4D-9B12-9999F359567D}" name="Column683"/>
-    <tableColumn id="684" xr3:uid="{5B68DB79-7E4E-634C-9960-3E7F13B61606}" name="Column684"/>
-    <tableColumn id="685" xr3:uid="{8220C446-DB55-8E43-8ED4-DF1BA7D00280}" name="Column685"/>
-    <tableColumn id="686" xr3:uid="{1A1AD3C5-CD90-7940-8029-9FA89A6BB0EC}" name="Column686"/>
-    <tableColumn id="687" xr3:uid="{0E1634DA-C50D-E74D-AED3-BBA0E86037CB}" name="Column687"/>
-    <tableColumn id="688" xr3:uid="{336D42A5-6187-DB4C-80CE-D5BA2384B77A}" name="Column688"/>
-    <tableColumn id="689" xr3:uid="{8FA3E734-4A5A-0F4F-9721-13D34B034813}" name="Column689"/>
-    <tableColumn id="690" xr3:uid="{0AD41B4E-D834-F546-AB38-D3819F3B6887}" name="Column690"/>
-    <tableColumn id="691" xr3:uid="{D565AFE9-044A-8941-97DB-DCE544C17DAC}" name="Column691"/>
-    <tableColumn id="692" xr3:uid="{1A6D06F6-000D-A949-BC00-E4FB880B0334}" name="Column692"/>
-    <tableColumn id="693" xr3:uid="{E4863656-518D-5244-BC63-BCD91AEB55D3}" name="Column693"/>
-    <tableColumn id="694" xr3:uid="{D73FCAE6-6774-834B-BACC-9C8C736E8E89}" name="Column694"/>
-    <tableColumn id="695" xr3:uid="{BB134542-855A-0443-8012-B2B1BEFDB287}" name="Column695"/>
-    <tableColumn id="696" xr3:uid="{31EC4C04-CE91-054A-A8B9-88203E467474}" name="Column696"/>
-    <tableColumn id="697" xr3:uid="{945C3B6E-82EE-1E47-8C6F-8EC4C476FD13}" name="Column697"/>
-    <tableColumn id="698" xr3:uid="{09968C65-EB0B-BC45-8384-7CE47ADDF246}" name="Column698"/>
-    <tableColumn id="699" xr3:uid="{344E693D-452D-5C44-A448-E60482167BCB}" name="Column699"/>
-    <tableColumn id="700" xr3:uid="{4C5A90AB-556A-CA4B-8E9F-D48C9E5FCC92}" name="Column700"/>
-    <tableColumn id="701" xr3:uid="{285EEF5C-76CA-EA4F-9542-3E1585F3C32D}" name="Column701"/>
-    <tableColumn id="702" xr3:uid="{74EB9562-871F-9E4B-A084-56584DDF625A}" name="Column702"/>
-    <tableColumn id="703" xr3:uid="{FFD50958-3E1A-D745-9BCD-55DA04BC3421}" name="Column703"/>
-    <tableColumn id="704" xr3:uid="{594A726A-5CF5-784B-B33D-724FE933D80F}" name="Column704"/>
-    <tableColumn id="705" xr3:uid="{427790F5-208A-0E46-94F0-D19BC741C5FC}" name="Column705"/>
-    <tableColumn id="706" xr3:uid="{458ADEAF-9952-D745-A14C-885D2C47F1C8}" name="Column706"/>
-    <tableColumn id="707" xr3:uid="{609CB8FD-2193-194A-8F28-C50E04A73DBC}" name="Column707"/>
-    <tableColumn id="708" xr3:uid="{E07BC576-A454-1741-8DDB-74EF8EE08C30}" name="Column708"/>
-    <tableColumn id="709" xr3:uid="{BA540F8E-E36E-1648-BE78-89744F0C3AD6}" name="Column709"/>
-    <tableColumn id="710" xr3:uid="{6CF26E21-9F5A-F040-9A1A-C6E02351EEAA}" name="Column710"/>
-    <tableColumn id="711" xr3:uid="{2CE011E7-65CE-2042-8D68-BFA6044FBF5D}" name="Column711"/>
-    <tableColumn id="712" xr3:uid="{BDE66F57-A6F0-1D47-AC21-675F2819F33F}" name="Column712"/>
-    <tableColumn id="713" xr3:uid="{EEC00FC7-42B5-C440-B92A-5AE3018B9D26}" name="Column713"/>
-    <tableColumn id="714" xr3:uid="{65CE97D7-D106-D147-AFEE-0331473DAB49}" name="Column714"/>
-    <tableColumn id="715" xr3:uid="{445D7114-61EB-9740-A69A-5FB793AE55B6}" name="Column715"/>
-    <tableColumn id="716" xr3:uid="{343EF571-9EF0-B342-AE88-DFED39119054}" name="Column716"/>
-    <tableColumn id="717" xr3:uid="{A6F6CE35-DC0A-5D4E-9322-4FFAE47C58B0}" name="Column717"/>
-    <tableColumn id="718" xr3:uid="{1FAFE370-8C99-A24A-9255-411FAFB2D7B9}" name="Column718"/>
-    <tableColumn id="719" xr3:uid="{0B4AB487-77FE-3D41-9CA6-B49489E4230E}" name="Column719"/>
-    <tableColumn id="720" xr3:uid="{8D68D342-E38F-8B40-AF79-6E7B25AB75DC}" name="Column720"/>
-    <tableColumn id="721" xr3:uid="{F4ABD106-C1E2-6F4F-880B-13FC8DD26AEE}" name="Column721"/>
-    <tableColumn id="722" xr3:uid="{6DF0F760-D480-374D-B41E-ACA1A60AE511}" name="Column722"/>
-    <tableColumn id="723" xr3:uid="{799AACDD-5ED4-BC40-9057-770E20B310C4}" name="Column723"/>
-    <tableColumn id="724" xr3:uid="{7B2511CE-2113-A14F-9610-6AF92E754E0D}" name="Column724"/>
-    <tableColumn id="725" xr3:uid="{04B02AD6-015B-7A42-A937-3BE2E996DB84}" name="Column725"/>
-    <tableColumn id="726" xr3:uid="{D09D5CDE-05C5-4E42-87F0-61F709C6C5A4}" name="Column726"/>
-    <tableColumn id="727" xr3:uid="{16EAD78A-7F3D-AD49-9471-94701E901AE4}" name="Column727"/>
-    <tableColumn id="728" xr3:uid="{C004F742-F04E-4D40-A820-C2D2E253BAA9}" name="Column728"/>
-    <tableColumn id="729" xr3:uid="{F72B2281-8D0D-F743-8714-2CB63995AA65}" name="Column729"/>
-    <tableColumn id="730" xr3:uid="{81F856CE-EAE6-7E46-A85F-5141138C0DE2}" name="Column730"/>
-    <tableColumn id="731" xr3:uid="{9EC270AA-914F-A149-A2C7-2D9FB8B20DBE}" name="Column731"/>
-    <tableColumn id="732" xr3:uid="{D118CFCC-ECE8-F547-89F9-F519BB4430CF}" name="Column732"/>
-    <tableColumn id="733" xr3:uid="{D7DF1B5A-0ED8-8A4F-B05D-7521EAF94E94}" name="Column733"/>
-    <tableColumn id="734" xr3:uid="{36D37291-2E8D-6C49-A9DF-9B32E917B1FD}" name="Column734"/>
-    <tableColumn id="735" xr3:uid="{5C4D50CA-AF18-0D42-A6D9-D5EECC29043A}" name="Column735"/>
-    <tableColumn id="736" xr3:uid="{8776C797-7FC8-904B-AFB2-3567507E78A7}" name="Column736"/>
-    <tableColumn id="737" xr3:uid="{6C1EE823-D7AA-A04D-9950-BB80AD0CDACA}" name="Column737"/>
-    <tableColumn id="738" xr3:uid="{C0E4623F-3064-EE47-A99E-042FF8C20106}" name="Column738"/>
-    <tableColumn id="739" xr3:uid="{3B1F52EF-8BA8-8643-94AA-30D6ABD833A7}" name="Column739"/>
-    <tableColumn id="740" xr3:uid="{845610D2-21A1-E047-90D1-19BA2C2A0801}" name="Column740"/>
-    <tableColumn id="741" xr3:uid="{6BD841C7-FB8D-FD4E-AE06-AD6B1DFAB527}" name="Column741"/>
-    <tableColumn id="742" xr3:uid="{949A9799-8FD5-8044-94D2-DD45F1E1D891}" name="Column742"/>
-    <tableColumn id="743" xr3:uid="{39DE1F60-F029-594B-9B8C-A404EB45E0A7}" name="Column743"/>
-    <tableColumn id="744" xr3:uid="{B61F4031-8040-DF4A-BA74-7561AA204D08}" name="Column744"/>
-    <tableColumn id="745" xr3:uid="{6E4E5FA2-7F94-4E42-94C9-4B269A17C98D}" name="Column745"/>
-    <tableColumn id="746" xr3:uid="{3043F21E-835E-E640-A4E2-A5B5B4210D04}" name="Column746"/>
-    <tableColumn id="747" xr3:uid="{FA15BE30-2049-B54C-96F3-229B6FBF50F6}" name="Column747"/>
-    <tableColumn id="748" xr3:uid="{FC2831C4-D569-4A49-9846-C2F4966D1F4B}" name="Column748"/>
-    <tableColumn id="749" xr3:uid="{BB9D2706-8A25-5841-A6EA-353A99E623E3}" name="Column749"/>
-    <tableColumn id="750" xr3:uid="{05409603-599C-604C-BEED-8CB4F8EB0588}" name="Column750"/>
-    <tableColumn id="751" xr3:uid="{01320C62-58CA-A24B-A2DA-90DE4EDF2AF8}" name="Column751"/>
-    <tableColumn id="752" xr3:uid="{CDC16226-61F8-5948-91C7-D6AE6897770E}" name="Column752"/>
-    <tableColumn id="753" xr3:uid="{C1BE4B26-3104-3A40-A493-CB516D8733EF}" name="Column753"/>
-    <tableColumn id="754" xr3:uid="{E507444C-8BB9-F743-B02B-15520C7850A7}" name="Column754"/>
-    <tableColumn id="755" xr3:uid="{8E81CB21-FDFE-1842-B4A1-B25EE178E0B3}" name="Column755"/>
-    <tableColumn id="756" xr3:uid="{CEF2EED5-9F5C-0341-BC7C-FCF24775EACD}" name="Column756"/>
-    <tableColumn id="757" xr3:uid="{E6B55C54-1322-F142-8D91-98A3B59E4FF9}" name="Column757"/>
-    <tableColumn id="758" xr3:uid="{CDCE7E60-BA82-3846-834B-122B7CCD0918}" name="Column758"/>
-    <tableColumn id="759" xr3:uid="{FBC7CFBC-7A1D-2C43-92CA-85E15CADB43B}" name="Column759"/>
-    <tableColumn id="760" xr3:uid="{0E44EA35-5DD2-C943-8CF6-57BB55DCBAA8}" name="Column760"/>
-    <tableColumn id="761" xr3:uid="{5A7DB709-163F-994D-B045-04A84F1A06BB}" name="Column761"/>
-    <tableColumn id="762" xr3:uid="{AFFA9699-491A-7D41-94AC-EA4B0F125BA4}" name="Column762"/>
-    <tableColumn id="763" xr3:uid="{C9B384CC-B4AD-4540-B843-831B54687AB6}" name="Column763"/>
-    <tableColumn id="764" xr3:uid="{8EA42FCF-4C56-9141-B0D2-C31DF60D4362}" name="Column764"/>
-    <tableColumn id="765" xr3:uid="{4E093449-2EB6-7749-A321-6F63655F5AE7}" name="Column765"/>
-    <tableColumn id="766" xr3:uid="{01C92422-08EA-D645-8553-FC971607E671}" name="Column766"/>
-    <tableColumn id="767" xr3:uid="{6ED9B759-2FB8-F14A-9197-42BEFA0DDD2D}" name="Column767"/>
-    <tableColumn id="768" xr3:uid="{A1FFB70A-0C80-724D-A093-3DA8DCC9FDAF}" name="Column768"/>
-    <tableColumn id="769" xr3:uid="{1D745C29-DCBE-6349-83DC-908D95BD3487}" name="Column769"/>
-    <tableColumn id="770" xr3:uid="{B9F789FF-1CB6-F540-AE37-D0996DDBD7A6}" name="Column770"/>
-    <tableColumn id="771" xr3:uid="{A158C5E4-70C3-8C4C-B958-2C23E3448696}" name="Column771"/>
-    <tableColumn id="772" xr3:uid="{1E759BA8-0CBB-D643-9439-A6A1345433A9}" name="Column772"/>
-    <tableColumn id="773" xr3:uid="{B067907D-A2B7-5346-BFEF-F9930179022A}" name="Column773"/>
-    <tableColumn id="774" xr3:uid="{74EBA663-C74D-704F-AD82-AB995C0F3D8C}" name="Column774"/>
-    <tableColumn id="775" xr3:uid="{C992E46C-FDF7-B14C-96DB-6D360C5DEC53}" name="Column775"/>
-    <tableColumn id="776" xr3:uid="{18422A67-6A35-334D-969F-1A4895286E9B}" name="Column776"/>
-    <tableColumn id="777" xr3:uid="{076ECAD1-C9D7-444E-B0BC-D04C83F437C2}" name="Column777"/>
-    <tableColumn id="778" xr3:uid="{60274C5F-E85D-2142-B3C7-95E0527EF329}" name="Column778"/>
-    <tableColumn id="779" xr3:uid="{0394C6A3-C9B8-5840-9281-461174565BD5}" name="Column779"/>
-    <tableColumn id="780" xr3:uid="{EFD6D776-C84E-F04C-AD5A-DBC8E73667B0}" name="Column780"/>
-    <tableColumn id="781" xr3:uid="{281E9273-FD4D-8145-B6B0-A8D46C7E3262}" name="Column781"/>
-    <tableColumn id="782" xr3:uid="{5A232CC9-9F3C-4948-BDCF-9DA4D9B39ABE}" name="Column782"/>
-    <tableColumn id="783" xr3:uid="{DB2EB604-DA1D-A54E-A28C-12944483FAD7}" name="Column783"/>
-    <tableColumn id="784" xr3:uid="{1199518C-CBCC-3943-8909-AC1B221740CB}" name="Column784"/>
-    <tableColumn id="785" xr3:uid="{E4DEDD6E-337B-AB4B-8442-17B15F24126C}" name="Column785"/>
-    <tableColumn id="786" xr3:uid="{CC2F6A2F-6C2C-734E-A4FE-9CAB84DC6546}" name="Column786"/>
-    <tableColumn id="787" xr3:uid="{44385455-0CFF-CA4C-8603-1E8FCA28370A}" name="Column787"/>
-    <tableColumn id="788" xr3:uid="{3AD590AF-D265-764F-9E57-42257D777186}" name="Column788"/>
-    <tableColumn id="789" xr3:uid="{926E26DB-9BA7-E348-B983-A9728260802D}" name="Column789"/>
-    <tableColumn id="790" xr3:uid="{886BC51E-78AF-B744-8F2A-0D493C1A2A16}" name="Column790"/>
-    <tableColumn id="791" xr3:uid="{D2B4C076-0E5E-054E-BC16-6A1B07B8AACC}" name="Column791"/>
-    <tableColumn id="792" xr3:uid="{AF3919B0-74B5-9D43-8303-B4EECA67D326}" name="Column792"/>
-    <tableColumn id="793" xr3:uid="{1C18D6E7-DCEE-784A-873E-0F79D346B653}" name="Column793"/>
-    <tableColumn id="794" xr3:uid="{9E56518F-0758-124C-97C5-9956E7A38582}" name="Column794"/>
-    <tableColumn id="795" xr3:uid="{DC435F67-29C5-8241-A060-B1C8277E9F56}" name="Column795"/>
-    <tableColumn id="796" xr3:uid="{7BBE69EC-1A2B-F244-836F-2E8A07BAA43B}" name="Column796"/>
-    <tableColumn id="797" xr3:uid="{F04FEAEA-F627-D94F-8CFD-1C3B8837D08E}" name="Column797"/>
-    <tableColumn id="798" xr3:uid="{BB87D985-2091-B644-A040-545DC5AF2EC8}" name="Column798"/>
-    <tableColumn id="799" xr3:uid="{BA9A606F-FC6B-5B42-A0DD-013296C24F3D}" name="Column799"/>
-    <tableColumn id="800" xr3:uid="{202A65B6-B24C-1B46-BCC9-F3E68E360832}" name="Column800"/>
-    <tableColumn id="801" xr3:uid="{41F50CD8-80F8-2E48-915B-CB3EA11F9832}" name="Column801"/>
-    <tableColumn id="802" xr3:uid="{651F1865-99CE-124E-889A-44410282658A}" name="Column802"/>
-    <tableColumn id="803" xr3:uid="{2C9F642B-9493-254D-A535-B6220B9B94F7}" name="Column803"/>
-    <tableColumn id="804" xr3:uid="{87B23D55-D121-8449-A4BF-83A6853C49A5}" name="Column804"/>
-    <tableColumn id="805" xr3:uid="{5A5A983C-2DFF-4F4D-A7E3-A3F6F55E97C3}" name="Column805"/>
-    <tableColumn id="806" xr3:uid="{EAF35B09-4572-8443-90A4-88531A210F77}" name="Column806"/>
-    <tableColumn id="807" xr3:uid="{EE527FD5-AD61-074A-B5E0-FF6088E4B48D}" name="Column807"/>
-    <tableColumn id="808" xr3:uid="{B62B5F96-D0B7-E449-9281-411AA661B8D7}" name="Column808"/>
-    <tableColumn id="809" xr3:uid="{27512850-6EF7-6E46-B28A-F9F70E2F94DF}" name="Column809"/>
-    <tableColumn id="810" xr3:uid="{3E7695AB-5C75-404A-8745-5ED264751134}" name="Column810"/>
-    <tableColumn id="811" xr3:uid="{83885A9E-D02A-CA4F-8D5D-E09251FF2311}" name="Column811"/>
-    <tableColumn id="812" xr3:uid="{C360E5D7-6729-FF4C-9B99-BF8634116B5C}" name="Column812"/>
-    <tableColumn id="813" xr3:uid="{513D4C14-6BDD-5B4D-A219-37167A093A13}" name="Column813"/>
-    <tableColumn id="814" xr3:uid="{AF4AE41F-F407-8340-93BF-DBD38D16E81A}" name="Column814"/>
-    <tableColumn id="815" xr3:uid="{B7894CA0-F052-5D48-80AE-C5C0CD0BF04B}" name="Column815"/>
-    <tableColumn id="816" xr3:uid="{E5290872-3820-0948-8405-BDD24C9C1CA7}" name="Column816"/>
-    <tableColumn id="817" xr3:uid="{DC611462-8D77-354B-B80D-A93FE20FDC08}" name="Column817"/>
-    <tableColumn id="818" xr3:uid="{9373E073-3493-FE48-AD32-32CCE6B9D102}" name="Column818"/>
-    <tableColumn id="819" xr3:uid="{468CF251-0251-C54C-AFF3-F0B81907D20E}" name="Column819"/>
-    <tableColumn id="820" xr3:uid="{EE113FC6-F3C1-364A-AF16-9067E5047382}" name="Column820"/>
-    <tableColumn id="821" xr3:uid="{E746E8DF-8D9F-FB48-8C1D-224E79AA32C9}" name="Column821"/>
-    <tableColumn id="822" xr3:uid="{ABD7DF60-1AC8-614F-A4F3-1F612DB03EA2}" name="Column822"/>
-    <tableColumn id="823" xr3:uid="{213909EF-E93A-7E44-9434-AB5492575AF9}" name="Column823"/>
-    <tableColumn id="824" xr3:uid="{33E6619E-07AC-5E44-B2D2-382545851B62}" name="Column824"/>
-    <tableColumn id="825" xr3:uid="{8527D4E5-2074-FE49-A89B-895DFDDBBC68}" name="Column825"/>
-    <tableColumn id="826" xr3:uid="{5F30DD28-EAE8-1142-9344-C6023792CBA5}" name="Column826"/>
-    <tableColumn id="827" xr3:uid="{0752D2A2-C286-474F-BFCE-C9E014BD8078}" name="Column827"/>
-    <tableColumn id="828" xr3:uid="{5C450420-43DB-D048-A49D-3DF6EDBDCF6A}" name="Column828"/>
-    <tableColumn id="829" xr3:uid="{86C1117F-90A8-024F-A121-3E006DCDB362}" name="Column829"/>
-    <tableColumn id="830" xr3:uid="{60A346BD-8821-E146-9D7E-E045E1875EC7}" name="Column830"/>
-    <tableColumn id="831" xr3:uid="{83744139-0854-614E-9F6B-04B3E7EB1775}" name="Column831"/>
-    <tableColumn id="832" xr3:uid="{71902FE1-BED1-5944-9427-3D4FDDD495CB}" name="Column832"/>
-    <tableColumn id="833" xr3:uid="{E154F9A7-F9CC-0841-801D-093D89D1FB50}" name="Column833"/>
-    <tableColumn id="834" xr3:uid="{26E96A6E-5E65-5D49-992D-62E6CFF356F1}" name="Column834"/>
-    <tableColumn id="835" xr3:uid="{84930A82-904E-1246-9009-8776ABC1739F}" name="Column835"/>
-    <tableColumn id="836" xr3:uid="{3188073B-F707-984A-8D25-7E3BA4F7FA20}" name="Column836"/>
-    <tableColumn id="837" xr3:uid="{C1E0CBCA-B646-A649-B0E0-2532B0508BCB}" name="Column837"/>
-    <tableColumn id="838" xr3:uid="{593740FE-1A68-EA48-BAAF-5251A119C925}" name="Column838"/>
-    <tableColumn id="839" xr3:uid="{E31CB534-B0C4-C94C-9C81-60A020DD056E}" name="Column839"/>
-    <tableColumn id="840" xr3:uid="{2072E484-3A5C-0C44-8A70-5035B0F4774D}" name="Column840"/>
-    <tableColumn id="841" xr3:uid="{C8ECD939-BFCB-784E-A15C-EAAFF48FE2AC}" name="Column841"/>
-    <tableColumn id="842" xr3:uid="{06A76113-87CE-874C-8E12-695295A35197}" name="Column842"/>
-    <tableColumn id="843" xr3:uid="{D5D7F60D-9231-C045-9761-61DFEA0AF833}" name="Column843"/>
-    <tableColumn id="844" xr3:uid="{6DDBEE35-2F4F-8A49-9C6E-F150AAA0E75B}" name="Column844"/>
-    <tableColumn id="845" xr3:uid="{17263802-75EA-B54B-AFB4-A1356DB8F511}" name="Column845"/>
-    <tableColumn id="846" xr3:uid="{FF7300C3-6E29-594F-A190-7A6956B03B1B}" name="Column846"/>
-    <tableColumn id="847" xr3:uid="{B7D038A3-492E-2744-A2DE-0C3643C87463}" name="Column847"/>
-    <tableColumn id="848" xr3:uid="{815AC404-397C-244B-BFDB-2EB342EA3553}" name="Column848"/>
-    <tableColumn id="849" xr3:uid="{FEACCD6F-6B4F-A744-B845-04859D656E2F}" name="Column849"/>
-    <tableColumn id="850" xr3:uid="{F8517BC5-F679-3E40-8826-0E831FFF8691}" name="Column850"/>
-    <tableColumn id="851" xr3:uid="{F8D0134A-2142-044E-9F63-FAEF5113DA41}" name="Column851"/>
-    <tableColumn id="852" xr3:uid="{8D9E7489-DAF9-EA41-883B-4045E5B9E8B1}" name="Column852"/>
-    <tableColumn id="853" xr3:uid="{215BB624-1624-664B-B3C3-0E71AEECB840}" name="Column853"/>
-    <tableColumn id="854" xr3:uid="{5353AB7E-4017-CE49-93A2-5E8A4D34112B}" name="Column854"/>
-    <tableColumn id="855" xr3:uid="{9FA512BE-7322-0546-8593-B8A13E050CCE}" name="Column855"/>
-    <tableColumn id="856" xr3:uid="{B772418D-C432-E743-92C9-F5CF9E915E54}" name="Column856"/>
-    <tableColumn id="857" xr3:uid="{95FDD279-0939-2248-A236-8DC64770CEBC}" name="Column857"/>
-    <tableColumn id="858" xr3:uid="{940185E7-5E3E-1D40-848F-2C8C54D9B2F5}" name="Column858"/>
-    <tableColumn id="859" xr3:uid="{2F49F85F-D012-F345-B120-4051423DC648}" name="Column859"/>
-    <tableColumn id="860" xr3:uid="{7B627101-B23B-6E44-A335-7BFE26EA3AB4}" name="Column860"/>
-    <tableColumn id="861" xr3:uid="{CAC22E50-0985-A54B-BC72-D3A93C5311A3}" name="Column861"/>
-    <tableColumn id="862" xr3:uid="{FB429986-A728-B64B-A567-2724DCE70057}" name="Column862"/>
-    <tableColumn id="863" xr3:uid="{874ECA63-E74D-E046-9551-682D526EDD48}" name="Column863"/>
-    <tableColumn id="864" xr3:uid="{1E988422-DEFC-9341-97BF-820C74901266}" name="Column864"/>
-    <tableColumn id="865" xr3:uid="{5EC30191-D951-1848-B01B-EBDB614519F8}" name="Column865"/>
-    <tableColumn id="866" xr3:uid="{4EC40BB5-CD70-9B4E-9CF4-B5C6086CE579}" name="Column866"/>
-    <tableColumn id="867" xr3:uid="{035D9730-1F6C-F242-AA6D-B2889ABA2CEA}" name="Column867"/>
-    <tableColumn id="868" xr3:uid="{67AAF22E-57BC-AF43-A9A2-7143C758C0BE}" name="Column868"/>
-    <tableColumn id="869" xr3:uid="{58C36B22-A429-F84E-AD13-A2A685900EAF}" name="Column869"/>
-    <tableColumn id="870" xr3:uid="{7519A781-958D-E845-A11D-87F4FE5A6512}" name="Column870"/>
-    <tableColumn id="871" xr3:uid="{7E65BED1-FE4E-1540-80EA-29B0A24077E0}" name="Column871"/>
-    <tableColumn id="872" xr3:uid="{0778186C-4EA8-754B-8710-A2C0B74C7D6E}" name="Column872"/>
-    <tableColumn id="873" xr3:uid="{691E01AF-8708-F149-BC40-333FC8D3F5B1}" name="Column873"/>
-    <tableColumn id="874" xr3:uid="{F9CCDF35-72CF-AD49-909B-5018DC6EDFC5}" name="Column874"/>
-    <tableColumn id="875" xr3:uid="{96805004-C9D8-E74F-9DA7-AC6C80229318}" name="Column875"/>
-    <tableColumn id="876" xr3:uid="{8C57A19E-B3BA-1E49-9CA9-846FE109D6B7}" name="Column876"/>
-    <tableColumn id="877" xr3:uid="{2EF00BBA-1269-0048-98B4-E4E50D8C055A}" name="Column877"/>
-    <tableColumn id="878" xr3:uid="{E879249A-7393-FE4B-8F7A-80857C705170}" name="Column878"/>
-    <tableColumn id="879" xr3:uid="{B35B7DD3-C141-1B4F-812A-A8FCC8F829D7}" name="Column879"/>
-    <tableColumn id="880" xr3:uid="{E8738534-949D-CB49-BA58-943B7F27BC7B}" name="Column880"/>
-    <tableColumn id="881" xr3:uid="{8EC26588-5067-0843-9BAF-C6EE95AE54A3}" name="Column881"/>
-    <tableColumn id="882" xr3:uid="{653AB89D-6904-A341-8CC9-9611880C8E18}" name="Column882"/>
-    <tableColumn id="883" xr3:uid="{10857BA0-680C-5940-AE12-CDFAE809AF46}" name="Column883"/>
-    <tableColumn id="884" xr3:uid="{025641B6-C543-274F-9F3B-4DC53084B5D2}" name="Column884"/>
-    <tableColumn id="885" xr3:uid="{DBDC9EB0-2E58-A645-B563-A62F15960C3F}" name="Column885"/>
-    <tableColumn id="886" xr3:uid="{8A3216B8-EE31-E549-B60B-69E686FEDF0E}" name="Column886"/>
-    <tableColumn id="887" xr3:uid="{182E9C32-01E0-1F49-A150-0A12F7B717DA}" name="Column887"/>
-    <tableColumn id="888" xr3:uid="{4FECDC2D-8B9D-C943-BF11-9127D6929401}" name="Column888"/>
-    <tableColumn id="889" xr3:uid="{A601FDE2-2485-4D44-B6D6-721B2F05C6B2}" name="Column889"/>
-    <tableColumn id="890" xr3:uid="{1FB191DF-E9BF-F749-8877-82CB8525E0DB}" name="Column890"/>
-    <tableColumn id="891" xr3:uid="{AACD0524-B7D4-5A44-B2B1-2BEF6284AF5A}" name="Column891"/>
-    <tableColumn id="892" xr3:uid="{F2F1DC80-64B2-E243-AC44-2AC49BAA3892}" name="Column892"/>
-    <tableColumn id="893" xr3:uid="{ED91610C-60A1-8349-ACC8-0C0C4CF4BD1A}" name="Column893"/>
-    <tableColumn id="894" xr3:uid="{953AB102-32B8-1F44-8F7C-8EE677BDAAAA}" name="Column894"/>
-    <tableColumn id="895" xr3:uid="{7DBEE8C6-50EB-044B-9E25-D9440D053822}" name="Column895"/>
-    <tableColumn id="896" xr3:uid="{25260B2C-2A1F-FF44-9695-3DF8409D3E24}" name="Column896"/>
-    <tableColumn id="897" xr3:uid="{F05BE2F2-6FE1-F34B-96E9-E187C1C4E2DA}" name="Column897"/>
-    <tableColumn id="898" xr3:uid="{091B37F8-C8EE-C44F-9568-11C23D4BCFA6}" name="Column898"/>
-    <tableColumn id="899" xr3:uid="{B847250A-2A6C-244E-A5C1-F97BAE7B6770}" name="Column899"/>
-    <tableColumn id="900" xr3:uid="{8E07BBE9-4619-BD4A-9456-31F8D2A22A1A}" name="Column900"/>
-    <tableColumn id="901" xr3:uid="{60CC98E7-B65D-7448-9C13-D7678ED287E6}" name="Column901"/>
-    <tableColumn id="902" xr3:uid="{F669ABCF-A302-EA49-9151-C98AB8E0D454}" name="Column902"/>
-    <tableColumn id="903" xr3:uid="{DC7E0E4C-F0E5-364A-B164-01D18964BC24}" name="Column903"/>
-    <tableColumn id="904" xr3:uid="{EA1F4576-31E9-6844-8A9D-EC5A93670668}" name="Column904"/>
-    <tableColumn id="905" xr3:uid="{3C2109CB-ADE9-F74D-9CE6-0FC508F1120F}" name="Column905"/>
-    <tableColumn id="906" xr3:uid="{CA5A3591-D074-6E42-9903-C2FDCD2DFEF3}" name="Column906"/>
-    <tableColumn id="907" xr3:uid="{B1416196-A22F-A146-84ED-8B0FCC8D5032}" name="Column907"/>
-    <tableColumn id="908" xr3:uid="{2D1FDE41-813B-6144-81AC-2558822285EA}" name="Column908"/>
-    <tableColumn id="909" xr3:uid="{A85E6CE3-2EE0-EB49-B12F-09D3C2639817}" name="Column909"/>
-    <tableColumn id="910" xr3:uid="{333D8BA4-60FF-9940-9342-6E85A4703FAF}" name="Column910"/>
-    <tableColumn id="911" xr3:uid="{9E64F446-D2E9-BA47-82CB-061AA95BC337}" name="Column911"/>
-    <tableColumn id="912" xr3:uid="{E3CFC346-D9BF-1948-8BC7-BC2854370CB0}" name="Column912"/>
-    <tableColumn id="913" xr3:uid="{9E6D9FAA-20F3-DD4B-8DFA-EEECF961F9B7}" name="Column913"/>
-    <tableColumn id="914" xr3:uid="{766B4B2F-FD4B-AD47-8CCD-8D56EB5D4894}" name="Column914"/>
-    <tableColumn id="915" xr3:uid="{831CA3BC-768B-1A4D-9990-A7E8B2A3C584}" name="Column915"/>
-    <tableColumn id="916" xr3:uid="{67182D39-8CBB-8441-A7EC-5A3A17888843}" name="Column916"/>
-    <tableColumn id="917" xr3:uid="{E4654EAD-97AF-AB46-A86D-B1F339125F9A}" name="Column917"/>
-    <tableColumn id="918" xr3:uid="{2AA7213F-F04B-AD40-9738-A0C5B973A813}" name="Column918"/>
-    <tableColumn id="919" xr3:uid="{583B32B3-114F-F348-A10A-9E5531563214}" name="Column919"/>
-    <tableColumn id="920" xr3:uid="{DB46D7F4-D9F6-A440-8C0D-B1DF489FB82C}" name="Column920"/>
-    <tableColumn id="921" xr3:uid="{F37D94E4-500A-D341-96C7-D72D35307437}" name="Column921"/>
-    <tableColumn id="922" xr3:uid="{ED541585-E4E7-1048-9DA5-3E630841230C}" name="Column922"/>
-    <tableColumn id="923" xr3:uid="{5F9BBC1D-3D3D-4E41-BFFF-E7543020C2C9}" name="Column923"/>
-    <tableColumn id="924" xr3:uid="{4C39BE58-9869-F24D-806F-3217F6D0A8BD}" name="Column924"/>
-    <tableColumn id="925" xr3:uid="{BA9FF697-9D2B-C14A-9FAC-C46052E3389F}" name="Column925"/>
-    <tableColumn id="926" xr3:uid="{A0B96EA8-A520-6D42-A102-6CF7F19139C3}" name="Column926"/>
-    <tableColumn id="927" xr3:uid="{5C2D077C-5E7E-F94C-A646-63FDE8F1EE5F}" name="Column927"/>
-    <tableColumn id="928" xr3:uid="{36A533B4-CC3E-7D4A-AF1E-EA0392AEF79F}" name="Column928"/>
-    <tableColumn id="929" xr3:uid="{8EB32200-9328-8840-936D-8B8AB69E1447}" name="Column929"/>
-    <tableColumn id="930" xr3:uid="{44FFF71C-32A4-2648-AE32-D3A860E2DB74}" name="Column930"/>
-    <tableColumn id="931" xr3:uid="{C02B97A4-E0C2-044D-AE11-A6ED5B0206AD}" name="Column931"/>
-    <tableColumn id="932" xr3:uid="{EF1A2B99-F888-8C4D-88FD-C4EEF49C1E66}" name="Column932"/>
-    <tableColumn id="933" xr3:uid="{F2B21D5E-4B14-EC4D-824D-3C95AF6895AD}" name="Column933"/>
-    <tableColumn id="934" xr3:uid="{86C4B0EC-697A-044F-BB2D-A96117C45678}" name="Column934"/>
-    <tableColumn id="935" xr3:uid="{0E4A2CA1-AE32-884C-B61F-FA7C1DFC6C16}" name="Column935"/>
-    <tableColumn id="936" xr3:uid="{E17CA3AF-0950-D14B-A289-304EBC7FEB5C}" name="Column936"/>
-    <tableColumn id="937" xr3:uid="{4A4B0661-1878-EA4C-9F40-A6EA3867D300}" name="Column937"/>
-    <tableColumn id="938" xr3:uid="{2452304D-6856-3F45-8044-2F1D3B444DAA}" name="Column938"/>
-    <tableColumn id="939" xr3:uid="{92400816-5D11-EC46-A3EC-00A42F069952}" name="Column939"/>
-    <tableColumn id="940" xr3:uid="{58C4BB3E-9A83-B448-AD1D-FED9A101D9F3}" name="Column940"/>
-    <tableColumn id="941" xr3:uid="{FFCF97AF-6ED1-CA42-96CA-B5D75FC0D3B7}" name="Column941"/>
-    <tableColumn id="942" xr3:uid="{DEF1B869-97B5-BE4D-935F-48130E9C532A}" name="Column942"/>
-    <tableColumn id="943" xr3:uid="{737CC34A-8FDE-9448-A831-D0F8FFD719E4}" name="Column943"/>
-    <tableColumn id="944" xr3:uid="{111A4F86-CF6E-674A-83AB-58D9EFDB731A}" name="Column944"/>
-    <tableColumn id="945" xr3:uid="{27852934-5A9F-AA4B-8F62-17714B908DC9}" name="Column945"/>
-    <tableColumn id="946" xr3:uid="{C0D73423-B1C4-5743-88F1-A810434891F3}" name="Column946"/>
-    <tableColumn id="947" xr3:uid="{D862207B-08B2-7A4F-9C78-E595E59DEC18}" name="Column947"/>
-    <tableColumn id="948" xr3:uid="{B535AF88-D34B-4B45-A7E7-DD0BD6003E7B}" name="Column948"/>
-    <tableColumn id="949" xr3:uid="{1ED94163-2E37-F849-8598-69A46C580699}" name="Column949"/>
-    <tableColumn id="950" xr3:uid="{A960E904-9567-F04E-A720-396BCA7A9A2E}" name="Column950"/>
-    <tableColumn id="951" xr3:uid="{09CC9ADC-26B6-1C4A-AFB3-C069D1E83806}" name="Column951"/>
-    <tableColumn id="952" xr3:uid="{95650F53-967B-9546-8237-446B406CB343}" name="Column952"/>
-    <tableColumn id="953" xr3:uid="{010E1B37-AA11-5142-A4D4-1113C4824DE7}" name="Column953"/>
-    <tableColumn id="954" xr3:uid="{AA374DD6-DD29-E44F-92DB-607D8543332B}" name="Column954"/>
-    <tableColumn id="955" xr3:uid="{9AC589B2-65C6-664C-B9B5-2A7AB2C1BAC6}" name="Column955"/>
-    <tableColumn id="956" xr3:uid="{812E61F4-5DF9-614D-BEE6-6CD435B3E936}" name="Column956"/>
-    <tableColumn id="957" xr3:uid="{A3B72D3F-85C3-594F-ACDF-87CE7E2F5B89}" name="Column957"/>
-    <tableColumn id="958" xr3:uid="{718800E2-DD54-E04C-8C3B-0FEC71FCF77A}" name="Column958"/>
-    <tableColumn id="959" xr3:uid="{ED84BDBB-CA96-8D4C-A1C3-0257E898415A}" name="Column959"/>
-    <tableColumn id="960" xr3:uid="{77CD1E1F-DE96-8848-B49E-45E1259EC992}" name="Column960"/>
-    <tableColumn id="961" xr3:uid="{6909913E-85C0-254D-94AF-E902038AD9C5}" name="Column961"/>
-    <tableColumn id="962" xr3:uid="{29436D27-F771-6642-8B08-1C13EF21248E}" name="Column962"/>
-    <tableColumn id="963" xr3:uid="{0F4552A6-DC97-4243-8623-BF0FAF5F0CD1}" name="Column963"/>
-    <tableColumn id="964" xr3:uid="{12C3A3AC-3BB4-2745-AC77-07499F0611AC}" name="Column964"/>
-    <tableColumn id="965" xr3:uid="{C1C84FAC-8AFB-B34E-B55E-01C83BE3BCA7}" name="Column965"/>
-    <tableColumn id="966" xr3:uid="{B47450A2-7ABD-C04E-B60E-FAE3427FC155}" name="Column966"/>
-    <tableColumn id="967" xr3:uid="{119D4BF6-FB6E-244E-A06B-ACCDBDC51759}" name="Column967"/>
-    <tableColumn id="968" xr3:uid="{17F5A9ED-F712-0F4F-A6AF-6A597E13954E}" name="Column968"/>
-    <tableColumn id="969" xr3:uid="{ED8C4786-5BFB-2240-9CFB-55068937230F}" name="Column969"/>
-    <tableColumn id="970" xr3:uid="{F4CE96F7-BA8A-864E-926C-3C8C1489A06E}" name="Column970"/>
-    <tableColumn id="971" xr3:uid="{9FB09C76-620B-074E-A230-B550B5269977}" name="Column971"/>
-    <tableColumn id="972" xr3:uid="{5D40644B-86A5-414F-80ED-04C83436AA6F}" name="Column972"/>
-    <tableColumn id="973" xr3:uid="{E4F0BA56-9BCB-EF40-9DF8-1003BFFE91A5}" name="Column973"/>
-    <tableColumn id="974" xr3:uid="{A6A0B89D-7288-5D48-8788-880B08810FB1}" name="Column974"/>
-    <tableColumn id="975" xr3:uid="{C0876352-ABEC-1840-A207-A36EAB1168EB}" name="Column975"/>
-    <tableColumn id="976" xr3:uid="{8450698D-1270-F24E-A217-980F88E0A60E}" name="Column976"/>
-    <tableColumn id="977" xr3:uid="{9FE3EED9-AEE6-034B-A13A-24D67B1C0806}" name="Column977"/>
-    <tableColumn id="978" xr3:uid="{88D33FEC-FD22-DE4E-BDFF-4D2C0B53A3B1}" name="Column978"/>
-    <tableColumn id="979" xr3:uid="{5A77D3AD-DF69-FE43-9324-AA8065634F31}" name="Column979"/>
-    <tableColumn id="980" xr3:uid="{85579A35-19DF-C742-BA6F-C9DEAA7941E8}" name="Column980"/>
-    <tableColumn id="981" xr3:uid="{716F5AF6-8F49-8749-B69E-87B167A64DCE}" name="Column981"/>
-    <tableColumn id="982" xr3:uid="{DF82AA6A-962E-F74E-BF40-D6507FFF75B7}" name="Column982"/>
-    <tableColumn id="983" xr3:uid="{45E5F374-CC1C-9843-B637-EDCF88CF439A}" name="Column983"/>
-    <tableColumn id="984" xr3:uid="{9AE80D74-6571-AE43-A361-5E3C34E112D2}" name="Column984"/>
-    <tableColumn id="985" xr3:uid="{605FB7E5-715C-014F-93DA-1E3CA59CFC10}" name="Column985"/>
-    <tableColumn id="986" xr3:uid="{07291643-A27E-7D45-98E1-C4F4CE36C194}" name="Column986"/>
-    <tableColumn id="987" xr3:uid="{A10DCCAB-E7AC-2845-B9AB-3F3DB36506FA}" name="Column987"/>
-    <tableColumn id="988" xr3:uid="{50DE07BC-2175-6748-BA0E-7767F4F74B03}" name="Column988"/>
-    <tableColumn id="989" xr3:uid="{42B104C2-1D13-B640-8BBB-9B43FC34C78D}" name="Column989"/>
-    <tableColumn id="990" xr3:uid="{95FB7582-38D3-AE4C-9D3A-D037C553D7F9}" name="Column990"/>
-    <tableColumn id="991" xr3:uid="{07231243-245A-F04D-9477-07B4FD1BFF85}" name="Column991"/>
-    <tableColumn id="992" xr3:uid="{55C16D70-8C4F-4342-A4EE-CCE1B40AD7F2}" name="Column992"/>
-    <tableColumn id="993" xr3:uid="{37A96106-45DF-DE4F-81B8-3F3B20A3BD1D}" name="Column993"/>
-    <tableColumn id="994" xr3:uid="{ADC3DFC2-F51A-D745-9393-A6F0EF4E43EE}" name="Column994"/>
-    <tableColumn id="995" xr3:uid="{BCA062B1-1841-CF40-84C2-D8DDE0E0E984}" name="Column995"/>
-    <tableColumn id="996" xr3:uid="{15C21AE1-C4C5-B84D-AFD5-B4BD78AAF2CF}" name="Column996"/>
-    <tableColumn id="997" xr3:uid="{49DD93C3-46F2-2A44-9AF1-959D2ABF718F}" name="Column997"/>
-    <tableColumn id="998" xr3:uid="{A95454E0-79C0-9540-A6A3-FB634740D060}" name="Column998"/>
-    <tableColumn id="999" xr3:uid="{96506506-4047-F94B-8D7E-18ACD696535E}" name="Column999"/>
-    <tableColumn id="1000" xr3:uid="{4701D480-F2D0-9E4A-97F5-2244344ACB2D}" name="Column1000"/>
-    <tableColumn id="1001" xr3:uid="{0FCFE8D6-03A6-8D41-85FE-EA8EA85E9458}" name="Column1001"/>
-    <tableColumn id="1002" xr3:uid="{BD0D7A97-8163-8144-8FD3-3B2A57CF0AB1}" name="Column1002"/>
-    <tableColumn id="1003" xr3:uid="{1E77DB06-D06B-9F42-B830-5074E21D07F3}" name="Column1003"/>
-    <tableColumn id="1004" xr3:uid="{DE059049-4B11-A64C-B787-BE2FCFD7E0D4}" name="Column1004"/>
-    <tableColumn id="1005" xr3:uid="{AE8E92F0-526D-D54E-89BB-2A8330C662B6}" name="Column1005"/>
-    <tableColumn id="1006" xr3:uid="{E23331F5-D5AE-9947-99F8-D389F7D26F76}" name="Column1006"/>
-    <tableColumn id="1007" xr3:uid="{95EF3AD8-D6A4-3F4C-8AA0-938050540F79}" name="Column1007"/>
-    <tableColumn id="1008" xr3:uid="{BE051DC3-2550-D14F-9264-A8E4A9AF0EA9}" name="Column1008"/>
-    <tableColumn id="1009" xr3:uid="{7A22652A-EC5E-734D-9501-61EE7A4ED30B}" name="Column1009"/>
-    <tableColumn id="1010" xr3:uid="{3EC5B5C6-5BB6-354B-8BCC-BC8FB741CAAF}" name="Column1010"/>
-    <tableColumn id="1011" xr3:uid="{8C290615-6051-D446-9B11-EC1B98CBC827}" name="Column1011"/>
-    <tableColumn id="1012" xr3:uid="{754AE335-B188-804D-B89C-E9E882AC17E8}" name="Column1012"/>
-    <tableColumn id="1013" xr3:uid="{486F6DED-A722-8A4F-AB1B-1B61D1BF9EB9}" name="Column1013"/>
-    <tableColumn id="1014" xr3:uid="{9B8E758A-EA54-E448-8CCE-4B8358E1AF03}" name="Column1014"/>
-    <tableColumn id="1015" xr3:uid="{4514F211-0AA2-EC48-9559-36553C57BCCB}" name="Column1015"/>
-    <tableColumn id="1016" xr3:uid="{3E4BBCE3-C3C6-5949-ADB0-0469EFC60B6D}" name="Column1016"/>
-    <tableColumn id="1017" xr3:uid="{8BBAD8CF-8E0B-3940-B717-C69C5E4796FF}" name="Column1017"/>
+    <tableColumn id="1" xr3:uid="{370F1B25-4008-5945-A431-8B63220EE93F}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{0683EEF1-9A18-AF4E-BC04-72C82F86D64E}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{3E0209CD-1998-304E-B3AF-8F349AC0E711}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{C56F05B3-48D4-1140-B8B5-1C4392946EBA}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{90E4F063-E3FD-E84D-BE6B-2A618E7729B1}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{EE4D93B2-9D5C-7F4A-89FB-2F6BEF705B58}" name="Column6"/>
+    <tableColumn id="7" xr3:uid="{3E989D8B-F244-2A49-9B29-2E8C579CCD75}" name="Column7"/>
+    <tableColumn id="8" xr3:uid="{D02E0B74-6B3F-0C4D-AAA6-D45ED8118A08}" name="Column8"/>
+    <tableColumn id="9" xr3:uid="{F9E5115E-73FD-A441-A66F-B9C8B8374399}" name="Column9"/>
+    <tableColumn id="10" xr3:uid="{396D8D8C-71DA-244B-9A39-68E11EFA0C57}" name="Column10"/>
+    <tableColumn id="11" xr3:uid="{D80028B3-32CE-D547-A70E-B074D32ABFEA}" name="Column11"/>
+    <tableColumn id="12" xr3:uid="{7CC2719C-F223-BF4E-BD86-DA3BE5B63CFE}" name="Column12"/>
+    <tableColumn id="13" xr3:uid="{182ED5BA-A2E1-B94A-8338-31E38605339B}" name="Column13"/>
+    <tableColumn id="14" xr3:uid="{5D26CD80-47FB-0349-8AE2-2A83D5194EE2}" name="Column14"/>
+    <tableColumn id="15" xr3:uid="{9D47C278-C51F-624E-982A-8DD67D73BE5F}" name="Column15"/>
+    <tableColumn id="16" xr3:uid="{80F9FEA6-34D1-D149-9CBE-6460E754A406}" name="Column16"/>
+    <tableColumn id="17" xr3:uid="{6E0DB18D-29FD-6A4F-A268-C1942E77FA5E}" name="Column17"/>
+    <tableColumn id="18" xr3:uid="{A13AAF5B-0B08-CE4C-80B5-9EFB7C08362B}" name="Column18"/>
+    <tableColumn id="19" xr3:uid="{6A806420-B0B5-AF4F-824A-FD6711227ED3}" name="Column19"/>
+    <tableColumn id="20" xr3:uid="{9C17C6EE-F7CA-294F-B0EA-9E126ED81C90}" name="Column20"/>
+    <tableColumn id="21" xr3:uid="{6ED4F727-CA60-A644-AD05-C40FCC4E7F51}" name="Column21"/>
+    <tableColumn id="22" xr3:uid="{ED741EA2-2711-AD41-A364-7C512FAE2EC4}" name="Column22"/>
+    <tableColumn id="23" xr3:uid="{3ECACE4F-8536-0343-ABDA-6E08ECA6F03E}" name="Column23"/>
+    <tableColumn id="24" xr3:uid="{3A5086F4-6C7E-5E49-91D7-862576C1702C}" name="Column24"/>
+    <tableColumn id="25" xr3:uid="{2440AC19-3392-DC4C-B9F5-C8EA216E9403}" name="Column25"/>
+    <tableColumn id="26" xr3:uid="{B11F6CBF-2964-B54E-8F83-3BBD9AFCBD9A}" name="Column26"/>
+    <tableColumn id="27" xr3:uid="{405B3B3C-D387-FD4F-98AB-360FE26B94BD}" name="Column27"/>
+    <tableColumn id="28" xr3:uid="{5740B68C-5A50-DA48-932F-CFA2AAFE620A}" name="Column28"/>
+    <tableColumn id="29" xr3:uid="{90860AF5-67F1-0743-8DD0-04741049B714}" name="Column29"/>
+    <tableColumn id="30" xr3:uid="{0FC9361C-8E09-3F4D-8314-0A19DE05F279}" name="Column30"/>
+    <tableColumn id="31" xr3:uid="{425E1145-8F60-D244-B07C-B36424FC2FDB}" name="Column31"/>
+    <tableColumn id="32" xr3:uid="{3A53947A-C457-4442-AFE1-D22813671D51}" name="Column32"/>
+    <tableColumn id="33" xr3:uid="{D87D172D-CFE1-6544-B5BF-58EC27FF2CBC}" name="Column33"/>
+    <tableColumn id="34" xr3:uid="{B999A21A-B53E-694E-A6F5-2E6C02CD2416}" name="Column34"/>
+    <tableColumn id="35" xr3:uid="{565DC062-23AA-834C-8BCC-EC283AD225E7}" name="Column35"/>
+    <tableColumn id="36" xr3:uid="{F8D3FEC2-76E1-3549-8ED2-27F41B8C9740}" name="Column36"/>
+    <tableColumn id="37" xr3:uid="{89BA399B-CB03-BA4F-9145-8AF546DE7F4A}" name="Column37"/>
+    <tableColumn id="38" xr3:uid="{E170AB5B-797A-8641-852A-F21060E74A2C}" name="Column38"/>
+    <tableColumn id="39" xr3:uid="{562E56D1-7DAB-C846-8E8F-608FACEEE4B4}" name="Column39"/>
+    <tableColumn id="40" xr3:uid="{03B51A86-5CB8-C248-8474-48F9AB700EAA}" name="Column40"/>
+    <tableColumn id="41" xr3:uid="{ED105110-AD7A-064C-BCA7-647672747444}" name="Column41"/>
+    <tableColumn id="42" xr3:uid="{5CF030FD-4CB7-874F-96CF-BE0BBA4741EA}" name="Column42"/>
+    <tableColumn id="43" xr3:uid="{A56314B1-6227-E345-BD7F-5D756C619495}" name="Column43"/>
+    <tableColumn id="44" xr3:uid="{789669A5-9F41-FE46-B49F-FCC41D30E56A}" name="Column44"/>
+    <tableColumn id="45" xr3:uid="{E8559019-D841-7A4D-B56C-03F60E57AECA}" name="Column45"/>
+    <tableColumn id="46" xr3:uid="{3B1FBA5C-DD6C-D943-B477-629817A00B3E}" name="Column46"/>
+    <tableColumn id="47" xr3:uid="{A7EEEF22-7D90-1D47-8937-128835947566}" name="Column47"/>
+    <tableColumn id="48" xr3:uid="{5C98E234-F22E-F74B-9B36-66499C4DF44B}" name="Column48"/>
+    <tableColumn id="49" xr3:uid="{4CB66BD1-DBEC-9A4B-AFAA-35B56F1DA94E}" name="Column49"/>
+    <tableColumn id="50" xr3:uid="{9BCAF1E7-A6E0-1D41-A7AD-6BC316B6E260}" name="Column50"/>
+    <tableColumn id="51" xr3:uid="{76793398-27FF-B548-AF9D-1D5C86044C8A}" name="Column51"/>
+    <tableColumn id="52" xr3:uid="{7E904AD8-9D66-CB4A-AD95-BAA2241589E7}" name="Column52"/>
+    <tableColumn id="53" xr3:uid="{E27F683A-65C5-0140-9200-3161531BD876}" name="Column53"/>
+    <tableColumn id="54" xr3:uid="{B323402C-6047-3E41-B754-07A3E417983E}" name="Column54"/>
+    <tableColumn id="55" xr3:uid="{073B94D6-68DF-8947-BA75-37D187299FB6}" name="Column55"/>
+    <tableColumn id="56" xr3:uid="{5B4AF280-739A-5545-944B-DE1355093A0D}" name="Column56"/>
+    <tableColumn id="57" xr3:uid="{36F8C63C-8692-4642-8D69-5AFC7A14E4AF}" name="Column57"/>
+    <tableColumn id="58" xr3:uid="{68CB2F86-254B-834A-A761-3C77EBA83DDC}" name="Column58"/>
+    <tableColumn id="59" xr3:uid="{52AA5734-6EEB-2E48-9CFD-273FA04697F9}" name="Column59"/>
+    <tableColumn id="60" xr3:uid="{9D1138D7-75A9-0E49-8862-CEEFCBF8B3A7}" name="Column60"/>
+    <tableColumn id="61" xr3:uid="{A199B1A9-2342-2D4A-AD5D-C2C323F45703}" name="Column61"/>
+    <tableColumn id="62" xr3:uid="{42EE43D7-64D4-434E-8271-BD9B16D72A7C}" name="Column62"/>
+    <tableColumn id="63" xr3:uid="{A3045010-0C22-394F-8D1F-92B995F37F15}" name="Column63"/>
+    <tableColumn id="64" xr3:uid="{E1BA2F31-8735-694F-8EA3-320D04FEAF01}" name="Column64"/>
+    <tableColumn id="65" xr3:uid="{8885D76C-B38D-EC47-8A62-E5902D8E6B34}" name="Column65"/>
+    <tableColumn id="66" xr3:uid="{07EF937C-45AE-7449-A3D1-5C1B985A18D1}" name="Column66"/>
+    <tableColumn id="67" xr3:uid="{E97A796D-0D3D-BC45-B9C0-7782838CCB14}" name="Column67"/>
+    <tableColumn id="68" xr3:uid="{DC86B099-933A-B947-BE97-07166860A31D}" name="Column68"/>
+    <tableColumn id="69" xr3:uid="{03C9BED9-4E13-4E4E-89EC-AC3D3B6A14D4}" name="Column69"/>
+    <tableColumn id="70" xr3:uid="{C227B38B-4507-1748-85DC-BB220F42C7A2}" name="Column70"/>
+    <tableColumn id="71" xr3:uid="{3B2C4100-5616-BF4B-B3BD-477DBDFA48F3}" name="Column71"/>
+    <tableColumn id="72" xr3:uid="{17652550-31BC-4A42-8DDC-D90F4D2C2DA1}" name="Column72"/>
+    <tableColumn id="73" xr3:uid="{27DA08AB-F6D0-F949-B764-E5A2B405B311}" name="Column73"/>
+    <tableColumn id="74" xr3:uid="{ADC4B397-44D0-3F46-95B9-A8FEFB763BF9}" name="Column74"/>
+    <tableColumn id="75" xr3:uid="{D3BA6D0D-8D74-204C-8923-09D24F4B1115}" name="Column75"/>
+    <tableColumn id="76" xr3:uid="{610C4A4F-7881-BE46-AFDB-43C172725753}" name="Column76"/>
+    <tableColumn id="77" xr3:uid="{641EA2D5-F92A-B443-8088-A12F3A7C6E32}" name="Column77"/>
+    <tableColumn id="78" xr3:uid="{CC5A25F8-E52A-CC4F-9166-2EED7553C718}" name="Column78"/>
+    <tableColumn id="79" xr3:uid="{BF2A6AF1-B1D9-2B4E-A218-9B3D5F4A0DAB}" name="Column79"/>
+    <tableColumn id="80" xr3:uid="{156314BB-FAA1-9F4A-BCAB-15A2063D2F3E}" name="Column80"/>
+    <tableColumn id="81" xr3:uid="{5C79D5F2-9096-D34C-9025-021432A1D28C}" name="Column81"/>
+    <tableColumn id="82" xr3:uid="{1FF3472B-FCFB-D242-A406-33519C57F123}" name="Column82"/>
+    <tableColumn id="83" xr3:uid="{6E6549D5-2BB9-DF4B-8730-CC05FD23AFB4}" name="Column83"/>
+    <tableColumn id="84" xr3:uid="{CFB3FAE8-DFC9-A346-9648-C980DCA60C43}" name="Column84"/>
+    <tableColumn id="85" xr3:uid="{340E5BD5-2FF5-4B40-A8B3-65C45C6AE4D6}" name="Column85"/>
+    <tableColumn id="86" xr3:uid="{7C6AA622-897A-144E-BB14-B4A1A02CCE22}" name="Column86"/>
+    <tableColumn id="87" xr3:uid="{834C3BF7-73C7-CD4E-8A83-CD1536669FBF}" name="Column87"/>
+    <tableColumn id="88" xr3:uid="{64FC5457-8556-3045-94CD-FBB749393792}" name="Column88"/>
+    <tableColumn id="89" xr3:uid="{47F73309-C2FC-C149-96D2-26D5AE34CCAC}" name="Column89"/>
+    <tableColumn id="90" xr3:uid="{BD291FD5-8CB1-8845-AA0A-885AC3855D87}" name="Column90"/>
+    <tableColumn id="91" xr3:uid="{C7C01BBB-042A-EA49-BC5F-CF87C51E5B81}" name="Column91"/>
+    <tableColumn id="92" xr3:uid="{B53CF753-8996-1042-8147-AC8083A0C719}" name="Column92"/>
+    <tableColumn id="93" xr3:uid="{799788A2-90AC-9F4F-9AF5-45E1325EE83B}" name="Column93"/>
+    <tableColumn id="94" xr3:uid="{3D579627-24BE-D041-B74E-DD72CC8D9917}" name="Column94"/>
+    <tableColumn id="95" xr3:uid="{F5BF0572-E00F-A243-8ADB-93117521E76C}" name="Column95"/>
+    <tableColumn id="96" xr3:uid="{89008E75-9078-3D4D-9C3C-05971FCF3274}" name="Column96"/>
+    <tableColumn id="97" xr3:uid="{CBCBA410-0BEB-1648-BDD5-264454D2A6A8}" name="Column97"/>
+    <tableColumn id="98" xr3:uid="{E24C3B6E-01B2-DF40-AE0A-DF6705890AA5}" name="Column98"/>
+    <tableColumn id="99" xr3:uid="{FF930626-97FF-F34A-9461-0B38C0ADE3F4}" name="Column99"/>
+    <tableColumn id="100" xr3:uid="{336E01AF-4991-7C42-9B63-7B42B6F7EA9D}" name="Column100"/>
+    <tableColumn id="101" xr3:uid="{1CD25F5E-3C56-6F41-AFA7-EBAD72030B62}" name="Column101"/>
+    <tableColumn id="102" xr3:uid="{1B74DE96-2AAF-F946-906B-AA2710BDA83E}" name="Column102"/>
+    <tableColumn id="103" xr3:uid="{8D3DC4BB-5C9D-784A-B465-741440CDDDF7}" name="Column103"/>
+    <tableColumn id="104" xr3:uid="{50E048B1-2874-E443-937A-9D9B3A8B6226}" name="Column104"/>
+    <tableColumn id="105" xr3:uid="{20B685DE-9986-C34D-B102-E50777447CD0}" name="Column105"/>
+    <tableColumn id="106" xr3:uid="{AF030CEB-D306-004F-8FFF-7C29D59F1D3C}" name="Column106"/>
+    <tableColumn id="107" xr3:uid="{0BC75B17-4822-9E43-8CCA-8ACE2A552E3D}" name="Column107"/>
+    <tableColumn id="108" xr3:uid="{F001C49F-7B33-C24A-896D-66205D1B8929}" name="Column108"/>
+    <tableColumn id="109" xr3:uid="{B2B81CA6-0CB3-E84E-B7AF-0CD11159FDE6}" name="Column109"/>
+    <tableColumn id="110" xr3:uid="{353E9DE8-A6AE-A14E-972B-1535DE9EADA6}" name="Column110"/>
+    <tableColumn id="111" xr3:uid="{1888735C-80DD-4D4D-9B54-1D47F5B374DC}" name="Column111"/>
+    <tableColumn id="112" xr3:uid="{CC6B5032-2CDD-EA4C-9BAB-44FAE7808403}" name="Column112"/>
+    <tableColumn id="113" xr3:uid="{EAA35814-B7A9-2846-8C06-D9FB2CFAB991}" name="Column113"/>
+    <tableColumn id="114" xr3:uid="{06094FC5-B9E2-5E41-BD1C-3309EA662344}" name="Column114"/>
+    <tableColumn id="115" xr3:uid="{DB768209-7A47-D145-8C3E-36AEBFE73230}" name="Column115"/>
+    <tableColumn id="116" xr3:uid="{77F00A96-A98D-5644-8E4B-51B3C1FA464A}" name="Column116"/>
+    <tableColumn id="117" xr3:uid="{81E95202-F226-1C41-808E-9E4B1BE209B8}" name="Column117"/>
+    <tableColumn id="118" xr3:uid="{53F4579E-17C7-3B41-A2A2-3FA5FABAE678}" name="Column118"/>
+    <tableColumn id="119" xr3:uid="{CE690184-D769-C644-B1D9-3541255C65A1}" name="Column119"/>
+    <tableColumn id="120" xr3:uid="{D7DB77EC-FA69-5544-A081-C5DC3DB62211}" name="Column120"/>
+    <tableColumn id="121" xr3:uid="{264C05AC-E5AC-EA4E-89F4-6754E27D6CB9}" name="Column121"/>
+    <tableColumn id="122" xr3:uid="{58F30E5D-1345-6B49-8D49-E8E139ADBF2C}" name="Column122"/>
+    <tableColumn id="123" xr3:uid="{C2ECD3A7-17C7-C847-BD43-BACF253235CE}" name="Column123"/>
+    <tableColumn id="124" xr3:uid="{5787803A-F99A-BA44-81E0-7703702AA5FF}" name="Column124"/>
+    <tableColumn id="125" xr3:uid="{B3F29E23-07AF-4944-B4BA-3B0DB0BB1511}" name="Column125"/>
+    <tableColumn id="126" xr3:uid="{87237AF1-BE5F-C941-9286-12D40328A68B}" name="Column126"/>
+    <tableColumn id="127" xr3:uid="{2A41926E-F23A-7440-BBBB-0F7CA5660777}" name="Column127"/>
+    <tableColumn id="128" xr3:uid="{26389CB9-372F-A34A-8C95-4E98431E3FDE}" name="Column128"/>
+    <tableColumn id="129" xr3:uid="{25B6A0F5-B93F-704C-BDEF-3F69FA201C59}" name="Column129"/>
+    <tableColumn id="130" xr3:uid="{EC3C78E0-2B42-9D44-8F59-F1AE9D38682F}" name="Column130"/>
+    <tableColumn id="131" xr3:uid="{898A38A7-29BA-504B-9E75-F7B601141C3B}" name="Column131"/>
+    <tableColumn id="132" xr3:uid="{AF3523B8-9193-774A-8FCB-89D18C97BB78}" name="Column132"/>
+    <tableColumn id="133" xr3:uid="{50A8ABC6-B9A5-B040-B960-E15DD9AB884E}" name="Column133"/>
+    <tableColumn id="134" xr3:uid="{C715EF4A-DB90-054F-8C16-655BAD1EE2D4}" name="Column134"/>
+    <tableColumn id="135" xr3:uid="{CB0D23B1-8A54-B544-A5E3-5E9103CF9133}" name="Column135"/>
+    <tableColumn id="136" xr3:uid="{5734F34C-DB76-1A45-BF41-076CEB117185}" name="Column136"/>
+    <tableColumn id="137" xr3:uid="{86844596-52C9-A943-8885-D17E43A76C80}" name="Column137"/>
+    <tableColumn id="138" xr3:uid="{CED44041-69B9-474A-8A60-14BFEF7F87D6}" name="Column138"/>
+    <tableColumn id="139" xr3:uid="{3DA9C7EC-337D-4F45-8C2B-FD3274B503A0}" name="Column139"/>
+    <tableColumn id="140" xr3:uid="{1E40DFBD-622D-D742-AACD-2432CEB9F14D}" name="Column140"/>
+    <tableColumn id="141" xr3:uid="{EC1E25DD-540E-4745-8270-8169807112F6}" name="Column141"/>
+    <tableColumn id="142" xr3:uid="{8B9DE72D-DDE4-E048-BE71-304E6404C50B}" name="Column142"/>
+    <tableColumn id="143" xr3:uid="{88BD299B-571D-7445-BCAF-34019722E58D}" name="Column143"/>
+    <tableColumn id="144" xr3:uid="{1A2E3E86-99D2-1043-B548-D87EF4B19B60}" name="Column144"/>
+    <tableColumn id="145" xr3:uid="{47E6B759-0702-D24B-93EB-F3649EEE0EF2}" name="Column145"/>
+    <tableColumn id="146" xr3:uid="{8049B08B-B451-4A4B-A7DA-4176578EFCA0}" name="Column146"/>
+    <tableColumn id="147" xr3:uid="{9557DEE8-8C56-3946-9B8D-E354D1B1A1CC}" name="Column147"/>
+    <tableColumn id="148" xr3:uid="{53BAE849-F567-CC4A-87C2-6587FA66B414}" name="Column148"/>
+    <tableColumn id="149" xr3:uid="{EC95FC33-5B7F-1747-85E2-4C2176F912D3}" name="Column149"/>
+    <tableColumn id="150" xr3:uid="{B72FC473-5DFB-1E45-997E-00010506AE4E}" name="Column150"/>
+    <tableColumn id="151" xr3:uid="{DB192B06-D712-E74B-8C06-9B5E89AFE43A}" name="Column151"/>
+    <tableColumn id="152" xr3:uid="{8FB1A7A1-76C0-4B46-B35E-CF1E11282EA8}" name="Column152"/>
+    <tableColumn id="153" xr3:uid="{04610AA8-3AB5-7545-991C-27A621DFDD71}" name="Column153"/>
+    <tableColumn id="154" xr3:uid="{5C1078E0-E4D7-EB48-A35C-AA9A004647FF}" name="Column154"/>
+    <tableColumn id="155" xr3:uid="{4E1A204D-B0AC-E741-B9D7-1A97CAB0978C}" name="Column155"/>
+    <tableColumn id="156" xr3:uid="{3A4B9475-CFDF-AC4C-86ED-97B5C0E5159D}" name="Column156"/>
+    <tableColumn id="157" xr3:uid="{F8F69CFA-792F-4A42-83DE-7579D31C0D67}" name="Column157"/>
+    <tableColumn id="158" xr3:uid="{D78ED797-27B7-4C41-BDA5-EDC5B3DDFEC6}" name="Column158"/>
+    <tableColumn id="159" xr3:uid="{F3DCD3C0-8626-3B4A-8411-CB9E9FA63FF6}" name="Column159"/>
+    <tableColumn id="160" xr3:uid="{450E7964-12B8-7F4B-8113-380F3D40A83B}" name="Column160"/>
+    <tableColumn id="161" xr3:uid="{4CCC60E4-B1BD-6B42-9372-02CDCFB024EF}" name="Column161"/>
+    <tableColumn id="162" xr3:uid="{00911BFA-1EFC-8042-9538-BD310B54FC04}" name="Column162"/>
+    <tableColumn id="163" xr3:uid="{E52A81F6-C99B-BF45-BFCE-ACCEE96DFAD7}" name="Column163"/>
+    <tableColumn id="164" xr3:uid="{B87961B8-EE9D-B74D-95DF-1BDFAAD15EAB}" name="Column164"/>
+    <tableColumn id="165" xr3:uid="{06CC6166-6CA5-1C4C-9FEF-2CF184C8A99E}" name="Column165"/>
+    <tableColumn id="166" xr3:uid="{68E907E2-CB68-D745-AE3B-981210DA06F9}" name="Column166"/>
+    <tableColumn id="167" xr3:uid="{A790EF90-87D9-2E49-93E6-A073CBB927B0}" name="Column167"/>
+    <tableColumn id="168" xr3:uid="{94B324C7-1DEB-9749-9715-064F4F840892}" name="Column168"/>
+    <tableColumn id="169" xr3:uid="{0236AEC1-EBD1-3B41-BBF4-9B4B5A295A79}" name="Column169"/>
+    <tableColumn id="170" xr3:uid="{C624D718-09C0-7340-8C1E-E4920A5B5CA4}" name="Column170"/>
+    <tableColumn id="171" xr3:uid="{F67085AF-C162-9B47-B0E9-C38912A1E8FD}" name="Column171"/>
+    <tableColumn id="172" xr3:uid="{F3AF58BE-92E4-2345-99EE-9BA9F6C44A2D}" name="Column172"/>
+    <tableColumn id="173" xr3:uid="{91148670-8433-E345-8FE7-00D4B2A80438}" name="Column173"/>
+    <tableColumn id="174" xr3:uid="{3E069DE7-B028-EA4C-BD66-E009B125B03D}" name="Column174"/>
+    <tableColumn id="175" xr3:uid="{96D6C912-2585-684A-AB8F-647B6924114B}" name="Column175"/>
+    <tableColumn id="176" xr3:uid="{4D8964E9-7D44-7541-9732-8D7E57C2CD76}" name="Column176"/>
+    <tableColumn id="177" xr3:uid="{6B31592E-50FC-2548-B4C8-658BC1F12CF2}" name="Column177"/>
+    <tableColumn id="178" xr3:uid="{D12F4B73-9B1B-084A-A029-F6AD0D67BD38}" name="Column178"/>
+    <tableColumn id="179" xr3:uid="{732FBBE3-2E63-404D-AE5D-4D53D38567BE}" name="Column179"/>
+    <tableColumn id="180" xr3:uid="{59206C23-17F1-AD41-A354-531B8F3D1037}" name="Column180"/>
+    <tableColumn id="181" xr3:uid="{4AC32751-9FF2-C440-BB7D-A73650261110}" name="Column181"/>
+    <tableColumn id="182" xr3:uid="{8E065BD1-7CF3-3B4B-937D-52D97F6707F3}" name="Column182"/>
+    <tableColumn id="183" xr3:uid="{369F40A0-E2D1-FC47-A66F-47EA2F0B23AD}" name="Column183"/>
+    <tableColumn id="184" xr3:uid="{719C294A-D480-4441-A43C-B5B4039E4BE0}" name="Column184"/>
+    <tableColumn id="185" xr3:uid="{C496655B-41CB-8946-A4E4-69A0A965A5C6}" name="Column185"/>
+    <tableColumn id="186" xr3:uid="{1842090C-2796-EB45-AC2E-FFF44E6B521F}" name="Column186"/>
+    <tableColumn id="187" xr3:uid="{0BBE3872-2BB9-C34D-AB51-2590E7D82F0A}" name="Column187"/>
+    <tableColumn id="188" xr3:uid="{E6A8BC40-64CE-B34F-80B5-77EB81277309}" name="Column188"/>
+    <tableColumn id="189" xr3:uid="{B8D37DD3-394C-D44B-A62C-B6CE0A257D5F}" name="Column189"/>
+    <tableColumn id="190" xr3:uid="{2E1F3BAC-6329-C048-B32D-B3BCA4C208AA}" name="Column190"/>
+    <tableColumn id="191" xr3:uid="{CA380CF9-7136-8F4C-A6AE-D966D99FB2E7}" name="Column191"/>
+    <tableColumn id="192" xr3:uid="{BB31AD52-8ECE-4943-A490-A7998D63640D}" name="Column192"/>
+    <tableColumn id="193" xr3:uid="{5AD39663-D73C-2F43-AB7B-4F78AC08AB30}" name="Column193"/>
+    <tableColumn id="194" xr3:uid="{41DAEBEE-8ED7-724C-BDFB-8BAEE7B71F11}" name="Column194"/>
+    <tableColumn id="195" xr3:uid="{91BC3C65-25EE-3547-AD4F-21DE10515EAE}" name="Column195"/>
+    <tableColumn id="196" xr3:uid="{6DD9E448-CFAA-254B-B089-291913DC9428}" name="Column196"/>
+    <tableColumn id="197" xr3:uid="{02995361-E418-154A-95CA-99C7A495F286}" name="Column197"/>
+    <tableColumn id="198" xr3:uid="{A7F64A1E-D8E5-584C-A8AD-B8D9AE9250BE}" name="Column198"/>
+    <tableColumn id="199" xr3:uid="{36E7DE93-C29B-8D4C-A5E5-6F3281209054}" name="Column199"/>
+    <tableColumn id="200" xr3:uid="{944C4347-6A32-6E43-AC21-976B9DEFA9C3}" name="Column200"/>
+    <tableColumn id="201" xr3:uid="{4A6F2785-3B05-5D43-A44E-222C13F4585B}" name="Column201"/>
+    <tableColumn id="202" xr3:uid="{DA848235-91F0-3C45-87BA-45301ACE015A}" name="Column202"/>
+    <tableColumn id="203" xr3:uid="{AA495EFD-8DF8-1146-92D2-B69F0E4E99C9}" name="Column203"/>
+    <tableColumn id="204" xr3:uid="{47250FF9-46AE-D449-AC2E-C9A877E1A9B5}" name="Column204"/>
+    <tableColumn id="205" xr3:uid="{E1CDBD44-789F-4D4D-8E59-4F9CFD1C38CB}" name="Column205"/>
+    <tableColumn id="206" xr3:uid="{73E3A6C8-C341-9A43-A91C-5986B9325F71}" name="Column206"/>
+    <tableColumn id="207" xr3:uid="{18A1B5CE-8CE5-F645-ADA1-653F8921CEBE}" name="Column207"/>
+    <tableColumn id="208" xr3:uid="{49008591-69CD-9940-9702-21E9E4284036}" name="Column208"/>
+    <tableColumn id="209" xr3:uid="{BABD36C8-411F-6F41-A466-3820F3739CC4}" name="Column209"/>
+    <tableColumn id="210" xr3:uid="{A690567C-BFC1-9349-8C50-F56FA7444FD8}" name="Column210"/>
+    <tableColumn id="211" xr3:uid="{D7F7E5B0-B5B5-9045-9A29-10C6767CD3FF}" name="Column211"/>
+    <tableColumn id="212" xr3:uid="{BF3A5EE3-3263-5049-AF29-4D3C5821D2F2}" name="Column212"/>
+    <tableColumn id="213" xr3:uid="{C0B003F2-D96C-BC4B-B75F-8F799C9598FE}" name="Column213"/>
+    <tableColumn id="214" xr3:uid="{18CD0F47-0997-E043-AA61-28DAB17C359F}" name="Column214"/>
+    <tableColumn id="215" xr3:uid="{64F4429F-73F3-4342-8441-283E81D99EDA}" name="Column215"/>
+    <tableColumn id="216" xr3:uid="{DBBC673C-0CCC-D24F-95A2-6C5036CBE8B7}" name="Column216"/>
+    <tableColumn id="217" xr3:uid="{47849772-4089-4E4A-AADC-22802C1F7F9A}" name="Column217"/>
+    <tableColumn id="218" xr3:uid="{ABADE90E-4775-1C4E-945B-B169A7B0DB69}" name="Column218"/>
+    <tableColumn id="219" xr3:uid="{12B65406-81C1-8243-87CE-5EFF2F109BAB}" name="Column219"/>
+    <tableColumn id="220" xr3:uid="{B1483E93-9986-824C-86CC-F7355FE45ED6}" name="Column220"/>
+    <tableColumn id="221" xr3:uid="{4917069E-E685-9A46-932F-B8648B8E7D99}" name="Column221"/>
+    <tableColumn id="222" xr3:uid="{3246F99F-6ED1-CB4D-8B9A-3830E423CE13}" name="Column222"/>
+    <tableColumn id="223" xr3:uid="{F5C3E308-8C7D-854E-9CEA-622F8CC50AD6}" name="Column223"/>
+    <tableColumn id="224" xr3:uid="{915DA95E-71D3-824B-8004-886F73FF205B}" name="Column224"/>
+    <tableColumn id="225" xr3:uid="{E9E80701-ED07-8E45-8AA3-E7AD9C1421C4}" name="Column225"/>
+    <tableColumn id="226" xr3:uid="{D9F627F5-5C48-664C-B2B6-63A89E17CF88}" name="Column226"/>
+    <tableColumn id="227" xr3:uid="{5A052432-810D-224B-A521-DA2EC46F7A77}" name="Column227"/>
+    <tableColumn id="228" xr3:uid="{CBA752D9-31ED-4748-9F24-3F6E2186A23F}" name="Column228"/>
+    <tableColumn id="229" xr3:uid="{E9CD61B1-84C3-E443-9D37-A76AE4C1B1C5}" name="Column229"/>
+    <tableColumn id="230" xr3:uid="{1A8FA0CC-A4AC-D444-9169-77DC4930586D}" name="Column230"/>
+    <tableColumn id="231" xr3:uid="{BB81D168-20DB-4E4B-9100-0A71BA575FDD}" name="Column231"/>
+    <tableColumn id="232" xr3:uid="{C51B39F0-6A25-7145-8C71-982DDF44526A}" name="Column232"/>
+    <tableColumn id="233" xr3:uid="{76FF7592-3CA1-F346-9EAD-F56136FF37E9}" name="Column233"/>
+    <tableColumn id="234" xr3:uid="{99C0E7BE-9976-C54E-A3C5-C38E228F7326}" name="Column234"/>
+    <tableColumn id="235" xr3:uid="{50209C76-9B17-6F46-93A6-953A8B6C16DC}" name="Column235"/>
+    <tableColumn id="236" xr3:uid="{D0341490-32E1-BD40-99D6-3803192922A9}" name="Column236"/>
+    <tableColumn id="237" xr3:uid="{90A839E6-8CC7-A847-BF09-EE7AA943447A}" name="Column237"/>
+    <tableColumn id="238" xr3:uid="{2D9973A5-7EEC-9747-B03A-5FFB6F49EFE3}" name="Column238"/>
+    <tableColumn id="239" xr3:uid="{1BF16632-0388-B444-B215-53F4468D3A13}" name="Column239"/>
+    <tableColumn id="240" xr3:uid="{6805E634-56BD-0C4D-9364-A6DEB43C881C}" name="Column240"/>
+    <tableColumn id="241" xr3:uid="{5595AF54-77A2-D24B-9471-1D6B301CBFB6}" name="Column241"/>
+    <tableColumn id="242" xr3:uid="{0D7E3A63-8485-8649-9F5A-68B0BA674BCF}" name="Column242"/>
+    <tableColumn id="243" xr3:uid="{CDB2C51A-8DBB-5E4B-8784-3CB4F87C68BF}" name="Column243"/>
+    <tableColumn id="244" xr3:uid="{11DFC1CD-3EE9-9648-AD3A-3364F2FBB5C2}" name="Column244"/>
+    <tableColumn id="245" xr3:uid="{1E849604-FA62-6340-89AB-17CB635A507E}" name="Column245"/>
+    <tableColumn id="246" xr3:uid="{A594300A-6F70-284F-B767-B1200EBBDC48}" name="Column246"/>
+    <tableColumn id="247" xr3:uid="{07D9CE5C-38FD-C047-B5D7-0DAB3E1F1923}" name="Column247"/>
+    <tableColumn id="248" xr3:uid="{2B412560-F74B-DD44-9851-FE098EAEB616}" name="Column248"/>
+    <tableColumn id="249" xr3:uid="{2EBA3AF3-636E-1440-982C-0BC1CAD4205D}" name="Column249"/>
+    <tableColumn id="250" xr3:uid="{8DEE5B65-A9FC-214D-BC13-75B615E08D0B}" name="Column250"/>
+    <tableColumn id="251" xr3:uid="{3FF49DCF-F478-7A42-BC21-267E4BBA667C}" name="Column251"/>
+    <tableColumn id="252" xr3:uid="{0BD35EC8-B133-4A4B-AD36-52A2C2C943D8}" name="Column252"/>
+    <tableColumn id="253" xr3:uid="{5A8D2D13-4B86-6D44-B572-12564B0244E0}" name="Column253"/>
+    <tableColumn id="254" xr3:uid="{8D3C2A30-628F-E64C-8131-FD8EEBDF2A21}" name="Column254"/>
+    <tableColumn id="255" xr3:uid="{03B599C6-D963-CE48-8D1A-ACD6A999AA6A}" name="Column255"/>
+    <tableColumn id="256" xr3:uid="{452FA1AD-3AE8-2D49-A23A-3C97FE9A5D83}" name="Column256"/>
+    <tableColumn id="257" xr3:uid="{F9421258-E05D-6748-B2A9-B36117D54D7B}" name="Column257"/>
+    <tableColumn id="258" xr3:uid="{05BB5E5E-D467-0641-8DC9-2DD7AF40BBFE}" name="Column258"/>
+    <tableColumn id="259" xr3:uid="{21CD84A8-0C7F-3D40-B676-CE1809F4378B}" name="Column259"/>
+    <tableColumn id="260" xr3:uid="{41B7F68E-F443-8C4A-981F-23E981963AA1}" name="Column260"/>
+    <tableColumn id="261" xr3:uid="{3D6531A7-7241-444B-B8C4-7452918BD61B}" name="Column261"/>
+    <tableColumn id="262" xr3:uid="{2D3EBFB8-0704-924F-8A71-A13AC3E08A37}" name="Column262"/>
+    <tableColumn id="263" xr3:uid="{63671827-7DB4-BD45-B12D-9CD1DD806810}" name="Column263"/>
+    <tableColumn id="264" xr3:uid="{87E9A2F8-2C99-984F-908F-8546967B1D01}" name="Column264"/>
+    <tableColumn id="265" xr3:uid="{AC5D9227-C650-D14B-9FDF-2EDB60FEE146}" name="Column265"/>
+    <tableColumn id="266" xr3:uid="{1D8A4DFA-0990-AB4D-9C5F-FFEF317B810D}" name="Column266"/>
+    <tableColumn id="267" xr3:uid="{663131BA-2D22-6446-A6B9-8D6DE159D9B4}" name="Column267"/>
+    <tableColumn id="268" xr3:uid="{028931CD-3976-254D-9321-A13522543D17}" name="Column268"/>
+    <tableColumn id="269" xr3:uid="{611265E6-BA94-E44E-A69D-CAF0F73818B0}" name="Column269"/>
+    <tableColumn id="270" xr3:uid="{DF0E5F14-59BE-FA44-A941-4AAB8F552E59}" name="Column270"/>
+    <tableColumn id="271" xr3:uid="{1E31C55D-90B5-8A4A-B8EC-9F723C134FAC}" name="Column271"/>
+    <tableColumn id="272" xr3:uid="{1F99241B-6563-6047-B17A-C2448C02B968}" name="Column272"/>
+    <tableColumn id="273" xr3:uid="{4587F8C6-4F4D-1047-B3FF-CB82CFDFF3EB}" name="Column273"/>
+    <tableColumn id="274" xr3:uid="{402D3446-8A58-6243-A209-1FAF8F7CB9B6}" name="Column274"/>
+    <tableColumn id="275" xr3:uid="{76303CA6-45A6-6A47-89B7-B6B61422FFEE}" name="Column275"/>
+    <tableColumn id="276" xr3:uid="{6BE39961-BA3F-A44F-B1BF-C64190AD5A67}" name="Column276"/>
+    <tableColumn id="277" xr3:uid="{EEAA0A6F-A2F7-2143-BBB1-619B501F1B9D}" name="Column277"/>
+    <tableColumn id="278" xr3:uid="{8C2707E6-9008-3849-8481-D9CB180749C4}" name="Column278"/>
+    <tableColumn id="279" xr3:uid="{F0A609D7-AF3A-A14B-922D-D8E378DDF046}" name="Column279"/>
+    <tableColumn id="280" xr3:uid="{057C7D1A-83C4-D84E-939E-5BABD5B02328}" name="Column280"/>
+    <tableColumn id="281" xr3:uid="{9AAE3C1E-ACF9-BD48-B847-795E7DE4D365}" name="Column281"/>
+    <tableColumn id="282" xr3:uid="{744E2C12-8FBB-E343-A455-8D16CBE47A4B}" name="Column282"/>
+    <tableColumn id="283" xr3:uid="{88BB733D-B5DB-9B4E-86D2-EF697F005675}" name="Column283"/>
+    <tableColumn id="284" xr3:uid="{4908C1BC-1E9B-6E40-BA15-F6EA94E675CD}" name="Column284"/>
+    <tableColumn id="285" xr3:uid="{B27148F6-416C-D442-A2CD-1DAD66E37D5E}" name="Column285"/>
+    <tableColumn id="286" xr3:uid="{46AB778A-1198-CA4E-8DD3-64D0E0EC6F75}" name="Column286"/>
+    <tableColumn id="287" xr3:uid="{520D78F9-51A9-3341-80D4-47AD1F3C4E8F}" name="Column287"/>
+    <tableColumn id="288" xr3:uid="{68A47281-54D6-CB46-B413-63867BCAB9D4}" name="Column288"/>
+    <tableColumn id="289" xr3:uid="{914ACB63-DADC-7C43-B302-2A597ACB6926}" name="Column289"/>
+    <tableColumn id="290" xr3:uid="{E9048FDE-523B-1A46-9ADC-3CF420EA04B9}" name="Column290"/>
+    <tableColumn id="291" xr3:uid="{2C574FFB-0831-6748-8CE4-DCB9C76011DC}" name="Column291"/>
+    <tableColumn id="292" xr3:uid="{C283476C-CC7E-A34F-A7FE-1F7555D4E235}" name="Column292"/>
+    <tableColumn id="293" xr3:uid="{0A8E1D15-0C09-F647-80ED-DE565859C657}" name="Column293"/>
+    <tableColumn id="294" xr3:uid="{1E639E41-3E67-B74F-9351-D4E4005324C5}" name="Column294"/>
+    <tableColumn id="295" xr3:uid="{CFEC5F52-EE52-0D4D-AEE6-5C6C9C150E52}" name="Column295"/>
+    <tableColumn id="296" xr3:uid="{166DE169-DD47-4947-8FFF-03E34A9864A4}" name="Column296"/>
+    <tableColumn id="297" xr3:uid="{A12A9CFB-6975-E542-B28F-12ECEAA8BE6B}" name="Column297"/>
+    <tableColumn id="298" xr3:uid="{A10C3D37-EBF1-9F40-88EC-DBCA7C2C8DB1}" name="Column298"/>
+    <tableColumn id="299" xr3:uid="{365BED9E-9477-5344-99CE-F7402B9F4DC0}" name="Column299"/>
+    <tableColumn id="300" xr3:uid="{9F1F9B21-D4A3-634A-8C42-B2F15074D408}" name="Column300"/>
+    <tableColumn id="301" xr3:uid="{0F43BDE3-3A47-5849-A1E4-D169B301E384}" name="Column301"/>
+    <tableColumn id="302" xr3:uid="{675AA4EC-3F3F-3A42-A334-7896D36951EF}" name="Column302"/>
+    <tableColumn id="303" xr3:uid="{4493BF43-D1D6-2041-803E-D5AB23354D97}" name="Column303"/>
+    <tableColumn id="304" xr3:uid="{91EEF4DC-7502-D040-B424-67B1178DFF9F}" name="Column304"/>
+    <tableColumn id="305" xr3:uid="{C5476074-E27A-1A44-8084-297A4C305EFB}" name="Column305"/>
+    <tableColumn id="306" xr3:uid="{DA26A9E1-8D1E-C646-AF5C-99A7BE5FB948}" name="Column306"/>
+    <tableColumn id="307" xr3:uid="{8D4D982B-EF58-2A42-8CCF-7C83595D4F0B}" name="Column307"/>
+    <tableColumn id="308" xr3:uid="{727790E0-9881-9B43-A274-B1C92AC4CDD3}" name="Column308"/>
+    <tableColumn id="309" xr3:uid="{196E9C5E-E787-6B44-8FAE-0B276E19093D}" name="Column309"/>
+    <tableColumn id="310" xr3:uid="{B4BDB80A-2E99-7040-9413-D53E122A3219}" name="Column310"/>
+    <tableColumn id="311" xr3:uid="{62B10934-C438-F740-93A5-656EF80D2FE8}" name="Column311"/>
+    <tableColumn id="312" xr3:uid="{0447073B-3A3E-3642-BE9B-ACF1E2F2379E}" name="Column312"/>
+    <tableColumn id="313" xr3:uid="{2C3A30A3-7DF8-484D-BB61-6FD238C18220}" name="Column313"/>
+    <tableColumn id="314" xr3:uid="{4E71F852-BFBB-4C4C-9E0C-E033C4CD261F}" name="Column314"/>
+    <tableColumn id="315" xr3:uid="{9CFA5A77-A8CC-CE41-A398-7FEE4DA08A76}" name="Column315"/>
+    <tableColumn id="316" xr3:uid="{783E729F-C107-B841-8513-29D99B1DA67C}" name="Column316"/>
+    <tableColumn id="317" xr3:uid="{F09489D1-BBF9-7847-A50E-EAB60F23307A}" name="Column317"/>
+    <tableColumn id="318" xr3:uid="{6C104AD0-8B5F-5B42-87BA-368070403697}" name="Column318"/>
+    <tableColumn id="319" xr3:uid="{F790731F-DE13-BD45-B932-C49B4455A331}" name="Column319"/>
+    <tableColumn id="320" xr3:uid="{F8F33988-FA33-5F46-9C1D-4C1B9E755060}" name="Column320"/>
+    <tableColumn id="321" xr3:uid="{96B48264-906E-E54F-B192-3E8B3973807C}" name="Column321"/>
+    <tableColumn id="322" xr3:uid="{616BC81C-CDE0-6142-A347-191BF4DB95C3}" name="Column322"/>
+    <tableColumn id="323" xr3:uid="{6E5E5488-5BAC-C845-84BE-ACAFEF121C3D}" name="Column323"/>
+    <tableColumn id="324" xr3:uid="{A22C57DB-28E9-1648-AB5A-42D49E3739CA}" name="Column324"/>
+    <tableColumn id="325" xr3:uid="{16CA7818-99A0-E34C-8C8A-D85316A732F0}" name="Column325"/>
+    <tableColumn id="326" xr3:uid="{9DA4F0B3-040E-DB42-8ABB-BE5D75593078}" name="Column326"/>
+    <tableColumn id="327" xr3:uid="{BEBA5E4C-E01F-8648-BD7A-BB12082DEBDC}" name="Column327"/>
+    <tableColumn id="328" xr3:uid="{F3CA2FDD-9C86-4E44-933D-F7BE3612FC1F}" name="Column328"/>
+    <tableColumn id="329" xr3:uid="{3300C5F8-1280-7641-839D-2F06A2811D67}" name="Column329"/>
+    <tableColumn id="330" xr3:uid="{EB1C2B1A-A6C4-074C-8EB5-4E97CBD9BBE0}" name="Column330"/>
+    <tableColumn id="331" xr3:uid="{C5CCB650-2538-514A-AA7E-49DBDFD359ED}" name="Column331"/>
+    <tableColumn id="332" xr3:uid="{C0845E63-A0F3-C04B-BE8C-0DE76DCDA8CC}" name="Column332"/>
+    <tableColumn id="333" xr3:uid="{48878390-A128-2746-AF5C-03DEBB7CC8CC}" name="Column333"/>
+    <tableColumn id="334" xr3:uid="{2BDE4036-C7C8-5244-BCB0-2AC47473F9D1}" name="Column334"/>
+    <tableColumn id="335" xr3:uid="{C40F590F-FB78-C24C-9FEE-3B590DD28E0A}" name="Column335"/>
+    <tableColumn id="336" xr3:uid="{408B5BA7-5E67-AF44-A5EC-740E9C20BA47}" name="Column336"/>
+    <tableColumn id="337" xr3:uid="{28C28624-9922-794C-92B0-5E15B406DD4D}" name="Column337"/>
+    <tableColumn id="338" xr3:uid="{D523B0A6-370F-1643-8B9B-3283AC08AE70}" name="Column338"/>
+    <tableColumn id="339" xr3:uid="{853F06B2-527E-F948-A851-64EB1E88377E}" name="Column339"/>
+    <tableColumn id="340" xr3:uid="{04457D8B-0607-9D4A-97F2-1B7EF687EEA7}" name="Column340"/>
+    <tableColumn id="341" xr3:uid="{F830FF1B-59DD-244E-9C19-8096F91FFB36}" name="Column341"/>
+    <tableColumn id="342" xr3:uid="{58B71ACE-37FC-1246-8753-6CD6E312ED52}" name="Column342"/>
+    <tableColumn id="343" xr3:uid="{A2BB6525-533C-A642-90F4-C7E5B7F616E6}" name="Column343"/>
+    <tableColumn id="344" xr3:uid="{954C11BD-2672-454E-B2F9-2590F62748FE}" name="Column344"/>
+    <tableColumn id="345" xr3:uid="{C4EDDC28-A7DC-544A-ADFF-C96FB0F7C3FE}" name="Column345"/>
+    <tableColumn id="346" xr3:uid="{89A5E65E-2582-F44A-A2D2-3B6E048A07BA}" name="Column346"/>
+    <tableColumn id="347" xr3:uid="{55BB770B-F5BF-2D4F-B92C-65ECBE19F48E}" name="Column347"/>
+    <tableColumn id="348" xr3:uid="{E18B22CE-0526-984B-8131-621BE8712B01}" name="Column348"/>
+    <tableColumn id="349" xr3:uid="{BFB48FA5-FA2E-DA48-95B7-A60411E1C0FA}" name="Column349"/>
+    <tableColumn id="350" xr3:uid="{5B9DD8B2-302C-A94C-89A2-EB243777E875}" name="Column350"/>
+    <tableColumn id="351" xr3:uid="{D8F17C56-08ED-F244-9212-8B8D68BE9191}" name="Column351"/>
+    <tableColumn id="352" xr3:uid="{797D68EE-B81D-114F-AB03-75C820CD147B}" name="Column352"/>
+    <tableColumn id="353" xr3:uid="{1A76E79A-E559-3F4E-A234-F5B02661212B}" name="Column353"/>
+    <tableColumn id="354" xr3:uid="{DCA3D810-B16F-4B4E-BC7D-69E2109F0DC1}" name="Column354"/>
+    <tableColumn id="355" xr3:uid="{28DAC682-4BEB-D849-89BC-F20B523634B5}" name="Column355"/>
+    <tableColumn id="356" xr3:uid="{98686B1B-15DF-0E46-AC91-CAA14F9479DB}" name="Column356"/>
+    <tableColumn id="357" xr3:uid="{0D2048D6-FF66-274E-A9ED-78AA75C264FC}" name="Column357"/>
+    <tableColumn id="358" xr3:uid="{75D69F96-551E-124B-B1A6-55636AA80AE8}" name="Column358"/>
+    <tableColumn id="359" xr3:uid="{9243234E-E290-7F49-90ED-35F86BCB7971}" name="Column359"/>
+    <tableColumn id="360" xr3:uid="{4C38EDEC-7DB9-5B4B-A474-CC182100B750}" name="Column360"/>
+    <tableColumn id="361" xr3:uid="{2AF5DD63-DDC9-5E4D-A58C-202AB4FD22E5}" name="Column361"/>
+    <tableColumn id="362" xr3:uid="{810A6591-2054-B348-9FDB-E9CF8F0B1DD0}" name="Column362"/>
+    <tableColumn id="363" xr3:uid="{EA6DD022-8B70-664E-A6F7-42D4A6F95DDE}" name="Column363"/>
+    <tableColumn id="364" xr3:uid="{60C34BC1-CDC1-8B4D-9264-2521E7F04536}" name="Column364"/>
+    <tableColumn id="365" xr3:uid="{28FF4674-50C8-2F49-BC0B-4462C6FD1365}" name="Column365"/>
+    <tableColumn id="366" xr3:uid="{B8E0EB94-A669-1345-AA5D-F3F532C60092}" name="Column366"/>
+    <tableColumn id="367" xr3:uid="{177261AA-A6DC-104C-9080-83835B3771BD}" name="Column367"/>
+    <tableColumn id="368" xr3:uid="{A2EFFEF6-ABAD-2248-8EEF-885CB6947C7A}" name="Column368"/>
+    <tableColumn id="369" xr3:uid="{C15EF897-C72A-7546-87DC-F866F6B8D5BC}" name="Column369"/>
+    <tableColumn id="370" xr3:uid="{1F373CE9-4E61-3845-B2AC-9894A0C3F36F}" name="Column370"/>
+    <tableColumn id="371" xr3:uid="{BC5920AF-FD4D-8149-91E9-12441257C669}" name="Column371"/>
+    <tableColumn id="372" xr3:uid="{B0D93103-BFA4-9845-A216-D27A2CAC5BDD}" name="Column372"/>
+    <tableColumn id="373" xr3:uid="{3EB70818-AA7B-4544-8204-D929B6ABA550}" name="Column373"/>
+    <tableColumn id="374" xr3:uid="{4E16D69D-B18B-384F-AB90-C87C2E00A6A3}" name="Column374"/>
+    <tableColumn id="375" xr3:uid="{B6D6EA59-95AD-514C-9622-AEE01AD008D1}" name="Column375"/>
+    <tableColumn id="376" xr3:uid="{EABAAC75-8377-DC45-8B23-44E34917506D}" name="Column376"/>
+    <tableColumn id="377" xr3:uid="{7FD689E4-E87E-9041-BBFE-2CFBA0C86664}" name="Column377"/>
+    <tableColumn id="378" xr3:uid="{14AC7857-A64E-264F-93A0-442D49FE8AFC}" name="Column378"/>
+    <tableColumn id="379" xr3:uid="{5479C471-E0D5-3945-8969-BDA0949AA80F}" name="Column379"/>
+    <tableColumn id="380" xr3:uid="{091D6297-DAEF-4140-88F5-765766CCFE26}" name="Column380"/>
+    <tableColumn id="381" xr3:uid="{56A2807A-59BE-8741-AAAC-EE94FB5438E5}" name="Column381"/>
+    <tableColumn id="382" xr3:uid="{CCD8618D-8D90-E54A-8BD4-F830BE0E8633}" name="Column382"/>
+    <tableColumn id="383" xr3:uid="{ADC65785-C629-5C43-9702-26F8C25274A9}" name="Column383"/>
+    <tableColumn id="384" xr3:uid="{49DCE8ED-23BD-AB40-A281-89DEC6541D06}" name="Column384"/>
+    <tableColumn id="385" xr3:uid="{6BC2B6A9-D9D4-FF43-B389-F55328ED3FFF}" name="Column385"/>
+    <tableColumn id="386" xr3:uid="{96A7F98E-8A27-F145-B30E-95AB4FB5FCC0}" name="Column386"/>
+    <tableColumn id="387" xr3:uid="{FD44EA2A-7A21-2549-AF60-A0A9A100F6F0}" name="Column387"/>
+    <tableColumn id="388" xr3:uid="{ED3F922F-92AC-9148-941E-F3B2DC2A3523}" name="Column388"/>
+    <tableColumn id="389" xr3:uid="{1DC34731-9329-D644-B83F-518B79A1A54E}" name="Column389"/>
+    <tableColumn id="390" xr3:uid="{E6F997C1-EC0A-EA48-88E5-39CB2AB2306C}" name="Column390"/>
+    <tableColumn id="391" xr3:uid="{72264512-6728-1241-8A62-539A8F1BF177}" name="Column391"/>
+    <tableColumn id="392" xr3:uid="{44AD3B09-D655-EC4F-8BDB-24DA82DD52A2}" name="Column392"/>
+    <tableColumn id="393" xr3:uid="{3281AAFF-0A0F-0A43-A8F4-D5B4C195B097}" name="Column393"/>
+    <tableColumn id="394" xr3:uid="{F464C80F-10D3-5B4E-9103-5D3F8DEBFE27}" name="Column394"/>
+    <tableColumn id="395" xr3:uid="{5662C41B-9E56-2E4C-A68F-FA326E62181A}" name="Column395"/>
+    <tableColumn id="396" xr3:uid="{1C472C0A-C04F-7942-AD09-168EDC3B5E9B}" name="Column396"/>
+    <tableColumn id="397" xr3:uid="{C3A60D7D-D114-9549-A8BF-050AEABEFA26}" name="Column397"/>
+    <tableColumn id="398" xr3:uid="{54CEC051-C178-FD45-9700-4AA631AAE3DF}" name="Column398"/>
+    <tableColumn id="399" xr3:uid="{F2B6CCB9-FE47-AD4D-8CD7-C15344E707C4}" name="Column399"/>
+    <tableColumn id="400" xr3:uid="{24B7FF23-08EC-B047-820B-EDC2F547A7E4}" name="Column400"/>
+    <tableColumn id="401" xr3:uid="{14E0F595-41AE-2248-A833-B617AC0157B8}" name="Column401"/>
+    <tableColumn id="402" xr3:uid="{B80E4BD0-2C92-3741-AC53-A9FB17FED236}" name="Column402"/>
+    <tableColumn id="403" xr3:uid="{57B3DC36-DD52-9945-9E08-876D7B6574B8}" name="Column403"/>
+    <tableColumn id="404" xr3:uid="{ABB24223-6415-6A4A-8308-23C592D0AB33}" name="Column404"/>
+    <tableColumn id="405" xr3:uid="{9CF5377B-A8F0-9547-A237-3494ECCB75B6}" name="Column405"/>
+    <tableColumn id="406" xr3:uid="{4C7F5931-2831-C04E-AAAC-CAE1A06B3D28}" name="Column406"/>
+    <tableColumn id="407" xr3:uid="{82A85602-EE46-2846-8C75-8A8DAA382821}" name="Column407"/>
+    <tableColumn id="408" xr3:uid="{AFBE7F2C-8C90-FE4E-9FAE-27479C7E1330}" name="Column408"/>
+    <tableColumn id="409" xr3:uid="{2A80C089-72D2-1745-B0DC-453B404877AF}" name="Column409"/>
+    <tableColumn id="410" xr3:uid="{46DC6A6A-7CFB-F746-84F4-D7D09F431940}" name="Column410"/>
+    <tableColumn id="411" xr3:uid="{AFC14E4F-F2E2-AC41-80D7-8D032F008229}" name="Column411"/>
+    <tableColumn id="412" xr3:uid="{57E33270-81F3-5947-8640-8CF97244DD9D}" name="Column412"/>
+    <tableColumn id="413" xr3:uid="{393F3EDD-A93A-0A43-8DD1-4482EE03A157}" name="Column413"/>
+    <tableColumn id="414" xr3:uid="{5971A052-A18A-984F-A209-21AB2A018AF4}" name="Column414"/>
+    <tableColumn id="415" xr3:uid="{D428AE47-F494-2F49-B69E-C442BAE93363}" name="Column415"/>
+    <tableColumn id="416" xr3:uid="{D42362D0-E002-2742-9F81-329566C36254}" name="Column416"/>
+    <tableColumn id="417" xr3:uid="{E59E4CA8-3D94-B443-869E-CD6D494C8F2F}" name="Column417"/>
+    <tableColumn id="418" xr3:uid="{4AA7EF06-8FD7-3F48-B6B3-21A03172BA8F}" name="Column418"/>
+    <tableColumn id="419" xr3:uid="{22ECE6EF-3C62-8C48-9BB1-36942CE31F1A}" name="Column419"/>
+    <tableColumn id="420" xr3:uid="{122149D1-E847-7845-ADC2-6249D23E5295}" name="Column420"/>
+    <tableColumn id="421" xr3:uid="{64E3AEEF-7B5D-DF48-B012-86E631119613}" name="Column421"/>
+    <tableColumn id="422" xr3:uid="{9C05F7F9-2F55-0A47-9D50-477EC102A0AA}" name="Column422"/>
+    <tableColumn id="423" xr3:uid="{621FBB3D-A526-CE49-B4EA-9DB6E57210DB}" name="Column423"/>
+    <tableColumn id="424" xr3:uid="{1C97EB5B-F725-ED43-A759-01E40754B5FA}" name="Column424"/>
+    <tableColumn id="425" xr3:uid="{1F634598-3C36-B74B-8960-37B54BDB0921}" name="Column425"/>
+    <tableColumn id="426" xr3:uid="{277E883A-7E0B-694A-8A2F-6D207C3F15AC}" name="Column426"/>
+    <tableColumn id="427" xr3:uid="{D1B48838-E666-B74E-9C3D-9A07D49904B8}" name="Column427"/>
+    <tableColumn id="428" xr3:uid="{8F28A18D-D8A2-0649-B902-6E68F5A9197D}" name="Column428"/>
+    <tableColumn id="429" xr3:uid="{BC65CCDE-C051-004E-B8E9-E008FD7108ED}" name="Column429"/>
+    <tableColumn id="430" xr3:uid="{44F3E795-A83F-BD4D-A055-B752594E2293}" name="Column430"/>
+    <tableColumn id="431" xr3:uid="{B5F58251-C703-7F4F-874F-D5F9C085D019}" name="Column431"/>
+    <tableColumn id="432" xr3:uid="{9AE0E22B-FB9E-B04C-A682-09D22496843E}" name="Column432"/>
+    <tableColumn id="433" xr3:uid="{555A2365-1722-3145-B2E0-CDBB36F218CA}" name="Column433"/>
+    <tableColumn id="434" xr3:uid="{5FAFA649-9D77-0140-A896-1E466655B1F1}" name="Column434"/>
+    <tableColumn id="435" xr3:uid="{DE992971-A23A-CF48-9EA5-224190040F7A}" name="Column435"/>
+    <tableColumn id="436" xr3:uid="{1D5136C0-491B-AF4B-904A-4B5A5D958F6F}" name="Column436"/>
+    <tableColumn id="437" xr3:uid="{B3E88CAD-AD4D-CD4F-8599-E0FC02549DCB}" name="Column437"/>
+    <tableColumn id="438" xr3:uid="{7A9F8D47-05F9-3F46-B51A-81CA4B5346DA}" name="Column438"/>
+    <tableColumn id="439" xr3:uid="{8EA508FD-61AE-0547-AC98-93FE7A2A5F34}" name="Column439"/>
+    <tableColumn id="440" xr3:uid="{F14E9E59-6053-F140-9806-BD78BF95B2C5}" name="Column440"/>
+    <tableColumn id="441" xr3:uid="{E47CBA64-2129-734A-A281-7D28D3F385EE}" name="Column441"/>
+    <tableColumn id="442" xr3:uid="{0D452DDA-A1B7-CD45-9E61-A66CC63D1275}" name="Column442"/>
+    <tableColumn id="443" xr3:uid="{55391C5D-6D7C-F945-A730-EC2B82CBFCFE}" name="Column443"/>
+    <tableColumn id="444" xr3:uid="{3B203B37-D65F-804C-A1EE-B0184519939C}" name="Column444"/>
+    <tableColumn id="445" xr3:uid="{A8672E80-CF5F-2640-8D4A-93603C31758D}" name="Column445"/>
+    <tableColumn id="446" xr3:uid="{3C1A1431-CAF4-5242-9BAA-3703614D4B3A}" name="Column446"/>
+    <tableColumn id="447" xr3:uid="{2B1F0271-923B-0045-9EBA-4321FE3AC7DA}" name="Column447"/>
+    <tableColumn id="448" xr3:uid="{22AD14F2-F89D-CB49-A1AC-7502049319F9}" name="Column448"/>
+    <tableColumn id="449" xr3:uid="{E30C9E5B-198A-E748-9407-28128680B60F}" name="Column449"/>
+    <tableColumn id="450" xr3:uid="{C2AC2D66-C2E8-DA4B-8ACD-D2E20426A1B6}" name="Column450"/>
+    <tableColumn id="451" xr3:uid="{BA0BCA6D-761B-9B44-BFC0-F2CA7CD8AADD}" name="Column451"/>
+    <tableColumn id="452" xr3:uid="{89BF954B-2A08-FF4F-B24C-A8449EBA14B3}" name="Column452"/>
+    <tableColumn id="453" xr3:uid="{5C65870F-D69A-9A4B-BA9D-5C853A16D59A}" name="Column453"/>
+    <tableColumn id="454" xr3:uid="{11BFEC06-3825-8148-910D-C97C9C49B1D0}" name="Column454"/>
+    <tableColumn id="455" xr3:uid="{AD07532A-C31F-294A-8526-1999D5E95B7E}" name="Column455"/>
+    <tableColumn id="456" xr3:uid="{B550E59C-9162-2F44-98DB-527A1731EEA1}" name="Column456"/>
+    <tableColumn id="457" xr3:uid="{EF3076C5-F7BF-964E-8DE8-38F4B8A88BE1}" name="Column457"/>
+    <tableColumn id="458" xr3:uid="{DAAF5059-828C-BD4F-BEAF-30E401D9AC90}" name="Column458"/>
+    <tableColumn id="459" xr3:uid="{EF2E0779-A1AA-C348-8E3B-7D184400B000}" name="Column459"/>
+    <tableColumn id="460" xr3:uid="{1875515F-EE35-0847-BC38-F8011FB0C27F}" name="Column460"/>
+    <tableColumn id="461" xr3:uid="{A2FB9AFC-9BA8-CF41-B0A4-16CD6C96D973}" name="Column461"/>
+    <tableColumn id="462" xr3:uid="{077D5C67-C57F-3F4A-9B2A-371281F23FA1}" name="Column462"/>
+    <tableColumn id="463" xr3:uid="{5DB55B56-8B41-474E-91B1-71617C7CE7C0}" name="Column463"/>
+    <tableColumn id="464" xr3:uid="{10328BA3-E6A4-0844-8446-A52A55C2CAE9}" name="Column464"/>
+    <tableColumn id="465" xr3:uid="{2B6688CC-0163-224A-B9C3-2C10F2D4CA25}" name="Column465"/>
+    <tableColumn id="466" xr3:uid="{8A547D3C-7F26-FE4D-AFA9-751FEC1D3FD0}" name="Column466"/>
+    <tableColumn id="467" xr3:uid="{8B892581-F3F5-B442-B757-778FB72B3441}" name="Column467"/>
+    <tableColumn id="468" xr3:uid="{0E7357A5-D55A-DE46-B598-E981D5719E52}" name="Column468"/>
+    <tableColumn id="469" xr3:uid="{22455806-759E-B54B-A740-D481CF4ADC8F}" name="Column469"/>
+    <tableColumn id="470" xr3:uid="{2847CD4C-2381-5C4A-A136-46D01E68A640}" name="Column470"/>
+    <tableColumn id="471" xr3:uid="{A6E6BBBB-DD69-CA4C-9940-623172C5E302}" name="Column471"/>
+    <tableColumn id="472" xr3:uid="{05F14612-347B-F748-BB82-56A45B6DB8E0}" name="Column472"/>
+    <tableColumn id="473" xr3:uid="{BDBBC5E8-5692-FA45-A312-C2A023E03A6C}" name="Column473"/>
+    <tableColumn id="474" xr3:uid="{F4843094-4B6B-7949-A613-67F352FA5BAD}" name="Column474"/>
+    <tableColumn id="475" xr3:uid="{259685E8-F62D-7D40-AC54-CB61F2C52F49}" name="Column475"/>
+    <tableColumn id="476" xr3:uid="{2FDC0669-D14B-FF42-BA19-4A1A6FB0C3DF}" name="Column476"/>
+    <tableColumn id="477" xr3:uid="{A2673B41-BD06-A743-BA81-B5A8DAD0E582}" name="Column477"/>
+    <tableColumn id="478" xr3:uid="{B0C2D490-2D11-FA42-9740-FA29D02CF1D4}" name="Column478"/>
+    <tableColumn id="479" xr3:uid="{26BD7731-28AB-7D4B-813D-39AD0A0FA80B}" name="Column479"/>
+    <tableColumn id="480" xr3:uid="{CEDF19C0-63DA-F149-BE26-A41445941D09}" name="Column480"/>
+    <tableColumn id="481" xr3:uid="{E720635F-EAD5-DD49-976F-679593BCEE93}" name="Column481"/>
+    <tableColumn id="482" xr3:uid="{AD29CA00-F023-F648-AD2C-78206AFC69DF}" name="Column482"/>
+    <tableColumn id="483" xr3:uid="{9F78EF53-5410-674E-8ADB-D189B441792E}" name="Column483"/>
+    <tableColumn id="484" xr3:uid="{F1EA5E1F-A423-724F-AC3B-59DA2AA01BA1}" name="Column484"/>
+    <tableColumn id="485" xr3:uid="{9C264C25-469A-6C47-B672-85AE636401BD}" name="Column485"/>
+    <tableColumn id="486" xr3:uid="{4B5AD5A3-731C-8240-A9FC-C22262EBF1BD}" name="Column486"/>
+    <tableColumn id="487" xr3:uid="{0CC9471C-2CE7-3546-9F0A-46FBFF63C401}" name="Column487"/>
+    <tableColumn id="488" xr3:uid="{C506F913-76F6-5D48-8749-017F452FEE7D}" name="Column488"/>
+    <tableColumn id="489" xr3:uid="{43E229CC-2A47-5F4A-ACE2-8E5846FEB5D8}" name="Column489"/>
+    <tableColumn id="490" xr3:uid="{A7A5A2C6-F9D4-8947-9038-2D11F8F5EA96}" name="Column490"/>
+    <tableColumn id="491" xr3:uid="{8A842FA7-8BC6-794A-BFB5-ABD0C6D8E281}" name="Column491"/>
+    <tableColumn id="492" xr3:uid="{010E18BD-07A1-4049-959B-5F0BB954C964}" name="Column492"/>
+    <tableColumn id="493" xr3:uid="{99B1DE07-3C68-D74C-A44C-1485791AD1E4}" name="Column493"/>
+    <tableColumn id="494" xr3:uid="{B0317086-3993-D34C-B348-08700D485626}" name="Column494"/>
+    <tableColumn id="495" xr3:uid="{CDBCA978-07E5-2B4B-8452-5F217C354323}" name="Column495"/>
+    <tableColumn id="496" xr3:uid="{B9769F04-E5E7-3544-8083-8569FADE6CEC}" name="Column496"/>
+    <tableColumn id="497" xr3:uid="{2A1E549E-2468-1E48-A6E5-545EC2D01527}" name="Column497"/>
+    <tableColumn id="498" xr3:uid="{D249F90A-3B26-1D4D-8EAB-AF83329859A8}" name="Column498"/>
+    <tableColumn id="499" xr3:uid="{D283A122-267B-AE41-B321-8E7014FA595D}" name="Column499"/>
+    <tableColumn id="500" xr3:uid="{4F5FC472-8806-FF49-9540-D851800AF4D9}" name="Column500"/>
+    <tableColumn id="501" xr3:uid="{7240AA3E-A83E-F24C-A751-3811083E13A2}" name="Column501"/>
+    <tableColumn id="502" xr3:uid="{3EEE3591-29D1-EF45-A44E-CBA7381C04EF}" name="Column502"/>
+    <tableColumn id="503" xr3:uid="{C3644B35-3201-E84B-8808-8D4F62779653}" name="Column503"/>
+    <tableColumn id="504" xr3:uid="{0EC7B444-1733-BE49-8222-A89B882E73FC}" name="Column504"/>
+    <tableColumn id="505" xr3:uid="{8AE889AF-E0F9-FD4E-807A-6A34048E5044}" name="Column505"/>
+    <tableColumn id="506" xr3:uid="{AAB6B38E-7B57-CA48-B0A8-D49A2062BD68}" name="Column506"/>
+    <tableColumn id="507" xr3:uid="{A47203F2-18D4-614A-A201-14890E41D754}" name="Column507"/>
+    <tableColumn id="508" xr3:uid="{CF99DA7E-A450-8C4E-9542-BE6E343F4227}" name="Column508"/>
+    <tableColumn id="509" xr3:uid="{E2D13F7B-B6ED-4D47-BA00-953B17229BBD}" name="Column509"/>
+    <tableColumn id="510" xr3:uid="{ACF3C3E6-69D9-804D-8CEE-4F1B46CA1840}" name="Column510"/>
+    <tableColumn id="511" xr3:uid="{89A28660-2445-B641-8971-F52B3360A944}" name="Column511"/>
+    <tableColumn id="512" xr3:uid="{4B9BA732-3EF0-C54D-A09D-F0D2E1D9E6C8}" name="Column512"/>
+    <tableColumn id="513" xr3:uid="{52DB6339-688C-4D46-9F3D-E09B6D42F04B}" name="Column513"/>
+    <tableColumn id="514" xr3:uid="{B1C52B25-B1AA-894E-B23D-ABCF190BE754}" name="Column514"/>
+    <tableColumn id="515" xr3:uid="{54F60D35-43D8-BD41-90A0-F77CB65796EB}" name="Column515"/>
+    <tableColumn id="516" xr3:uid="{CEBA4DF7-804C-494A-86D5-625570617A10}" name="Column516"/>
+    <tableColumn id="517" xr3:uid="{8FDB11C8-B80F-5641-B735-4BF72BDF3CDF}" name="Column517"/>
+    <tableColumn id="518" xr3:uid="{55CF5BB1-CD53-BE4C-855E-3E54BA085D7B}" name="Column518"/>
+    <tableColumn id="519" xr3:uid="{D30916B0-988B-9949-8879-16831414FDE1}" name="Column519"/>
+    <tableColumn id="520" xr3:uid="{55BC9E45-71DB-8F4F-97FB-F15E7CF29647}" name="Column520"/>
+    <tableColumn id="521" xr3:uid="{7C99C59D-4886-D14D-97E2-C11992DDD813}" name="Column521"/>
+    <tableColumn id="522" xr3:uid="{269E3E2F-9F9E-2149-9B9F-437BCDDFD4D5}" name="Column522"/>
+    <tableColumn id="523" xr3:uid="{304E3BF1-0518-3549-9745-B8C882E9ED6F}" name="Column523"/>
+    <tableColumn id="524" xr3:uid="{63171E22-4F4A-AD4C-BC4B-BD4C15B12248}" name="Column524"/>
+    <tableColumn id="525" xr3:uid="{36E98F1C-6273-7547-98A9-DD6674B3C994}" name="Column525"/>
+    <tableColumn id="526" xr3:uid="{D415D7DF-3E95-ED42-9F04-CE17FE877650}" name="Column526"/>
+    <tableColumn id="527" xr3:uid="{928BE7D0-962E-DB41-A596-568CD1E1E5D0}" name="Column527"/>
+    <tableColumn id="528" xr3:uid="{3B27EE7D-A064-C948-9A8A-A9C6F661C946}" name="Column528"/>
+    <tableColumn id="529" xr3:uid="{E6FEA07C-4F68-4B42-9327-7B29A055A546}" name="Column529"/>
+    <tableColumn id="530" xr3:uid="{525179E6-0938-8B47-988A-BEC91CB4D938}" name="Column530"/>
+    <tableColumn id="531" xr3:uid="{8D226E29-C3FB-B94B-AE3D-CE2B3D61A06A}" name="Column531"/>
+    <tableColumn id="532" xr3:uid="{C5441DB4-CB0D-0546-99FB-3256FCD72A31}" name="Column532"/>
+    <tableColumn id="533" xr3:uid="{FDFE6CC4-6E5A-BF4E-84C6-C3F4F06E89DE}" name="Column533"/>
+    <tableColumn id="534" xr3:uid="{1AD44781-46A8-D84F-AE13-3BDEB9CC6055}" name="Column534"/>
+    <tableColumn id="535" xr3:uid="{F439ED32-44AE-C54B-A23C-3895A1B8A307}" name="Column535"/>
+    <tableColumn id="536" xr3:uid="{13057CD6-42A4-4D41-971D-E3B7BD3A6112}" name="Column536"/>
+    <tableColumn id="537" xr3:uid="{94C8862B-261C-F245-968B-1050922D15B6}" name="Column537"/>
+    <tableColumn id="538" xr3:uid="{B2C5E5AA-9363-A346-BDB2-4DF31D4B3F92}" name="Column538"/>
+    <tableColumn id="539" xr3:uid="{08C4DCD1-FBD0-8A4E-8EAB-48C7918A5065}" name="Column539"/>
+    <tableColumn id="540" xr3:uid="{05B9E92E-EC7C-364F-B956-54667103EA24}" name="Column540"/>
+    <tableColumn id="541" xr3:uid="{7A22B2C9-81A3-404A-B8DD-F9024DA3EC58}" name="Column541"/>
+    <tableColumn id="542" xr3:uid="{C0CF549D-0D44-044D-9DFF-0C848920EF3B}" name="Column542"/>
+    <tableColumn id="543" xr3:uid="{B5468130-C281-D94C-B740-44F82181A677}" name="Column543"/>
+    <tableColumn id="544" xr3:uid="{1E19AFDC-8268-7643-889D-D03B23EDC55C}" name="Column544"/>
+    <tableColumn id="545" xr3:uid="{3CDFC80B-8139-724E-8AB8-FB036A79FD6D}" name="Column545"/>
+    <tableColumn id="546" xr3:uid="{0D570CAE-BDAC-584F-A02E-952901C926A3}" name="Column546"/>
+    <tableColumn id="547" xr3:uid="{623AB182-8635-B744-86CB-3258C77BF290}" name="Column547"/>
+    <tableColumn id="548" xr3:uid="{ADFD06EB-1B55-A44F-B5FD-2F1C0FDF49F7}" name="Column548"/>
+    <tableColumn id="549" xr3:uid="{8D635C27-E44F-6745-9672-D878FAA3125E}" name="Column549"/>
+    <tableColumn id="550" xr3:uid="{B3DDBF87-0216-E145-AA3A-51290FFDEF69}" name="Column550"/>
+    <tableColumn id="551" xr3:uid="{F7ED77D1-B0EC-7242-9813-D7A757B3D5C1}" name="Column551"/>
+    <tableColumn id="552" xr3:uid="{E61E69AD-2800-D244-AA82-C206F55EE0CE}" name="Column552"/>
+    <tableColumn id="553" xr3:uid="{078ADEE2-9207-6E4F-8435-C05A19E01940}" name="Column553"/>
+    <tableColumn id="554" xr3:uid="{802DA17F-D48B-9A49-9323-6EACB37AC6F4}" name="Column554"/>
+    <tableColumn id="555" xr3:uid="{E55AF416-3867-1A4F-BA8A-42D58AD9D461}" name="Column555"/>
+    <tableColumn id="556" xr3:uid="{3090B33D-80E1-6742-B863-4B5344B67D3A}" name="Column556"/>
+    <tableColumn id="557" xr3:uid="{A65B8A47-97EC-BA40-B1A2-D68249FC5882}" name="Column557"/>
+    <tableColumn id="558" xr3:uid="{81400A79-FA74-9E47-A0FC-D43BF3A0642A}" name="Column558"/>
+    <tableColumn id="559" xr3:uid="{4A57E3D2-32B7-4E49-9618-2FD69E544F82}" name="Column559"/>
+    <tableColumn id="560" xr3:uid="{2BECC013-9A44-DD40-A06E-0C82419A136F}" name="Column560"/>
+    <tableColumn id="561" xr3:uid="{62A3CC96-8C1C-8B43-9E34-BEB8316D06CF}" name="Column561"/>
+    <tableColumn id="562" xr3:uid="{23A1CE1C-FD1F-024D-8716-2813B76A4786}" name="Column562"/>
+    <tableColumn id="563" xr3:uid="{E69AD630-31C7-1F49-B59A-70746E88DE27}" name="Column563"/>
+    <tableColumn id="564" xr3:uid="{D848138E-CFAC-7C46-A68C-5CB4A9234953}" name="Column564"/>
+    <tableColumn id="565" xr3:uid="{0E7AD3B8-AA88-A04C-8E20-A017809B5133}" name="Column565"/>
+    <tableColumn id="566" xr3:uid="{10F5966E-050F-5540-AFFB-570693944849}" name="Column566"/>
+    <tableColumn id="567" xr3:uid="{5D2AE8C6-8E44-EC43-B82B-BA5A2B4F9AC8}" name="Column567"/>
+    <tableColumn id="568" xr3:uid="{E53FC754-FB38-FD4F-BC06-2AEBB073ADE8}" name="Column568"/>
+    <tableColumn id="569" xr3:uid="{BC2AD477-A9F9-2246-A0E8-57BD11B290E5}" name="Column569"/>
+    <tableColumn id="570" xr3:uid="{9A6E5AFA-18E1-C140-8FB5-2F665D549BD8}" name="Column570"/>
+    <tableColumn id="571" xr3:uid="{2EBE4032-9586-B94D-A318-DD08761040EE}" name="Column571"/>
+    <tableColumn id="572" xr3:uid="{983F90F4-D623-A647-B780-E26EA9506782}" name="Column572"/>
+    <tableColumn id="573" xr3:uid="{7099410E-0C58-2441-8E08-67BD755AEBA7}" name="Column573"/>
+    <tableColumn id="574" xr3:uid="{FD5BE2B7-E819-B244-97DC-7D1AEF858095}" name="Column574"/>
+    <tableColumn id="575" xr3:uid="{35D4916C-18DC-C64C-94C1-8405EF30BD27}" name="Column575"/>
+    <tableColumn id="576" xr3:uid="{33C44612-407B-9940-9DFA-CFE25EF41E3A}" name="Column576"/>
+    <tableColumn id="577" xr3:uid="{114989CD-CFA0-4344-9E0C-429762C81D17}" name="Column577"/>
+    <tableColumn id="578" xr3:uid="{EDD2241E-F39D-7946-89A5-DE958D195B88}" name="Column578"/>
+    <tableColumn id="579" xr3:uid="{243B9A8E-9A60-9D49-B5ED-D88082F83557}" name="Column579"/>
+    <tableColumn id="580" xr3:uid="{E9F587E7-F763-6845-9944-1E525566E07A}" name="Column580"/>
+    <tableColumn id="581" xr3:uid="{0445EFB0-C86C-5A44-94D0-89398E193F47}" name="Column581"/>
+    <tableColumn id="582" xr3:uid="{72750E2F-8F46-9A4E-B71A-D208CD34D876}" name="Column582"/>
+    <tableColumn id="583" xr3:uid="{D137DC6E-2334-A246-99BD-30012F60A636}" name="Column583"/>
+    <tableColumn id="584" xr3:uid="{068FC4EF-0EE8-C342-819F-9015415D9F5B}" name="Column584"/>
+    <tableColumn id="585" xr3:uid="{144345E8-9C0C-014B-A93E-5CCD44582D85}" name="Column585"/>
+    <tableColumn id="586" xr3:uid="{621BAE76-B7CB-3A4A-B5BB-EFC5EE67AC47}" name="Column586"/>
+    <tableColumn id="587" xr3:uid="{0CB9A139-BDF2-AD4C-8F9D-F4CF467C13C4}" name="Column587"/>
+    <tableColumn id="588" xr3:uid="{F6F7BC07-96FC-D144-BA9E-AC9D40508737}" name="Column588"/>
+    <tableColumn id="589" xr3:uid="{83653C38-EC7C-D64C-8D05-34F3FBE6145F}" name="Column589"/>
+    <tableColumn id="590" xr3:uid="{561212DD-4855-2340-A142-82269999AE08}" name="Column590"/>
+    <tableColumn id="591" xr3:uid="{01CCC1D5-3845-CD4E-AD34-6EF36E44AD63}" name="Column591"/>
+    <tableColumn id="592" xr3:uid="{DFCDB381-F3D6-3048-87F0-C0A6A785508C}" name="Column592"/>
+    <tableColumn id="593" xr3:uid="{DDA36E09-0A9C-BB4E-A0C0-DE38340EE706}" name="Column593"/>
+    <tableColumn id="594" xr3:uid="{F46526FD-FEEE-1048-B96C-BCFBF5037816}" name="Column594"/>
+    <tableColumn id="595" xr3:uid="{2A445FA9-819A-B345-A084-1FC282847630}" name="Column595"/>
+    <tableColumn id="596" xr3:uid="{F6C72E41-E395-9947-A3DA-7F5B1C18AEBC}" name="Column596"/>
+    <tableColumn id="597" xr3:uid="{1703140B-33F5-A649-86A2-FF31E26EDD83}" name="Column597"/>
+    <tableColumn id="598" xr3:uid="{C9CECAFD-7E39-BA45-AA19-40325606D2BF}" name="Column598"/>
+    <tableColumn id="599" xr3:uid="{599C44CE-30AF-D949-9761-C7DABBF0FA66}" name="Column599"/>
+    <tableColumn id="600" xr3:uid="{0BD2E214-240C-CD4A-8075-560F2EFCBD20}" name="Column600"/>
+    <tableColumn id="601" xr3:uid="{014F34BD-B169-4642-BE74-6B0148612496}" name="Column601"/>
+    <tableColumn id="602" xr3:uid="{14DFB8EE-55B8-6A4B-8633-6A7FBA6875BC}" name="Column602"/>
+    <tableColumn id="603" xr3:uid="{51349AA8-595D-E047-A43C-F2B25B3D40A9}" name="Column603"/>
+    <tableColumn id="604" xr3:uid="{54336D0F-03EE-FD4B-8312-3CCE81A71AAF}" name="Column604"/>
+    <tableColumn id="605" xr3:uid="{C675D408-2051-9B43-96B1-6CFC90EFEEBB}" name="Column605"/>
+    <tableColumn id="606" xr3:uid="{76C64AB1-D4D3-B945-8DDE-EF82FB6C0EB1}" name="Column606"/>
+    <tableColumn id="607" xr3:uid="{78E3D875-174D-AB41-AFDB-63C2D043336C}" name="Column607"/>
+    <tableColumn id="608" xr3:uid="{7C9C85A9-2616-A94F-9D2D-EFB1764FEE73}" name="Column608"/>
+    <tableColumn id="609" xr3:uid="{F732AB22-130F-F243-81C9-C172037FCDA1}" name="Column609"/>
+    <tableColumn id="610" xr3:uid="{AE799506-B266-2A43-BF59-47714F2183CA}" name="Column610"/>
+    <tableColumn id="611" xr3:uid="{C623EE9B-539D-6C4A-8B83-5CCE61F7E4EC}" name="Column611"/>
+    <tableColumn id="612" xr3:uid="{C2D3DEF4-FBA1-424A-AE36-B9847D3D584C}" name="Column612"/>
+    <tableColumn id="613" xr3:uid="{0413283A-2865-4D48-AA1D-A0D814ACCF1C}" name="Column613"/>
+    <tableColumn id="614" xr3:uid="{B9DD34DE-09DC-9642-9989-F6131C6DE9D2}" name="Column614"/>
+    <tableColumn id="615" xr3:uid="{293C55C1-0BA1-E446-BC4F-EDEBDA68471A}" name="Column615"/>
+    <tableColumn id="616" xr3:uid="{78235328-912E-EF41-9FFF-3BD94B288180}" name="Column616"/>
+    <tableColumn id="617" xr3:uid="{C5A07B56-DBFD-4B4A-AAD0-7074C744E96A}" name="Column617"/>
+    <tableColumn id="618" xr3:uid="{CB0AABCC-CC1F-A64E-970D-BB5798E45B66}" name="Column618"/>
+    <tableColumn id="619" xr3:uid="{3E837F40-E537-694C-9D0C-A65A9BB9B4F3}" name="Column619"/>
+    <tableColumn id="620" xr3:uid="{F8F2E95F-A2A6-804A-912F-32953C33822C}" name="Column620"/>
+    <tableColumn id="621" xr3:uid="{48CF0ABD-5C08-AE49-B471-5D492553BED0}" name="Column621"/>
+    <tableColumn id="622" xr3:uid="{3FC9CE84-4DA3-4E48-A375-4EBB52B3654F}" name="Column622"/>
+    <tableColumn id="623" xr3:uid="{8378BFF8-F62A-E249-87D9-F0890E400796}" name="Column623"/>
+    <tableColumn id="624" xr3:uid="{C793FC9D-FB59-5D45-887E-C5D31A1E73B7}" name="Column624"/>
+    <tableColumn id="625" xr3:uid="{6C652346-46AC-D846-AC37-83C29BA7AE14}" name="Column625"/>
+    <tableColumn id="626" xr3:uid="{4C642258-3BE7-1B40-9307-7AADAF84940B}" name="Column626"/>
+    <tableColumn id="627" xr3:uid="{4B11EBED-E2D4-B44D-BC3D-4F3BCF04E9F3}" name="Column627"/>
+    <tableColumn id="628" xr3:uid="{6A8CD6D8-EAE2-F543-9EFE-CCB4CEDF5330}" name="Column628"/>
+    <tableColumn id="629" xr3:uid="{022F631A-A7D0-7F42-BA58-95B391CA53C2}" name="Column629"/>
+    <tableColumn id="630" xr3:uid="{EDEF0FB9-64E2-0B44-A626-5595E97579AC}" name="Column630"/>
+    <tableColumn id="631" xr3:uid="{E63EE560-C381-6C43-BF86-43E1471B49E6}" name="Column631"/>
+    <tableColumn id="632" xr3:uid="{C3D71062-0BA9-C74A-BB0D-A5DE8D1A7753}" name="Column632"/>
+    <tableColumn id="633" xr3:uid="{60A2F344-BDCF-C84C-838A-FED413E6A2EF}" name="Column633"/>
+    <tableColumn id="634" xr3:uid="{9F5D44A7-FC10-794D-9914-439F50FBA8CF}" name="Column634"/>
+    <tableColumn id="635" xr3:uid="{3D2A10C9-3008-A041-8F1D-17C318B369EF}" name="Column635"/>
+    <tableColumn id="636" xr3:uid="{25A0FB6F-64BD-DB42-B6DC-B32027137FAC}" name="Column636"/>
+    <tableColumn id="637" xr3:uid="{6C736C8D-C2BE-5D41-9F50-113C2C744958}" name="Column637"/>
+    <tableColumn id="638" xr3:uid="{59C9C0C5-DAEE-F144-A715-B3DCA950F95D}" name="Column638"/>
+    <tableColumn id="639" xr3:uid="{89EF0D7F-6A8E-664F-90E8-39C61D30F440}" name="Column639"/>
+    <tableColumn id="640" xr3:uid="{126A5D2F-8C3D-CC49-BF67-2DC80D68F2C3}" name="Column640"/>
+    <tableColumn id="641" xr3:uid="{935A85D1-9A7C-7D4D-B804-8218E06F244D}" name="Column641"/>
+    <tableColumn id="642" xr3:uid="{BAFE86BE-7121-D04B-859C-66E20C80E85C}" name="Column642"/>
+    <tableColumn id="643" xr3:uid="{CB17C7E2-773F-4841-848C-E10A4C7CE254}" name="Column643"/>
+    <tableColumn id="644" xr3:uid="{9E9C1EE9-BCCD-7345-8D97-5C5878F2E888}" name="Column644"/>
+    <tableColumn id="645" xr3:uid="{9C3F5FC2-615E-D946-9F8A-3E6776D152BB}" name="Column645"/>
+    <tableColumn id="646" xr3:uid="{F7FE3772-636D-9B4C-A3AD-DA9C4138E87B}" name="Column646"/>
+    <tableColumn id="647" xr3:uid="{647E7609-0920-F949-B542-F32B4591D977}" name="Column647"/>
+    <tableColumn id="648" xr3:uid="{993BBCD0-7A8A-7945-A838-C0EF7E2A255F}" name="Column648"/>
+    <tableColumn id="649" xr3:uid="{15359D6C-F093-5E45-A167-229164A895FA}" name="Column649"/>
+    <tableColumn id="650" xr3:uid="{567E1F5F-F6FD-CB4E-8FEE-65FA687A6055}" name="Column650"/>
+    <tableColumn id="651" xr3:uid="{0007F329-10EE-8D4E-97F3-CBFABB4B8B76}" name="Column651"/>
+    <tableColumn id="652" xr3:uid="{6A994014-2562-3949-AFE5-0F6668595E47}" name="Column652"/>
+    <tableColumn id="653" xr3:uid="{F5B36FA0-9BA4-404E-B707-A80C39ED2A4C}" name="Column653"/>
+    <tableColumn id="654" xr3:uid="{B150592F-F48D-314B-BA06-2B4A7A6E6A67}" name="Column654"/>
+    <tableColumn id="655" xr3:uid="{8269EC00-3DBA-9845-B6CC-3C0F2ADECD6C}" name="Column655"/>
+    <tableColumn id="656" xr3:uid="{6E85D300-3089-9D46-AAFE-873392D59530}" name="Column656"/>
+    <tableColumn id="657" xr3:uid="{2E7B6EEA-FF8C-C14A-8D17-8C287A1414CC}" name="Column657"/>
+    <tableColumn id="658" xr3:uid="{3506A493-45D7-3148-AEAB-06039FECD87A}" name="Column658"/>
+    <tableColumn id="659" xr3:uid="{614DFFB3-C6A9-6041-A2BB-190E20368B31}" name="Column659"/>
+    <tableColumn id="660" xr3:uid="{D9FE6711-C286-AE48-8E6E-FF6A6E859471}" name="Column660"/>
+    <tableColumn id="661" xr3:uid="{7654F364-CE46-4F4D-9F15-4B42E680F2A8}" name="Column661"/>
+    <tableColumn id="662" xr3:uid="{2D4D24DE-BEED-CF4B-A1CF-C233C1C77670}" name="Column662"/>
+    <tableColumn id="663" xr3:uid="{7B958D55-4D03-B44C-9127-618643A660EA}" name="Column663"/>
+    <tableColumn id="664" xr3:uid="{BF71CBAF-18FC-BF48-98A1-026C2EEF46A1}" name="Column664"/>
+    <tableColumn id="665" xr3:uid="{7D9C7265-2B16-4A4B-8C77-1A6016316A39}" name="Column665"/>
+    <tableColumn id="666" xr3:uid="{1BBDD5ED-410F-E449-849D-CA1A4A471AB4}" name="Column666"/>
+    <tableColumn id="667" xr3:uid="{5E0AFB0A-26AD-5C42-A07A-DCA2EBF02E97}" name="Column667"/>
+    <tableColumn id="668" xr3:uid="{DED8E122-ACC4-0D49-9B4E-6AA69ED68B06}" name="Column668"/>
+    <tableColumn id="669" xr3:uid="{556B9D78-1841-0144-B3EF-4EED52F81011}" name="Column669"/>
+    <tableColumn id="670" xr3:uid="{CE770DCD-302F-594F-BFC6-AAA333C771FF}" name="Column670"/>
+    <tableColumn id="671" xr3:uid="{CC5453FD-A7EE-C949-9B19-67032B72384E}" name="Column671"/>
+    <tableColumn id="672" xr3:uid="{BF22D60A-4F65-0F48-AE74-F5F717C1E14F}" name="Column672"/>
+    <tableColumn id="673" xr3:uid="{AB710212-3110-1949-9484-C2C0808D7009}" name="Column673"/>
+    <tableColumn id="674" xr3:uid="{A2E7F4E5-6806-524C-B35B-30BC104FE29C}" name="Column674"/>
+    <tableColumn id="675" xr3:uid="{E9D2260E-BAFD-0C4C-8E5C-EB1BE6DE0B8F}" name="Column675"/>
+    <tableColumn id="676" xr3:uid="{02CD6B9F-DCCF-3E46-B7E7-83E1A54DAD0F}" name="Column676"/>
+    <tableColumn id="677" xr3:uid="{E62B3853-4DAA-544B-A29B-9D1D7B8835CF}" name="Column677"/>
+    <tableColumn id="678" xr3:uid="{25CB0F2E-5257-094F-B312-E1E7C8214701}" name="Column678"/>
+    <tableColumn id="679" xr3:uid="{ED17735E-402D-EA4C-B745-7F3861064350}" name="Column679"/>
+    <tableColumn id="680" xr3:uid="{29E1664F-F545-F14E-9244-9F58B1EBCE5D}" name="Column680"/>
+    <tableColumn id="681" xr3:uid="{BF1912BA-F01C-5841-BBC3-2D0F4A642DBF}" name="Column681"/>
+    <tableColumn id="682" xr3:uid="{9A98BDDC-57B4-9A4C-9064-4C888A354934}" name="Column682"/>
+    <tableColumn id="683" xr3:uid="{14EC91E1-961D-5C4D-99A5-C2C8B694A964}" name="Column683"/>
+    <tableColumn id="684" xr3:uid="{5181599D-1B57-574B-9376-F6A4DCFB9777}" name="Column684"/>
+    <tableColumn id="685" xr3:uid="{7CD4C860-3C88-F64D-ACD0-9E587E3A0FD9}" name="Column685"/>
+    <tableColumn id="686" xr3:uid="{570D747C-D95F-0144-AA7D-A08E5A5A95F7}" name="Column686"/>
+    <tableColumn id="687" xr3:uid="{EC2A28BC-2951-F948-AF5F-A23B967480A1}" name="Column687"/>
+    <tableColumn id="688" xr3:uid="{2489070D-F90A-9F47-A7B7-42A1AC65B8DF}" name="Column688"/>
+    <tableColumn id="689" xr3:uid="{381A5E1E-395A-1344-B96A-9CFC271B42DD}" name="Column689"/>
+    <tableColumn id="690" xr3:uid="{7C818B68-CD0D-F04F-8B19-4F0BBF221459}" name="Column690"/>
+    <tableColumn id="691" xr3:uid="{002FA654-5408-B14E-BCD4-30A8EF9523EF}" name="Column691"/>
+    <tableColumn id="692" xr3:uid="{3A276A6B-FD49-A549-95BD-DB5A54215E08}" name="Column692"/>
+    <tableColumn id="693" xr3:uid="{38794E09-3863-BA44-B560-39438791549D}" name="Column693"/>
+    <tableColumn id="694" xr3:uid="{C8314242-883F-FB41-99B4-17FDCF743E8D}" name="Column694"/>
+    <tableColumn id="695" xr3:uid="{7047F660-9E0D-FE4D-8630-10616CA04F3B}" name="Column695"/>
+    <tableColumn id="696" xr3:uid="{A3C2984E-4E87-524B-B7D3-88958C2DB5EE}" name="Column696"/>
+    <tableColumn id="697" xr3:uid="{E674F4BD-3AA2-8848-B370-39B07A8486EF}" name="Column697"/>
+    <tableColumn id="698" xr3:uid="{5C4E2AF0-0EFB-0043-800B-BA77FC377BE2}" name="Column698"/>
+    <tableColumn id="699" xr3:uid="{9300F128-2C67-2E42-A8F9-EFE55C8842E2}" name="Column699"/>
+    <tableColumn id="700" xr3:uid="{0AEEB5C1-83A8-3B4D-8B37-DA52AE672761}" name="Column700"/>
+    <tableColumn id="701" xr3:uid="{7816627E-A272-5E43-B49D-FD01FABAD9E1}" name="Column701"/>
+    <tableColumn id="702" xr3:uid="{6E8577F9-FCB6-A24B-BD18-15A97496A9ED}" name="Column702"/>
+    <tableColumn id="703" xr3:uid="{64329236-FDD0-AF4A-BAB2-F204CA60C6E0}" name="Column703"/>
+    <tableColumn id="704" xr3:uid="{E67C9570-CA5A-CA47-B5FF-CA29313BE4A2}" name="Column704"/>
+    <tableColumn id="705" xr3:uid="{551F566E-5E30-2445-89C4-132DE97FA5BB}" name="Column705"/>
+    <tableColumn id="706" xr3:uid="{B9565B03-48E1-2243-B90A-AF2C08B422AA}" name="Column706"/>
+    <tableColumn id="707" xr3:uid="{F5ABE641-C39F-084E-B59B-21FBB6E93539}" name="Column707"/>
+    <tableColumn id="708" xr3:uid="{3B287B08-EE90-6048-962B-9795DD21CFC4}" name="Column708"/>
+    <tableColumn id="709" xr3:uid="{86926D7E-4149-3444-ACCB-389D198C5A37}" name="Column709"/>
+    <tableColumn id="710" xr3:uid="{A3DBB357-CA70-D44A-BB42-E0B148C32709}" name="Column710"/>
+    <tableColumn id="711" xr3:uid="{1494CE38-8669-E449-AE79-E33CEB2C193C}" name="Column711"/>
+    <tableColumn id="712" xr3:uid="{EBB3C35E-CFFD-6B46-9257-5FC559DBBF56}" name="Column712"/>
+    <tableColumn id="713" xr3:uid="{201AFE23-2F8A-E441-BF77-F0A48123114F}" name="Column713"/>
+    <tableColumn id="714" xr3:uid="{88A0830A-1814-B44C-9566-C230F14EDA48}" name="Column714"/>
+    <tableColumn id="715" xr3:uid="{A3942A28-FB36-744C-90CB-91AE14363B82}" name="Column715"/>
+    <tableColumn id="716" xr3:uid="{86982524-AB25-3847-B65C-88B403410DC0}" name="Column716"/>
+    <tableColumn id="717" xr3:uid="{52F89EBA-2D28-5946-A0F1-70EFEBF9E37D}" name="Column717"/>
+    <tableColumn id="718" xr3:uid="{5BDBE45E-2084-BC4D-B0A3-A3A256B6A9EE}" name="Column718"/>
+    <tableColumn id="719" xr3:uid="{A25DBC80-679B-674B-96BC-CAC39F451BCE}" name="Column719"/>
+    <tableColumn id="720" xr3:uid="{CDE5CC1F-CD6B-1D4C-8FB8-6A611875B12B}" name="Column720"/>
+    <tableColumn id="721" xr3:uid="{2C91DDB1-EB17-4343-8691-1F8B49833654}" name="Column721"/>
+    <tableColumn id="722" xr3:uid="{FF375B70-EF87-DF4D-AD0F-ED4BB0E7E246}" name="Column722"/>
+    <tableColumn id="723" xr3:uid="{5DCD6481-4C65-6B49-AB62-50C21E47F6E4}" name="Column723"/>
+    <tableColumn id="724" xr3:uid="{1484573E-E941-924E-ACC4-6541D0B36230}" name="Column724"/>
+    <tableColumn id="725" xr3:uid="{2361CF11-A121-B044-BF78-22B0CF7EDF9B}" name="Column725"/>
+    <tableColumn id="726" xr3:uid="{E7FE79E8-D283-9F49-9F97-0AA8DE5E380C}" name="Column726"/>
+    <tableColumn id="727" xr3:uid="{068DCD33-EEF7-4E48-8C0E-0432A7EDAC97}" name="Column727"/>
+    <tableColumn id="728" xr3:uid="{A3F9F0C0-F506-9B42-AD66-A1EC15F8811E}" name="Column728"/>
+    <tableColumn id="729" xr3:uid="{AE816379-25DC-BA44-A972-5AD2C2C2E6EE}" name="Column729"/>
+    <tableColumn id="730" xr3:uid="{2B77EF11-4D0C-BF4B-B647-990BED68AF41}" name="Column730"/>
+    <tableColumn id="731" xr3:uid="{5244E6F6-6003-D147-91E3-F5D4A0FC32D9}" name="Column731"/>
+    <tableColumn id="732" xr3:uid="{766F483F-E7E8-844F-A0EB-F2A275B37D74}" name="Column732"/>
+    <tableColumn id="733" xr3:uid="{D517B7EE-35FC-E94A-B869-FB48155C3B04}" name="Column733"/>
+    <tableColumn id="734" xr3:uid="{85842A11-253D-0844-9E5F-79351518F0C1}" name="Column734"/>
+    <tableColumn id="735" xr3:uid="{934985F7-AA5C-7D47-B982-80F7591ABE17}" name="Column735"/>
+    <tableColumn id="736" xr3:uid="{1546C94C-FAB5-1643-B3BD-5EBF429142DC}" name="Column736"/>
+    <tableColumn id="737" xr3:uid="{DCE19D2F-2BD7-0A4B-AA4F-D541021FEF31}" name="Column737"/>
+    <tableColumn id="738" xr3:uid="{0EECEC7B-CC03-AD49-83B2-B8BCE6FA0EED}" name="Column738"/>
+    <tableColumn id="739" xr3:uid="{BB90F78C-460A-7542-9002-E5CEF6477409}" name="Column739"/>
+    <tableColumn id="740" xr3:uid="{90D8BE08-3C7B-4D49-8B20-00CFA640B64B}" name="Column740"/>
+    <tableColumn id="741" xr3:uid="{93E19FFC-3E94-E94F-9321-618240263669}" name="Column741"/>
+    <tableColumn id="742" xr3:uid="{15C62B7D-A37A-904B-B379-435483895BF9}" name="Column742"/>
+    <tableColumn id="743" xr3:uid="{D9AC3EF3-41E6-DC45-AE1B-9F2D65E45482}" name="Column743"/>
+    <tableColumn id="744" xr3:uid="{BECB413F-0EFD-8441-B5D9-AFA1412BDE83}" name="Column744"/>
+    <tableColumn id="745" xr3:uid="{9E282106-C4E1-A143-AFBD-BC3D7435EC8D}" name="Column745"/>
+    <tableColumn id="746" xr3:uid="{6A9DFC79-1C3F-5744-B634-A4BAD601C443}" name="Column746"/>
+    <tableColumn id="747" xr3:uid="{4A897298-F053-8E40-AEA8-07DBDACBE4CA}" name="Column747"/>
+    <tableColumn id="748" xr3:uid="{57825431-E291-E346-B179-07277E12AB6F}" name="Column748"/>
+    <tableColumn id="749" xr3:uid="{F50712F3-D8EF-D94C-B791-267B52125DB6}" name="Column749"/>
+    <tableColumn id="750" xr3:uid="{A5BE225A-CD76-A64A-83A9-E28326A54E04}" name="Column750"/>
+    <tableColumn id="751" xr3:uid="{A1C568A0-D2AD-4A47-8A5D-013888A3B711}" name="Column751"/>
+    <tableColumn id="752" xr3:uid="{CDE55F39-FD29-BB4E-8CD7-5538B718BFE3}" name="Column752"/>
+    <tableColumn id="753" xr3:uid="{520FF876-430D-D64C-AF1F-158EB50036FC}" name="Column753"/>
+    <tableColumn id="754" xr3:uid="{996A7C76-3F59-4642-BCA2-F65E7FB9F5AA}" name="Column754"/>
+    <tableColumn id="755" xr3:uid="{CA61D13C-B535-674E-B297-81365AD37934}" name="Column755"/>
+    <tableColumn id="756" xr3:uid="{2EAD1487-3B76-754A-B2F2-91368D02F0FD}" name="Column756"/>
+    <tableColumn id="757" xr3:uid="{96B78F1F-40CD-6649-9F2B-613708424E10}" name="Column757"/>
+    <tableColumn id="758" xr3:uid="{AE199E26-C796-4C44-8EC6-7C18BDDDD635}" name="Column758"/>
+    <tableColumn id="759" xr3:uid="{8B7EDB60-4927-E242-A70C-E1CCBE5FDE5D}" name="Column759"/>
+    <tableColumn id="760" xr3:uid="{EBF658C7-5C67-C24E-A5E3-270E94F5621D}" name="Column760"/>
+    <tableColumn id="761" xr3:uid="{F05A53F1-3A44-464F-A031-4B403E1EC0B5}" name="Column761"/>
+    <tableColumn id="762" xr3:uid="{FAF3A519-2855-7E4C-89F3-46DE737EDB9E}" name="Column762"/>
+    <tableColumn id="763" xr3:uid="{60AB0470-B029-A741-A17D-D70352AF1A03}" name="Column763"/>
+    <tableColumn id="764" xr3:uid="{7112CC68-2B11-6B4E-B6CC-0600864F288E}" name="Column764"/>
+    <tableColumn id="765" xr3:uid="{5DF13BA3-855D-E94B-A5F6-508C81294217}" name="Column765"/>
+    <tableColumn id="766" xr3:uid="{41671115-6E73-FE48-8EB3-43646E1C7F36}" name="Column766"/>
+    <tableColumn id="767" xr3:uid="{C785C10B-0997-1242-B6F3-CC3B9C985EDF}" name="Column767"/>
+    <tableColumn id="768" xr3:uid="{F3213060-88C5-6140-88C8-D786F361BE36}" name="Column768"/>
+    <tableColumn id="769" xr3:uid="{BE8407AB-83D2-7C4E-B84F-C264125E3431}" name="Column769"/>
+    <tableColumn id="770" xr3:uid="{2080DFCE-EAAA-C94B-91DE-905164B1EF44}" name="Column770"/>
+    <tableColumn id="771" xr3:uid="{7C5F396C-0884-3E41-9D6D-F5AFD400BF4B}" name="Column771"/>
+    <tableColumn id="772" xr3:uid="{18AA0F93-ADF0-084D-89E3-34DCAC84E421}" name="Column772"/>
+    <tableColumn id="773" xr3:uid="{F11F36A3-300B-9845-9736-F0486A2586EA}" name="Column773"/>
+    <tableColumn id="774" xr3:uid="{F3A3307C-C056-4449-9446-33F6E37608E6}" name="Column774"/>
+    <tableColumn id="775" xr3:uid="{764FFF07-6B37-6247-B196-D6B39A638A62}" name="Column775"/>
+    <tableColumn id="776" xr3:uid="{499B8D67-039A-DF47-9A85-0D90C18A49E9}" name="Column776"/>
+    <tableColumn id="777" xr3:uid="{E5E37287-2040-9343-81E9-DAFDFE541D7E}" name="Column777"/>
+    <tableColumn id="778" xr3:uid="{B1528F7B-29E3-C346-B3D5-AECC72A250F7}" name="Column778"/>
+    <tableColumn id="779" xr3:uid="{C4236C11-E823-F340-9921-D3B325CDC256}" name="Column779"/>
+    <tableColumn id="780" xr3:uid="{C1E4C33D-1DE8-9F4E-AFB0-491C0900486C}" name="Column780"/>
+    <tableColumn id="781" xr3:uid="{E092E247-FE5A-B24B-BB42-C40BF9B6470A}" name="Column781"/>
+    <tableColumn id="782" xr3:uid="{1FCF28CA-6B87-9D4E-9C17-F98366837792}" name="Column782"/>
+    <tableColumn id="783" xr3:uid="{F3C67F51-4660-014A-93B4-CCE37B690F85}" name="Column783"/>
+    <tableColumn id="784" xr3:uid="{01EE9E0C-40F4-4940-869F-4B128DE69C91}" name="Column784"/>
+    <tableColumn id="785" xr3:uid="{87DCD363-DD15-0545-AE76-E772A7AA0047}" name="Column785"/>
+    <tableColumn id="786" xr3:uid="{F42BD867-19BC-184E-90A6-A1CD85F4B11A}" name="Column786"/>
+    <tableColumn id="787" xr3:uid="{CE1F6F18-C473-9743-B35D-52F154C9C642}" name="Column787"/>
+    <tableColumn id="788" xr3:uid="{961D4840-786B-5E44-B96C-76CB032A71AD}" name="Column788"/>
+    <tableColumn id="789" xr3:uid="{559D326A-AD15-334E-A595-5D01B6EBFF6C}" name="Column789"/>
+    <tableColumn id="790" xr3:uid="{A960E8D0-16C3-904D-AF6E-FB2398CFB87B}" name="Column790"/>
+    <tableColumn id="791" xr3:uid="{67D4F8CD-808B-5848-9F16-64AB63006F59}" name="Column791"/>
+    <tableColumn id="792" xr3:uid="{CFBF5D39-D4EF-304E-8751-8520319FC766}" name="Column792"/>
+    <tableColumn id="793" xr3:uid="{371600C3-11BA-0448-B1A1-A02855F7050D}" name="Column793"/>
+    <tableColumn id="794" xr3:uid="{6CE89F5D-1B77-CD4D-B850-EBAB13940DCE}" name="Column794"/>
+    <tableColumn id="795" xr3:uid="{4990E27D-84B0-3942-858F-91A3A7F08F92}" name="Column795"/>
+    <tableColumn id="796" xr3:uid="{844A06FE-E75B-3B4A-B92E-FD936286730B}" name="Column796"/>
+    <tableColumn id="797" xr3:uid="{C5F0B534-C6FA-8A4F-8310-F405652B7F25}" name="Column797"/>
+    <tableColumn id="798" xr3:uid="{FB73F2B9-13FF-2047-94E9-5C1AE1294DFC}" name="Column798"/>
+    <tableColumn id="799" xr3:uid="{5AA06825-4242-1A45-B49A-6672ACE060D6}" name="Column799"/>
+    <tableColumn id="800" xr3:uid="{54B5415D-8454-8541-88A3-D8022947CC97}" name="Column800"/>
+    <tableColumn id="801" xr3:uid="{3B6D8A2D-C39A-2144-9062-C73C02E96984}" name="Column801"/>
+    <tableColumn id="802" xr3:uid="{A51BC10B-5B47-C945-8BFF-1C840E6E9C6C}" name="Column802"/>
+    <tableColumn id="803" xr3:uid="{12D9F88E-A250-8642-B6C9-01E183294F9D}" name="Column803"/>
+    <tableColumn id="804" xr3:uid="{8718EFE0-D9B7-B14E-BD2B-551E5E911302}" name="Column804"/>
+    <tableColumn id="805" xr3:uid="{E0E147BE-0B95-C343-98ED-BD2F3B568E60}" name="Column805"/>
+    <tableColumn id="806" xr3:uid="{9E90943F-E9AB-C346-8EFE-53C6FB97FEA0}" name="Column806"/>
+    <tableColumn id="807" xr3:uid="{C08470B6-6DE2-904C-8CD1-8207C4912FD3}" name="Column807"/>
+    <tableColumn id="808" xr3:uid="{3D77CED1-07C8-3C41-B19C-269C9018A280}" name="Column808"/>
+    <tableColumn id="809" xr3:uid="{5E770AC8-2AC6-664D-BBBE-5CAF180435C9}" name="Column809"/>
+    <tableColumn id="810" xr3:uid="{603258A0-AE60-C24D-94BE-955100AE2584}" name="Column810"/>
+    <tableColumn id="811" xr3:uid="{771331A7-6D78-7848-9D57-949C19B1F192}" name="Column811"/>
+    <tableColumn id="812" xr3:uid="{F2277E7C-2267-1D43-AFCB-AE5FCFAEC7AE}" name="Column812"/>
+    <tableColumn id="813" xr3:uid="{AD0F673C-9AEC-394B-A25A-52273760A5DC}" name="Column813"/>
+    <tableColumn id="814" xr3:uid="{7381121D-4C72-CD44-9F77-2055BCE984EE}" name="Column814"/>
+    <tableColumn id="815" xr3:uid="{43BB829B-D65C-B440-B22B-A51CA453F88A}" name="Column815"/>
+    <tableColumn id="816" xr3:uid="{44AA9D06-DA51-884D-8535-0209CE473572}" name="Column816"/>
+    <tableColumn id="817" xr3:uid="{4EA4D454-0C7D-324F-B5BC-A9F081A837CA}" name="Column817"/>
+    <tableColumn id="818" xr3:uid="{6397E5FA-6391-4047-A761-2DA040192A4F}" name="Column818"/>
+    <tableColumn id="819" xr3:uid="{C421E62B-314E-274F-92C6-7785F767AD33}" name="Column819"/>
+    <tableColumn id="820" xr3:uid="{F8C8DE0F-6094-0543-A002-6908304FC49B}" name="Column820"/>
+    <tableColumn id="821" xr3:uid="{824AF9FB-E886-1E47-AFB0-B1665F53DDD6}" name="Column821"/>
+    <tableColumn id="822" xr3:uid="{AC6E75B4-C345-8F4A-97A6-339710BD9EBC}" name="Column822"/>
+    <tableColumn id="823" xr3:uid="{3135CAD5-3418-E94D-8175-339FD39A63F9}" name="Column823"/>
+    <tableColumn id="824" xr3:uid="{4EABABF6-FB81-5346-B981-9D5C897E298E}" name="Column824"/>
+    <tableColumn id="825" xr3:uid="{1FA77AD3-010B-AA47-A63C-CCCCD7F03874}" name="Column825"/>
+    <tableColumn id="826" xr3:uid="{B1DBD3EF-1256-FC43-9951-FE1B490A7708}" name="Column826"/>
+    <tableColumn id="827" xr3:uid="{69DEC6E2-981F-AC48-85A5-6B4FD631CDE2}" name="Column827"/>
+    <tableColumn id="828" xr3:uid="{D28BA7F6-79DB-6C4A-84A9-08A1201B00EC}" name="Column828"/>
+    <tableColumn id="829" xr3:uid="{BA23A11D-7758-7C44-992C-C694E5B6B548}" name="Column829"/>
+    <tableColumn id="830" xr3:uid="{083C56AD-39F6-4C47-AEA8-4FD6E9269E5A}" name="Column830"/>
+    <tableColumn id="831" xr3:uid="{21776153-7443-5E45-8EFC-C64454F2F9FA}" name="Column831"/>
+    <tableColumn id="832" xr3:uid="{44FEB938-AB3A-834F-99D3-DA2EA5934536}" name="Column832"/>
+    <tableColumn id="833" xr3:uid="{4AE2C068-C1E8-9346-89DA-7A3914A51E2C}" name="Column833"/>
+    <tableColumn id="834" xr3:uid="{F7DBE054-2D77-3F44-B308-E07FA77AA48C}" name="Column834"/>
+    <tableColumn id="835" xr3:uid="{8F99C6D6-3EE9-C240-82D6-14931A94C5E6}" name="Column835"/>
+    <tableColumn id="836" xr3:uid="{01100DC7-A4D9-3040-927D-6BBDA9D9E96D}" name="Column836"/>
+    <tableColumn id="837" xr3:uid="{0FC36AFE-147B-B94F-A664-865BD8E27BC4}" name="Column837"/>
+    <tableColumn id="838" xr3:uid="{02556865-FEF3-F94C-A6FE-08AC1B6DB701}" name="Column838"/>
+    <tableColumn id="839" xr3:uid="{AF485156-56DC-624C-9259-F8469189294D}" name="Column839"/>
+    <tableColumn id="840" xr3:uid="{CC800557-94F2-4A42-A8E6-6C6D5712ED95}" name="Column840"/>
+    <tableColumn id="841" xr3:uid="{25E6E929-4873-D240-B96F-B9203AC6FFC2}" name="Column841"/>
+    <tableColumn id="842" xr3:uid="{93A78906-1D4A-1B41-B9E6-DA2DFB14279A}" name="Column842"/>
+    <tableColumn id="843" xr3:uid="{6D020493-6B81-A844-8245-63D5A1432280}" name="Column843"/>
+    <tableColumn id="844" xr3:uid="{3733DC7D-4704-3542-85C3-32A03B294D4E}" name="Column844"/>
+    <tableColumn id="845" xr3:uid="{0D514E79-2BB3-7347-B092-0EE29EE538FA}" name="Column845"/>
+    <tableColumn id="846" xr3:uid="{637F9A75-DDB4-F043-8E9C-2176827A6AA6}" name="Column846"/>
+    <tableColumn id="847" xr3:uid="{B26C6D43-BA5B-2645-8232-764E28377930}" name="Column847"/>
+    <tableColumn id="848" xr3:uid="{43859D94-26C2-3545-ACC3-2B4E77B6768E}" name="Column848"/>
+    <tableColumn id="849" xr3:uid="{DF95E5B5-0FD2-5748-841D-03182A25FBCD}" name="Column849"/>
+    <tableColumn id="850" xr3:uid="{ED6ADFEA-820F-5D41-8AFE-7A89E06A2E22}" name="Column850"/>
+    <tableColumn id="851" xr3:uid="{B8E2F6D1-F36D-E640-870A-2B3223A5CFA4}" name="Column851"/>
+    <tableColumn id="852" xr3:uid="{40B903D1-210B-FD4E-B14E-F308FCDF2154}" name="Column852"/>
+    <tableColumn id="853" xr3:uid="{31C3596C-FEB4-C04D-93BD-1F2DD889ADD2}" name="Column853"/>
+    <tableColumn id="854" xr3:uid="{C70F3D04-C853-BB43-BBBE-DB9205899E28}" name="Column854"/>
+    <tableColumn id="855" xr3:uid="{55F88BB1-6762-D649-90B1-A4CA5C0C1E80}" name="Column855"/>
+    <tableColumn id="856" xr3:uid="{77BF16FE-AE47-5D47-92F3-1B0A30151AA8}" name="Column856"/>
+    <tableColumn id="857" xr3:uid="{93E431B7-5E59-0645-9E1F-5C03115BD4F1}" name="Column857"/>
+    <tableColumn id="858" xr3:uid="{CAF6C70B-B816-5642-A291-A723A97A6EF6}" name="Column858"/>
+    <tableColumn id="859" xr3:uid="{580615D1-986C-B84D-AFFC-FA4244D51BB9}" name="Column859"/>
+    <tableColumn id="860" xr3:uid="{B5E3214F-598E-5845-81E1-DCE47C129835}" name="Column860"/>
+    <tableColumn id="861" xr3:uid="{620FCAF8-C043-DC48-9CC4-377234428D86}" name="Column861"/>
+    <tableColumn id="862" xr3:uid="{A0B2F06D-F37A-A445-8123-9888BE4A58DA}" name="Column862"/>
+    <tableColumn id="863" xr3:uid="{F8ECF8B6-1C2D-F845-91F5-3DF84B07EA01}" name="Column863"/>
+    <tableColumn id="864" xr3:uid="{93E88B48-363B-8E48-8A4A-E0DF74FD5022}" name="Column864"/>
+    <tableColumn id="865" xr3:uid="{3C8621B4-BE1B-A544-A7E8-0EA8C53017D4}" name="Column865"/>
+    <tableColumn id="866" xr3:uid="{0471A23B-A88C-D544-9808-5442BB3A0EEC}" name="Column866"/>
+    <tableColumn id="867" xr3:uid="{91A3565B-15AE-A64C-B42D-75408E83E7A8}" name="Column867"/>
+    <tableColumn id="868" xr3:uid="{1EE96EA0-CB23-D743-9B52-C94AF20D2A0A}" name="Column868"/>
+    <tableColumn id="869" xr3:uid="{65DBAD89-E55E-FF45-A5C8-530380018CF4}" name="Column869"/>
+    <tableColumn id="870" xr3:uid="{130BAD0E-9C7A-A34F-BEF4-84377DDF5D51}" name="Column870"/>
+    <tableColumn id="871" xr3:uid="{044B9BE4-9886-2849-A883-105063999B6F}" name="Column871"/>
+    <tableColumn id="872" xr3:uid="{F08105A2-B236-CC46-9B7B-8BC01F195310}" name="Column872"/>
+    <tableColumn id="873" xr3:uid="{034E6EC6-5B15-6243-A484-A0D18A9EEE97}" name="Column873"/>
+    <tableColumn id="874" xr3:uid="{BE0B8DF5-43E4-964E-8CFD-B2C5E46009B5}" name="Column874"/>
+    <tableColumn id="875" xr3:uid="{320372EB-3912-2741-9B8E-427B4E46A423}" name="Column875"/>
+    <tableColumn id="876" xr3:uid="{B7031678-C8D5-4946-ACBA-C3F155C19FC2}" name="Column876"/>
+    <tableColumn id="877" xr3:uid="{FACC04AA-80D7-C644-A088-6C6F42B66977}" name="Column877"/>
+    <tableColumn id="878" xr3:uid="{80ECCDA6-11F6-C84B-9016-7E04FC04D410}" name="Column878"/>
+    <tableColumn id="879" xr3:uid="{F1D763AD-CD8B-0445-AA4A-5A97B8CD709A}" name="Column879"/>
+    <tableColumn id="880" xr3:uid="{92775EB3-2327-8743-82E2-54D56B1E8640}" name="Column880"/>
+    <tableColumn id="881" xr3:uid="{A5318B70-E1CA-744F-8C08-9D498F40EA34}" name="Column881"/>
+    <tableColumn id="882" xr3:uid="{5D8FB729-E369-3744-8A90-0164784AD71A}" name="Column882"/>
+    <tableColumn id="883" xr3:uid="{5E633D62-0ADA-E447-A974-C22B84236362}" name="Column883"/>
+    <tableColumn id="884" xr3:uid="{3836E18C-E633-324F-9C91-A6BBDDCA54DF}" name="Column884"/>
+    <tableColumn id="885" xr3:uid="{17DDD750-220B-1D40-95AC-D2CE28E2624B}" name="Column885"/>
+    <tableColumn id="886" xr3:uid="{A59E3910-EBD8-1E4F-99BA-F7DDC7CABAAB}" name="Column886"/>
+    <tableColumn id="887" xr3:uid="{EFAAE2E9-1E1A-CE45-A265-446C4568A1F3}" name="Column887"/>
+    <tableColumn id="888" xr3:uid="{9C2F1A9F-F628-DD42-9CC7-19C3CAA35090}" name="Column888"/>
+    <tableColumn id="889" xr3:uid="{000CDF8C-A70E-6443-B7CF-DADB5886058A}" name="Column889"/>
+    <tableColumn id="890" xr3:uid="{B30B2896-F01C-7C49-A96D-D07C60E59EB7}" name="Column890"/>
+    <tableColumn id="891" xr3:uid="{EAEF1374-EDED-E640-819B-957AF635D240}" name="Column891"/>
+    <tableColumn id="892" xr3:uid="{7CA5EFA9-7893-1C47-A0FF-2AF94C27DF0E}" name="Column892"/>
+    <tableColumn id="893" xr3:uid="{E1514429-C6A9-4244-8B22-4CD5A3663E94}" name="Column893"/>
+    <tableColumn id="894" xr3:uid="{842A04DD-D0E2-1248-B8F0-557A28E008A1}" name="Column894"/>
+    <tableColumn id="895" xr3:uid="{2887A505-DDDA-8647-A5B7-EF268DE31C40}" name="Column895"/>
+    <tableColumn id="896" xr3:uid="{7C7EE1FC-B562-E54A-9FD8-6D3A449436EA}" name="Column896"/>
+    <tableColumn id="897" xr3:uid="{D3636E03-0C5E-A243-B665-3BEA03AE2E5A}" name="Column897"/>
+    <tableColumn id="898" xr3:uid="{5A6A4D05-CC42-5949-A8D2-E90FC6CAC939}" name="Column898"/>
+    <tableColumn id="899" xr3:uid="{F7AFA3C2-B7B2-DA4A-8364-180942C7DFB3}" name="Column899"/>
+    <tableColumn id="900" xr3:uid="{CF19B715-7CDA-A14A-9075-51019E30D8D6}" name="Column900"/>
+    <tableColumn id="901" xr3:uid="{BB1667C5-A050-814E-B4CC-DA2BA33F1C1F}" name="Column901"/>
+    <tableColumn id="902" xr3:uid="{7F9A2CED-35EC-6A40-8FA7-1AE9986EB8A7}" name="Column902"/>
+    <tableColumn id="903" xr3:uid="{C12AF9E6-49B2-C042-97CB-92BE7E0B21F5}" name="Column903"/>
+    <tableColumn id="904" xr3:uid="{317B3705-7539-9A46-A2F0-CD939197470A}" name="Column904"/>
+    <tableColumn id="905" xr3:uid="{568838D3-1C7E-AE4E-B873-2F03551A7F65}" name="Column905"/>
+    <tableColumn id="906" xr3:uid="{EBE66417-4B53-3A4F-A18B-130309DC9386}" name="Column906"/>
+    <tableColumn id="907" xr3:uid="{2D0D3B85-4DD6-DC48-BF69-8F897497FD7A}" name="Column907"/>
+    <tableColumn id="908" xr3:uid="{FC290D3F-D6A0-0843-B225-14BC3A478F77}" name="Column908"/>
+    <tableColumn id="909" xr3:uid="{C96FAF23-8A2C-B64F-81D2-A8E2E8A7BB2A}" name="Column909"/>
+    <tableColumn id="910" xr3:uid="{FAFF394A-BEDD-3549-B9BC-C9D78F7D2771}" name="Column910"/>
+    <tableColumn id="911" xr3:uid="{5710214D-61F7-214D-9F64-84C80A67E6CD}" name="Column911"/>
+    <tableColumn id="912" xr3:uid="{1FD627EC-C709-2045-A2A9-C023DFBA4FD5}" name="Column912"/>
+    <tableColumn id="913" xr3:uid="{5B320342-5760-124A-A2FC-893B99D68232}" name="Column913"/>
+    <tableColumn id="914" xr3:uid="{CD93F8AF-E2F3-7E45-9845-065B51B4328F}" name="Column914"/>
+    <tableColumn id="915" xr3:uid="{3D8EB718-FC47-6943-9E15-82DFDB0D7466}" name="Column915"/>
+    <tableColumn id="916" xr3:uid="{BB768F11-4416-3846-A328-E6BFD8CB9B8C}" name="Column916"/>
+    <tableColumn id="917" xr3:uid="{9163F0C5-2654-EA4D-AC6D-337835442D5D}" name="Column917"/>
+    <tableColumn id="918" xr3:uid="{1C6C51B0-73BF-BC4D-B208-AE0B1D3FA5A9}" name="Column918"/>
+    <tableColumn id="919" xr3:uid="{890EA392-FDFE-044C-991B-0C410A2B2D67}" name="Column919"/>
+    <tableColumn id="920" xr3:uid="{9CBA8F6F-13FE-4549-B8FF-B593E9626B16}" name="Column920"/>
+    <tableColumn id="921" xr3:uid="{8562AD89-9B01-ED41-B076-D8A537D90251}" name="Column921"/>
+    <tableColumn id="922" xr3:uid="{308834A4-EE8E-994D-B2E0-D16274FAB32C}" name="Column922"/>
+    <tableColumn id="923" xr3:uid="{9E709949-6F21-FE4E-8D87-3224858DCA7B}" name="Column923"/>
+    <tableColumn id="924" xr3:uid="{E5379D1D-8033-D34D-869B-9E641188282E}" name="Column924"/>
+    <tableColumn id="925" xr3:uid="{ABE73D88-D648-0347-9021-F34720ED24C9}" name="Column925"/>
+    <tableColumn id="926" xr3:uid="{6085B7FD-03C4-544D-A5F4-03592B66F796}" name="Column926"/>
+    <tableColumn id="927" xr3:uid="{A4526FEC-4E17-2C45-B102-BD2D861FCA74}" name="Column927"/>
+    <tableColumn id="928" xr3:uid="{71BD50A9-A9CB-624B-B2FC-325CA18EA14C}" name="Column928"/>
+    <tableColumn id="929" xr3:uid="{F607ADE6-4C7D-7345-9F7D-EEBE7E9E7784}" name="Column929"/>
+    <tableColumn id="930" xr3:uid="{216FE263-AF96-7C48-8778-65D0E7BFFD83}" name="Column930"/>
+    <tableColumn id="931" xr3:uid="{454798B4-BEE4-404A-BC4A-2DEF5C16A5E7}" name="Column931"/>
+    <tableColumn id="932" xr3:uid="{8E9ED727-7668-D343-A61B-FB067ECA9000}" name="Column932"/>
+    <tableColumn id="933" xr3:uid="{BE668395-88E3-9641-BF75-C94F2577677E}" name="Column933"/>
+    <tableColumn id="934" xr3:uid="{ED451E18-ECD8-2B47-A2DF-D4C6C5299E5B}" name="Column934"/>
+    <tableColumn id="935" xr3:uid="{E6816AF6-40C5-2446-B306-F2E3018717B4}" name="Column935"/>
+    <tableColumn id="936" xr3:uid="{61B022F1-1ED6-1748-8F09-590D1839CC69}" name="Column936"/>
+    <tableColumn id="937" xr3:uid="{20341658-2EA3-9E4E-87C7-6026AEFAC876}" name="Column937"/>
+    <tableColumn id="938" xr3:uid="{E3EC4DBC-2D3E-084D-B32E-95870A983DE6}" name="Column938"/>
+    <tableColumn id="939" xr3:uid="{74C6741E-AB30-734F-8A07-B919254AA506}" name="Column939"/>
+    <tableColumn id="940" xr3:uid="{2C253CE9-A3CE-7A4D-B822-ACFD81885995}" name="Column940"/>
+    <tableColumn id="941" xr3:uid="{C3083EC4-F508-4F43-83B9-88CB0F180E92}" name="Column941"/>
+    <tableColumn id="942" xr3:uid="{58455D69-2C85-9144-B9F2-1E4DFFB43216}" name="Column942"/>
+    <tableColumn id="943" xr3:uid="{47E5934C-E370-0543-A1B3-0F589EEF07F6}" name="Column943"/>
+    <tableColumn id="944" xr3:uid="{4F92C090-34A1-3E48-9A54-9F09C66CCD64}" name="Column944"/>
+    <tableColumn id="945" xr3:uid="{8E2B3335-23BF-384F-B687-1D8AA1FE4A74}" name="Column945"/>
+    <tableColumn id="946" xr3:uid="{507BBCE1-B01B-8446-857C-9A1893213DC0}" name="Column946"/>
+    <tableColumn id="947" xr3:uid="{2D7CCAF9-62F9-6341-B6BD-A1DC430FCD73}" name="Column947"/>
+    <tableColumn id="948" xr3:uid="{CB2F99D8-3B56-794A-AAA6-4CF6E8983371}" name="Column948"/>
+    <tableColumn id="949" xr3:uid="{6F118168-19B3-D840-9C84-E5FC8CAAC139}" name="Column949"/>
+    <tableColumn id="950" xr3:uid="{BED7F852-5B0C-974B-AC5F-849B755E116F}" name="Column950"/>
+    <tableColumn id="951" xr3:uid="{346201AF-555C-804C-B25E-E60E84534466}" name="Column951"/>
+    <tableColumn id="952" xr3:uid="{CAB0B748-9A07-C647-A558-22BA64BB0AB3}" name="Column952"/>
+    <tableColumn id="953" xr3:uid="{13F20FF0-A269-014F-85EF-DDFCE173A005}" name="Column953"/>
+    <tableColumn id="954" xr3:uid="{F8DE2AD3-10B1-BF4E-8782-2A7EFF477D62}" name="Column954"/>
+    <tableColumn id="955" xr3:uid="{DFB17852-0F0F-0F49-90FD-D3BE0B49C57F}" name="Column955"/>
+    <tableColumn id="956" xr3:uid="{6228E2E3-4263-8F44-A377-BD8CD3775A38}" name="Column956"/>
+    <tableColumn id="957" xr3:uid="{D71B77BC-3E39-5147-B4E1-73BADFEC8830}" name="Column957"/>
+    <tableColumn id="958" xr3:uid="{59DB7A2C-6B82-5E4A-BE3B-0D7D57C0F6D1}" name="Column958"/>
+    <tableColumn id="959" xr3:uid="{82D39CB2-D151-E14A-8D76-3AC7DF9A2536}" name="Column959"/>
+    <tableColumn id="960" xr3:uid="{E5D7BF0A-3BAF-5B44-9A1B-CA35392107A6}" name="Column960"/>
+    <tableColumn id="961" xr3:uid="{07FCA4EF-FEE4-2645-8B03-32BC5FD10B2F}" name="Column961"/>
+    <tableColumn id="962" xr3:uid="{6AC48BBA-9134-D540-B20F-5896FB2483F3}" name="Column962"/>
+    <tableColumn id="963" xr3:uid="{C764DCA8-BC4A-324E-A5B3-76A6713DFF08}" name="Column963"/>
+    <tableColumn id="964" xr3:uid="{A7D041E5-9F66-894E-9606-2299E59ADD33}" name="Column964"/>
+    <tableColumn id="965" xr3:uid="{D263B767-0AB6-5B40-9484-3EDFFCBE5391}" name="Column965"/>
+    <tableColumn id="966" xr3:uid="{3419D46A-E6CD-4644-A4FC-6B059124AEBC}" name="Column966"/>
+    <tableColumn id="967" xr3:uid="{8D85A19B-59D4-5545-ABBF-FF536848EDD0}" name="Column967"/>
+    <tableColumn id="968" xr3:uid="{6A533FF5-53E0-BE40-9FBC-34E8E7C77129}" name="Column968"/>
+    <tableColumn id="969" xr3:uid="{798E16C0-3E59-784F-9210-4EE669B786C7}" name="Column969"/>
+    <tableColumn id="970" xr3:uid="{E864F8BF-FD46-8F4D-BA82-BD8FDC89F997}" name="Column970"/>
+    <tableColumn id="971" xr3:uid="{3F06224A-7B03-5A40-9572-FB3B3A97F42A}" name="Column971"/>
+    <tableColumn id="972" xr3:uid="{DAFCF3C4-6176-844F-B08D-B5DBECA8C79C}" name="Column972"/>
+    <tableColumn id="973" xr3:uid="{AF980E12-5773-A042-803B-1B70CA2033A8}" name="Column973"/>
+    <tableColumn id="974" xr3:uid="{A58D70D5-0303-A640-B4A7-3FDEE3544BA3}" name="Column974"/>
+    <tableColumn id="975" xr3:uid="{AEC767E8-344C-F54A-86A2-428695ECE15F}" name="Column975"/>
+    <tableColumn id="976" xr3:uid="{E9CC3178-49D5-4040-9F29-07D79387F792}" name="Column976"/>
+    <tableColumn id="977" xr3:uid="{7466A081-CC69-AB40-9C7F-D921CDBC7E88}" name="Column977"/>
+    <tableColumn id="978" xr3:uid="{D730F6E9-2D8E-244C-A52F-A0DAD556E548}" name="Column978"/>
+    <tableColumn id="979" xr3:uid="{20C0DF41-169B-4D4D-B881-9B689A1F6CCA}" name="Column979"/>
+    <tableColumn id="980" xr3:uid="{EA2753CB-7C7B-8A49-A9FF-F4B73CB2BBB5}" name="Column980"/>
+    <tableColumn id="981" xr3:uid="{AF1ECE9F-FCC1-6549-B3E8-BA4E93BCE7FB}" name="Column981"/>
+    <tableColumn id="982" xr3:uid="{F2EE9579-67AA-1241-A0DE-934C4881B786}" name="Column982"/>
+    <tableColumn id="983" xr3:uid="{D18633BB-F6F6-E043-BF28-6C44CB4631C6}" name="Column983"/>
+    <tableColumn id="984" xr3:uid="{72A24C55-9A15-DF43-AFA0-72176FC03327}" name="Column984"/>
+    <tableColumn id="985" xr3:uid="{1B6CFA59-54ED-824B-BC82-302F68E73DB2}" name="Column985"/>
+    <tableColumn id="986" xr3:uid="{951988EE-0E05-9843-9000-3894731F2B9A}" name="Column986"/>
+    <tableColumn id="987" xr3:uid="{63418511-DFB4-DD45-8417-8CBE3006F6EE}" name="Column987"/>
+    <tableColumn id="988" xr3:uid="{09D54647-E2BC-8144-886E-49A0B1D27B39}" name="Column988"/>
+    <tableColumn id="989" xr3:uid="{933953AE-0E47-1B43-991A-3233330CC1E8}" name="Column989"/>
+    <tableColumn id="990" xr3:uid="{E29502D1-C07D-D040-AC2B-00DF934D7442}" name="Column990"/>
+    <tableColumn id="991" xr3:uid="{E1D5B53A-3EC3-9F46-85AD-6A2B5BCAF611}" name="Column991"/>
+    <tableColumn id="992" xr3:uid="{77B52FF3-692C-B246-843F-AFD54ABB380A}" name="Column992"/>
+    <tableColumn id="993" xr3:uid="{CBEC51F3-1797-274C-95B2-D3007701B0FB}" name="Column993"/>
+    <tableColumn id="994" xr3:uid="{65097E31-18D8-9743-962C-3EB4FDF33B92}" name="Column994"/>
+    <tableColumn id="995" xr3:uid="{45383C64-E8F0-DE43-81B5-6A35CB693716}" name="Column995"/>
+    <tableColumn id="996" xr3:uid="{D6124E6B-957F-4342-B19F-FB09670DB01B}" name="Column996"/>
+    <tableColumn id="997" xr3:uid="{89D84CF1-BAC6-4442-9E17-0EA4B0D9690E}" name="Column997"/>
+    <tableColumn id="998" xr3:uid="{28714957-CDD3-6246-B66D-8DADA21E6886}" name="Column998"/>
+    <tableColumn id="999" xr3:uid="{4D57A20F-C2BF-0B49-85D9-D53D14F1806C}" name="Column999"/>
+    <tableColumn id="1000" xr3:uid="{14A91EE8-8509-8143-BCC8-C4577AC41ECC}" name="Column1000"/>
+    <tableColumn id="1001" xr3:uid="{7C403C92-6373-7D45-AE07-9328532AF13C}" name="Column1001"/>
+    <tableColumn id="1002" xr3:uid="{9D3A84F8-3A72-484E-B6B2-30796B84495F}" name="Column1002"/>
+    <tableColumn id="1003" xr3:uid="{853DFE14-4C85-7D40-AEB8-5DB9E40C0197}" name="Column1003"/>
+    <tableColumn id="1004" xr3:uid="{DC76CE93-4674-2F45-B829-C8B1608A6C9A}" name="Column1004"/>
+    <tableColumn id="1005" xr3:uid="{B290AC33-5271-0E42-A18E-EA629084D7EF}" name="Column1005"/>
+    <tableColumn id="1006" xr3:uid="{2A6AD080-5BDC-7C42-9A18-E2899677810A}" name="Column1006"/>
+    <tableColumn id="1007" xr3:uid="{E650F8DB-F683-AC45-8243-37644D6C1579}" name="Column1007"/>
+    <tableColumn id="1008" xr3:uid="{0E7EF7FA-619F-AC4F-93F0-81F54C13A19D}" name="Column1008"/>
+    <tableColumn id="1009" xr3:uid="{DB76D2C7-9333-064D-8D1A-63180E12C175}" name="Column1009"/>
+    <tableColumn id="1010" xr3:uid="{6B6998DC-DF7C-424A-94B5-CC3387DE6EBB}" name="Column1010"/>
+    <tableColumn id="1011" xr3:uid="{F9C56439-C727-0A4C-8A57-FF818CE7C57F}" name="Column1011"/>
+    <tableColumn id="1012" xr3:uid="{B716645E-1C93-7D44-A715-65E69241BFC9}" name="Column1012"/>
+    <tableColumn id="1013" xr3:uid="{CBED82FB-3B88-3C45-9248-8C63160BCF80}" name="Column1013"/>
+    <tableColumn id="1014" xr3:uid="{14ABE8DE-BE43-E441-A6D3-1CCA2B8ED0A9}" name="Column1014"/>
+    <tableColumn id="1015" xr3:uid="{A566954D-BA05-5342-80EF-23DC78FBA3BA}" name="Column1015"/>
+    <tableColumn id="1016" xr3:uid="{F33E4863-088D-3A4C-A72B-FB24EBED9D25}" name="Column1016"/>
+    <tableColumn id="1017" xr3:uid="{60014A24-7FEC-E94B-AFD1-DC37CD8C3832}" name="Column1017"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2514,12 +2530,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49EADE5A-98B7-3E40-A447-767E10E48956}">
-  <dimension ref="A1:E53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1651342F-A944-A646-B5ED-DB0D4005691F}">
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="29.5" style="12" customWidth="1"/>
     <col min="2" max="2" width="37.6640625" style="11" customWidth="1"/>
@@ -2957,7 +2973,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14">
+    <row r="29" spans="1:5">
       <c r="A29" s="3" t="s">
         <v>115</v>
       </c>
@@ -2974,7 +2990,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="14">
+    <row r="30" spans="1:5">
       <c r="A30" s="3" t="s">
         <v>120</v>
       </c>
@@ -2989,7 +3005,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="14">
+    <row r="31" spans="1:5">
       <c r="A31" s="3" t="s">
         <v>124</v>
       </c>
@@ -3004,7 +3020,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="14">
+    <row r="32" spans="1:5">
       <c r="A32" s="3" t="s">
         <v>128</v>
       </c>
@@ -3019,7 +3035,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="14">
+    <row r="33" spans="1:5">
       <c r="A33" s="3" t="s">
         <v>132</v>
       </c>
@@ -3034,7 +3050,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14">
+    <row r="34" spans="1:5">
       <c r="A34" s="8" t="s">
         <v>136</v>
       </c>
@@ -3049,7 +3065,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="14">
+    <row r="35" spans="1:5">
       <c r="A35" s="3" t="s">
         <v>140</v>
       </c>
@@ -3064,7 +3080,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="14">
+    <row r="36" spans="1:5">
       <c r="A36" s="3" t="s">
         <v>144</v>
       </c>
@@ -3079,7 +3095,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="14">
+    <row r="37" spans="1:5">
       <c r="A37" s="10" t="s">
         <v>148</v>
       </c>
@@ -3093,7 +3109,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="14">
+    <row r="38" spans="1:5">
       <c r="A38" s="10" t="s">
         <v>152</v>
       </c>
@@ -3107,7 +3123,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="14">
+    <row r="39" spans="1:5">
       <c r="A39" s="10" t="s">
         <v>156</v>
       </c>
@@ -3121,7 +3137,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="14">
+    <row r="40" spans="1:5">
       <c r="A40" s="12" t="s">
         <v>160</v>
       </c>
@@ -3135,7 +3151,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="14">
+    <row r="41" spans="1:5">
       <c r="A41" s="12" t="s">
         <v>164</v>
       </c>
@@ -3149,7 +3165,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="14">
+    <row r="42" spans="1:5">
       <c r="A42" s="12" t="s">
         <v>168</v>
       </c>
@@ -3163,7 +3179,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14">
+    <row r="43" spans="1:5">
       <c r="A43" s="12" t="s">
         <v>172</v>
       </c>
@@ -3180,7 +3196,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="14">
+    <row r="44" spans="1:5">
       <c r="A44" s="12" t="s">
         <v>177</v>
       </c>
@@ -3194,7 +3210,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="14">
+    <row r="45" spans="1:5">
       <c r="A45" s="12" t="s">
         <v>181</v>
       </c>
@@ -3270,7 +3286,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="14">
+    <row r="50" spans="1:5">
       <c r="A50" s="12" t="s">
         <v>202</v>
       </c>
@@ -3284,7 +3300,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="14">
+    <row r="51" spans="1:5">
       <c r="A51" s="12" t="s">
         <v>206</v>
       </c>
@@ -3298,7 +3314,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="14">
+    <row r="52" spans="1:5">
       <c r="A52" s="12" t="s">
         <v>210</v>
       </c>
@@ -3312,7 +3328,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="14">
+    <row r="53" spans="1:5">
       <c r="A53" s="12" t="s">
         <v>214</v>
       </c>
@@ -3326,11 +3342,25 @@
         <v>217</v>
       </c>
     </row>
+    <row r="54" spans="1:5" ht="15">
+      <c r="A54" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E38" r:id="rId1" xr:uid="{38EE9E38-720B-3543-B128-EF551A58E1AE}"/>
-    <hyperlink ref="E39" r:id="rId2" xr:uid="{AE7D9DBF-88A3-C549-B2DA-7904DC91F963}"/>
-    <hyperlink ref="E41" r:id="rId3" xr:uid="{634B4D58-39FF-794E-B28B-D1DA12B5EA55}"/>
+    <hyperlink ref="E38" r:id="rId1" xr:uid="{A2F9F6FF-9172-054D-81B0-DB3BC8696434}"/>
+    <hyperlink ref="E39" r:id="rId2" xr:uid="{2897AA34-B2CD-464E-AF82-85C087F7F4D5}"/>
+    <hyperlink ref="E41" r:id="rId3" xr:uid="{E510CF8A-4805-DA42-939E-46E9D8AD7287}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>
   <headerFooter>

--- a/data/cci/cci-platformprog.xlsx
+++ b/data/cci/cci-platformprog.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antony.wilson/git/cci-vocabularies2/data/cci/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amw23\Documents\GitHub\cci-vocabularies\data\cci\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D101142-36C5-6E4C-8875-CB43D42232C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1F6C34-73B9-47AC-82F4-A5ABC79CC5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{4D380965-4325-DA46-9678-A8F4BC4ABC47}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{4D380965-4325-DA46-9678-A8F4BC4ABC47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="240">
   <si>
     <t>URI</t>
   </si>
@@ -891,6 +891,60 @@
   </si>
   <si>
     <t>https://space.oscar.wmo.int/satelliteprogrammes/view/sentinel_6</t>
+  </si>
+  <si>
+    <t>plat_erbs_prog</t>
+  </si>
+  <si>
+    <t>Earth Radiation Budget Satellite</t>
+  </si>
+  <si>
+    <t>ERBS</t>
+  </si>
+  <si>
+    <t>Earth Radiation Budget Satellite programme</t>
+  </si>
+  <si>
+    <t>https://space.oscar.wmo.int/satelliteprogrammes/view/erbs</t>
+  </si>
+  <si>
+    <t>plat_uars_prog</t>
+  </si>
+  <si>
+    <t>Upper Atmosphere Research Satellite</t>
+  </si>
+  <si>
+    <t>UARS</t>
+  </si>
+  <si>
+    <t>Upper Atmosphere Research Satellite programme</t>
+  </si>
+  <si>
+    <t>https://space.oscar.wmo.int/satelliteprogrammes/view/uars</t>
+  </si>
+  <si>
+    <t>Meteor-3M</t>
+  </si>
+  <si>
+    <t>Meteor-3M programme</t>
+  </si>
+  <si>
+    <t>https://space.oscar.wmo.int/satelliteprogrammes/view/meteor_3m</t>
+  </si>
+  <si>
+    <t>plat_meteor3m_prog</t>
+  </si>
+  <si>
+    <t>plat_iss_prog</t>
+  </si>
+  <si>
+    <t>International Space Station</t>
+  </si>
+  <si>
+    <t>ISS</t>
+  </si>
+  <si>
+    <t>https://space.oscar.wmo.int/satelliteprogrammes/view/iss</t>
   </si>
 </sst>
 </file>
@@ -1123,32 +1177,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Accent" xfId="7" xr:uid="{0D1E76D5-A312-CD4D-9277-12C830723FF6}"/>
@@ -2531,533 +2578,535 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1651342F-A944-A646-B5ED-DB0D4005691F}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="29.5" style="12" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="136.5" style="11" customWidth="1"/>
-    <col min="5" max="5" width="72.33203125" style="11" customWidth="1"/>
-    <col min="6" max="64" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="29.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="37.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="136.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="72.375" style="6" customWidth="1"/>
+    <col min="6" max="64" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.75" customHeight="1">
+    <row r="1" spans="1:5" ht="17.850000000000001" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.75" customHeight="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" ht="17.850000000000001" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17.75" customHeight="1">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:5" ht="17.850000000000001" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17.75" customHeight="1">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:5" ht="17.850000000000001" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17.75" customHeight="1">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:5" ht="17.850000000000001" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17.75" customHeight="1">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:5" ht="17.850000000000001" customHeight="1">
+      <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17.75" customHeight="1">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:5" ht="17.850000000000001" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17.75" customHeight="1">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:5" ht="17.850000000000001" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17.75" customHeight="1">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:5" ht="17.850000000000001" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17.75" customHeight="1">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:5" ht="17.850000000000001" customHeight="1">
+      <c r="A10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="17.75" customHeight="1">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:5" ht="17.850000000000001" customHeight="1">
+      <c r="A11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="17.75" customHeight="1">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:5" ht="17.850000000000001" customHeight="1">
+      <c r="A12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="17.75" customHeight="1">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:5" ht="17.850000000000001" customHeight="1">
+      <c r="A13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="17.75" customHeight="1">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:5" ht="17.850000000000001" customHeight="1">
+      <c r="A14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="17.75" customHeight="1">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:5" ht="17.850000000000001" customHeight="1">
+      <c r="A15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="17.75" customHeight="1">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:5" ht="17.850000000000001" customHeight="1">
+      <c r="A16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="17.75" customHeight="1">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:5" ht="17.850000000000001" customHeight="1">
+      <c r="A17" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="7" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="17.75" customHeight="1">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:5" ht="17.850000000000001" customHeight="1">
+      <c r="A18" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="17.75" customHeight="1">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:5" ht="17.850000000000001" customHeight="1">
+      <c r="A19" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="4" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="17.75" customHeight="1">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:5" ht="17.850000000000001" customHeight="1">
+      <c r="A20" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="4" t="s">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="17.75" customHeight="1">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:5" ht="17.850000000000001" customHeight="1">
+      <c r="A21" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="4" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="17.75" customHeight="1">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:5" ht="17.850000000000001" customHeight="1">
+      <c r="A22" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="7" t="s">
+      <c r="C22" s="3"/>
+      <c r="D22" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="17.75" customHeight="1">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:5" ht="17.850000000000001" customHeight="1">
+      <c r="A23" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="4" t="s">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="17.75" customHeight="1">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:5" ht="17.850000000000001" customHeight="1">
+      <c r="A24" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="4" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="17.75" customHeight="1">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:5" ht="17.850000000000001" customHeight="1">
+      <c r="A25" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="4" t="s">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="17.75" customHeight="1">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:5" ht="17.850000000000001" customHeight="1">
+      <c r="A26" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="4" t="s">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="17.75" customHeight="1">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:5" ht="17.850000000000001" customHeight="1">
+      <c r="A27" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="4" t="s">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="17.75" customHeight="1">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:5" ht="17.850000000000001" customHeight="1">
+      <c r="A28" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4" t="s">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="4" t="s">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="3" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="4" t="s">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="7" t="s">
+      <c r="C32" s="3"/>
+      <c r="D32" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="3" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="7" t="s">
+      <c r="C33" s="3"/>
+      <c r="D33" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="9"/>
+      <c r="C34" s="5"/>
       <c r="D34" t="s">
         <v>138</v>
       </c>
@@ -3066,294 +3115,359 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4" t="s">
+      <c r="C35" s="3"/>
+      <c r="D35" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="3" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4" t="s">
+      <c r="C36" s="3"/>
+      <c r="D36" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="3" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="10" t="s">
+      <c r="A37" t="s">
         <v>148</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="6" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="10" t="s">
+      <c r="A38" t="s">
         <v>152</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="6" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="10" t="s">
+      <c r="A39" t="s">
         <v>156</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="6" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="6" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="6" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="6" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="6" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="6" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15">
-      <c r="A46" s="12" t="s">
+    <row r="46" spans="1:5">
+      <c r="A46" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="E46" s="7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16">
-      <c r="A47" s="12" t="s">
+    <row r="47" spans="1:5" ht="15">
+      <c r="A47" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="E47" s="13" t="s">
+      <c r="E47" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15">
-      <c r="A48" s="12" t="s">
+    <row r="48" spans="1:5">
+      <c r="A48" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E48" s="7" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15">
-      <c r="A49" s="12" t="s">
+    <row r="49" spans="1:5">
+      <c r="A49" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="E49" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="6" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="6" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="6" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="6" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15">
-      <c r="A54" s="12" t="s">
+    <row r="54" spans="1:5">
+      <c r="A54" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="E54" s="13" t="s">
+      <c r="E54" s="7" t="s">
         <v>221</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
